--- a/song ids.xlsx
+++ b/song ids.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -170,1063 +170,1066 @@
     <t>1MCem6JigI6jgQPMgriKbU</t>
   </si>
   <si>
+    <t>7DD7eSuYSC5xk2ArU62esN</t>
+  </si>
+  <si>
+    <t>4Z80C8NlDd1AO4axf1O3n0</t>
+  </si>
+  <si>
+    <t>5N4vVbNotNwWGG8KcCdstR</t>
+  </si>
+  <si>
+    <t>4RY96Asd9IefaL3X4LOLZ8</t>
+  </si>
+  <si>
+    <t>2TfSHkHiFO4gRztVIkggkE</t>
+  </si>
+  <si>
+    <t>6EPRKhUOdiFSQwGBRBbvsZ</t>
+  </si>
+  <si>
+    <t>02eD9ymfJOJOhM97HYp5R9</t>
+  </si>
+  <si>
+    <t>3XVBdLihbNbxUwZosxcGuJ</t>
+  </si>
+  <si>
+    <t>1BwrMGGhPA6GarWIYaFrW8</t>
+  </si>
+  <si>
+    <t>5v4GgrXPMghOnBBLmveLac</t>
+  </si>
+  <si>
+    <t>3TGRqZ0a2l1LRblBkJoaDx</t>
+  </si>
+  <si>
+    <t>0K6yUnIKNsFtfIpTgGtcHm</t>
+  </si>
+  <si>
+    <t>61MZN0yyMWSEwrLPUUGfgJ</t>
+  </si>
+  <si>
+    <t>2yzPBlE5UXK2sqvnNM9QQ0</t>
+  </si>
+  <si>
+    <t>3oAWTk92mZBxKBOKf8mR5v</t>
+  </si>
+  <si>
+    <t>2Mb3zpobD0CvJGWv6NpsPy</t>
+  </si>
+  <si>
+    <t>11IzgLRXV7Cgek3tEgGgjw</t>
+  </si>
+  <si>
+    <t>5Ohxk2dO5COHF1krpoPigN</t>
+  </si>
+  <si>
+    <t>0FWhGmPVxLI6jOVF0wjALa</t>
+  </si>
+  <si>
+    <t>3hlksXnvbKogFdPbpO9vel</t>
+  </si>
+  <si>
+    <t>58PSYdY0GFg0LFb2PxYk4T</t>
+  </si>
+  <si>
+    <t>6MdqqkQ8sSC0WB4i8PyRuQ</t>
+  </si>
+  <si>
+    <t>6PNvv1dmDbOWrAYwEcuKBX</t>
+  </si>
+  <si>
+    <t>1YrnDTqvcnUKxAIeXyaEmU</t>
+  </si>
+  <si>
+    <t>4s6LhHAV5SEsOV0lC2tjvJ</t>
+  </si>
+  <si>
+    <t>6xkryXuiZU360Lngd4sx13</t>
+  </si>
+  <si>
+    <t>4fQMGlCawbTkH9yPPZ49kP</t>
+  </si>
+  <si>
+    <t>32OlwWuMpZ6b0aN2RZOeMS</t>
+  </si>
+  <si>
+    <t>1L94M3KIu7QluZe63g64rv</t>
+  </si>
+  <si>
+    <t>1YwNlWLf8auhazSQUDQLFU</t>
+  </si>
+  <si>
+    <t>5WHY6S6FO0bdRNd8xYxyAG</t>
+  </si>
+  <si>
+    <t>1DKyFVzIh1oa1fFnEmTkIl</t>
+  </si>
+  <si>
+    <t>3XWgwgbWDI56mf1Wl3cLzb</t>
+  </si>
+  <si>
+    <t>4xmeLj3uVcoAwgDtwM4MbG</t>
+  </si>
+  <si>
+    <t>701oRFDRzsz3WdhCFOtUJj</t>
+  </si>
+  <si>
+    <t>5UWwZ5lm5PKu6eKsHAGxOk</t>
+  </si>
+  <si>
+    <t>476V2d6iA2tWXgQboKmTtA</t>
+  </si>
+  <si>
+    <t>5EWPGh7jbTNO2wakv8LjUI</t>
+  </si>
+  <si>
+    <t>1kCewNSs909Xj1naXr36X8</t>
+  </si>
+  <si>
+    <t>6KTv0Z8BmVqM7DPxbGzpVC</t>
+  </si>
+  <si>
+    <t>53Za5vyGc1x7GxgJVRjRKc</t>
+  </si>
+  <si>
+    <t>0bRXwKfigvpKZUurwqAlEh</t>
+  </si>
+  <si>
+    <t>4xh7W7tlNMIczFhupCPniY</t>
+  </si>
+  <si>
+    <t>4JRem7xHp2l0kmUvt9zCKu</t>
+  </si>
+  <si>
+    <t>0RnCUYXa7jhgTXtiMXF2PQ</t>
+  </si>
+  <si>
+    <t>39lSeqnyjZJejRuaREfyLL</t>
+  </si>
+  <si>
+    <t>1p50Ir1Hm6Sa1urjaLGi7L</t>
+  </si>
+  <si>
+    <t>1v98rfd0an913AzHvMNG8a</t>
+  </si>
+  <si>
+    <t>3pRaLNL3b8x5uBOcsgvdqM</t>
+  </si>
+  <si>
+    <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
+  </si>
+  <si>
+    <t>05ZACkzW8YbRq3eFgIfSNB</t>
+  </si>
+  <si>
+    <t>5BIMPccDwShpXq784RJlJp</t>
+  </si>
+  <si>
+    <t>1QaJWSCk3UMKLotnPCIHh1</t>
+  </si>
+  <si>
+    <t>0LWkaEyQRkF0XAms8Bg1fC</t>
+  </si>
+  <si>
+    <t>4AwKXevZmsTNa3KZVj3rzl</t>
+  </si>
+  <si>
+    <t>0UAJH0k4k3slcE83a9UGCe</t>
+  </si>
+  <si>
+    <t>3SnGymj6ijE2iuUfWxLo1q</t>
+  </si>
+  <si>
+    <t>58q2HKrzhC3ozto2nDdN4z</t>
+  </si>
+  <si>
+    <t>0wXuerDYiBnERgIpbb3JBR</t>
+  </si>
+  <si>
+    <t>0IVkP59yJ9GFF6B7IrvrxA</t>
+  </si>
+  <si>
+    <t>4oPNN7syJYSjzDhRerF966</t>
+  </si>
+  <si>
+    <t>003vvx7Niy0yvhvHt4a68B</t>
+  </si>
+  <si>
+    <t>1tuwC1Ob5vnYZhvg3zyzJg</t>
+  </si>
+  <si>
+    <t>6h3YJ05BovN1Pgk145J3r9</t>
+  </si>
+  <si>
+    <t>7cNRqg0lbiqBaGeOlA4AEU</t>
+  </si>
+  <si>
+    <t>5ndGYGQJGv1hbpTKD6gzLZ</t>
+  </si>
+  <si>
+    <t>0wwPcA6wtMf6HUMpIRdeP7</t>
+  </si>
+  <si>
+    <t>69uJi5QsBtqlYkGURTBli8</t>
+  </si>
+  <si>
+    <t>5Wj1rJnCLpMHdLaxsFtJLs</t>
+  </si>
+  <si>
+    <t>2OARIMw1hpehr86Iwmv04c</t>
+  </si>
+  <si>
+    <t>4alHo6RGd0D3OUbTPExTHN</t>
+  </si>
+  <si>
+    <t>2EoOZnxNgtmZaD8uUmz2nD</t>
+  </si>
+  <si>
+    <t>7DfFc7a6Rwfi3YQMRbDMau</t>
+  </si>
+  <si>
+    <t>7jeOETwLUP84mPQzxlD5nh</t>
+  </si>
+  <si>
+    <t>6ui6l3ZNvlrGQZArwo8195</t>
+  </si>
+  <si>
+    <t>7x2xjJV3YAPeLQJ7u3Kjet</t>
+  </si>
+  <si>
+    <t>5O4erNlJ74PIF6kGol1ZrC</t>
+  </si>
+  <si>
+    <t>5UDqWOgDdixYMAgAyNbpgh</t>
+  </si>
+  <si>
+    <t>1Pao4DTLMB4gJPTnqmLgSQ</t>
+  </si>
+  <si>
+    <t>4N1dFbXmRng8qJ3KdJrbLr</t>
+  </si>
+  <si>
+    <t>0Q0IVlqMV64kNLlwjPj0Hl</t>
+  </si>
+  <si>
+    <t>0lIoY4ZQsdn5QzhraM9o9u</t>
+  </si>
+  <si>
+    <t>1p80LdxRV74UKvL8gnD7ky</t>
+  </si>
+  <si>
+    <t>2ccUQnjjNWT0rsNnsBpsCA</t>
+  </si>
+  <si>
+    <t>2rBBhFXtuMoGuwYTSDpAdF</t>
+  </si>
+  <si>
+    <t>7oOOI85fVQvVnK5ynNMdW7</t>
+  </si>
+  <si>
+    <t>1TfqLAPs4K3s2rJMoCokcS</t>
+  </si>
+  <si>
+    <t>2qOm7ukLyHUXWyR4ZWLwxA</t>
+  </si>
+  <si>
+    <t>2qWKpYIleSvBT6aUMXoia5</t>
+  </si>
+  <si>
+    <t>5AJrhrwz4oSZX2PwwV4qrN</t>
+  </si>
+  <si>
+    <t>5ZgNecJcN9SSopnmCTlpXs</t>
+  </si>
+  <si>
+    <t>6xNwKNYZcvgV3XTIwsgNio</t>
+  </si>
+  <si>
+    <t>4saklk6nie3yiGePpBwUoc</t>
+  </si>
+  <si>
+    <t>12q3V8ShACq2PSWINMc2rC</t>
+  </si>
+  <si>
+    <t>3IOQZRcEkplCXg6LofKqE9</t>
+  </si>
+  <si>
+    <t>2yBVeksU2EtrPJbTu4ZslK</t>
+  </si>
+  <si>
+    <t>2lDArps4owX3Q6rOIA4Osp</t>
+  </si>
+  <si>
+    <t>3G7tRC24Uh09Hmp1KZ7LQ2</t>
+  </si>
+  <si>
+    <t>2QSUyofqpGDCo026OPiTBQ</t>
+  </si>
+  <si>
+    <t>1Y373MqadDRtclJNdnUXVc</t>
+  </si>
+  <si>
+    <t>2goLsvvODILDzeeiT4dAoR</t>
+  </si>
+  <si>
+    <t>5dFoWIiJ2814hRwMYDcFiU</t>
+  </si>
+  <si>
+    <t>1OE5l6sedVcIFELMuxQOPI</t>
+  </si>
+  <si>
+    <t>7MiLmLbwNoyf47xQ4TCVYp</t>
+  </si>
+  <si>
+    <t>113v1MA9MTShy98uCz37nO</t>
+  </si>
+  <si>
+    <t>6jX5mso4x00c1EiNMrTU9U</t>
+  </si>
+  <si>
+    <t>2g8HN35AnVGIk7B8yMucww</t>
+  </si>
+  <si>
+    <t>2DEZmgHKAvm41k4J3R2E9Y</t>
+  </si>
+  <si>
+    <t>3d9DChrdc6BOeFsbrZ3Is0</t>
+  </si>
+  <si>
+    <t>3XG801WWhqC753dekEBkMt</t>
+  </si>
+  <si>
+    <t>4yY8JqTOQyi7K4O1QcQtBG</t>
+  </si>
+  <si>
+    <t>15BQ7vEDv2LJuh8TxWIhtd</t>
+  </si>
+  <si>
+    <t>3utq2FgD1pkmIoaWfjXWAU</t>
+  </si>
+  <si>
+    <t>7dblNGnRXEBrVJunazs2U5</t>
+  </si>
+  <si>
+    <t>0CETmgFGt8Ne8vLnaLcduU</t>
+  </si>
+  <si>
+    <t>6wpGqhRvJGNNXwWlPmkMyO</t>
+  </si>
+  <si>
+    <t>3ia3dJETSOllPsv3LJkE35</t>
+  </si>
+  <si>
+    <t>4RvWPyQ5RL0ao9LPZeSouE</t>
+  </si>
+  <si>
+    <t>5Oc0vLGWdEWeCqIU8zyELt</t>
+  </si>
+  <si>
+    <t>2rslQV48gNv3r9pPrQFPW1</t>
+  </si>
+  <si>
+    <t>6O5PIO5pAWxdoxvaUFQ02G</t>
+  </si>
+  <si>
+    <t>0CLbmkYmQIWiEwnsbOkLpd</t>
+  </si>
+  <si>
+    <t>672N8DGGTOLCOgWe0koX5g</t>
+  </si>
+  <si>
+    <t>4Dq749x2QP6OXTURJ9GGY8</t>
+  </si>
+  <si>
+    <t>4NU6Vnrsh09TdZtIBYBwTA</t>
+  </si>
+  <si>
+    <t>40riOy7x9W7GXjyGp4pjAv</t>
+  </si>
+  <si>
+    <t>5uvosCdMlFdTXhoazkTI5R</t>
+  </si>
+  <si>
+    <t>1k1Bqnv2R0uJXQN4u6LKYt</t>
+  </si>
+  <si>
+    <t>2N5zMZX7YeL1tico8oQxa9</t>
+  </si>
+  <si>
+    <t>2oZmMp5M6L0Rh7G84Um2tF</t>
+  </si>
+  <si>
+    <t>1JSTJqkT5qHq8MDJnJbRE1</t>
+  </si>
+  <si>
+    <t>1KGi9sZVMeszgZOWivFpxs</t>
+  </si>
+  <si>
+    <t>6mFkJmJqdDVQ1REhVfGgd1</t>
+  </si>
+  <si>
+    <t>6UBjSnyP1O5W5ndJoO9vUk</t>
+  </si>
+  <si>
+    <t>2Q5wSOwq6BDSu7sSVMNrtT</t>
+  </si>
+  <si>
+    <t>3sLhMSePzxSrmxluIqeoAZ</t>
+  </si>
+  <si>
+    <t>3R2q3FCnNIw2XhuEbYtYk6</t>
+  </si>
+  <si>
+    <t>2Gy7qnDwt8Z3MNxqat4CsK</t>
+  </si>
+  <si>
+    <t>0XyjtybwqSdqMAFfBEkmZf</t>
+  </si>
+  <si>
+    <t>0cJPLFrlV7TTCyPLupHzcH</t>
+  </si>
+  <si>
+    <t>3cw3Z7mS55gd3NUjh4k0bL</t>
+  </si>
+  <si>
+    <t>5Z8EDau8uNcP1E8JvmfkZe</t>
+  </si>
+  <si>
+    <t>3Ti0GdlrotgwsAVBBugv0I</t>
+  </si>
+  <si>
+    <t>18AXbzPzBS8Y3AkgSxzJPb</t>
+  </si>
+  <si>
+    <t>5rb9QrpfcKFHM1EUbSIurX</t>
+  </si>
+  <si>
+    <t>1Vp8U39YNsDfd6yVuaUq12</t>
+  </si>
+  <si>
+    <t>2SiXAy7TuUkycRVbbWDEpo</t>
+  </si>
+  <si>
+    <t>0GjEhVFGZW8afUYGChu3Rr</t>
+  </si>
+  <si>
+    <t>7H6ev70Weq6DdpZyyTmUXk</t>
+  </si>
+  <si>
+    <t>2L93TdW2GMue1H2zlkt30F</t>
+  </si>
+  <si>
+    <t>47mA6f44zxLtdATOoY7GjN</t>
+  </si>
+  <si>
+    <t>1qQSRy9DjrGh3jtsSCU6B1</t>
+  </si>
+  <si>
+    <t>3XrvEifl0hIzgBGUa5jBLS</t>
+  </si>
+  <si>
+    <t>1h04XMpzGzmAudoI6VHBgA</t>
+  </si>
+  <si>
+    <t>63OQupATfueTdZMWTxW03A</t>
+  </si>
+  <si>
+    <t>2EISedV2npKMtvygkykV2r</t>
+  </si>
+  <si>
+    <t>760clbeDBWmBsBLbszWuNZ</t>
+  </si>
+  <si>
+    <t>5YUJMvTg4AWHKjqQidTsGK</t>
+  </si>
+  <si>
+    <t>6SMHgPgNkhe9lneNTbgtel</t>
+  </si>
+  <si>
+    <t>3gsCAGsWr6pUm1Vy7CPPob</t>
+  </si>
+  <si>
+    <t>43DeSV93pJPT4lCZaWZ6b1</t>
+  </si>
+  <si>
+    <t>78ZqE2tjAxbqEGGlvGnQfT</t>
+  </si>
+  <si>
+    <t>2oDqmfa2g8W893LlwJG1qu</t>
+  </si>
+  <si>
+    <t>2qhASBzpbFhPRtrnZ5lLnz</t>
+  </si>
+  <si>
+    <t>2ZNTPtYmAhN9vCwnAgqKn1</t>
+  </si>
+  <si>
+    <t>124NFj84ppZ5pAxTuVQYCQ</t>
+  </si>
+  <si>
+    <t>170DNUSnQRp1tGpppF26pA</t>
+  </si>
+  <si>
+    <t>1l2Xmg54EUr3TDzNIaCr1z</t>
+  </si>
+  <si>
+    <t>3g3xDtGtU0asKw6iYCYiG5</t>
+  </si>
+  <si>
+    <t>7zrPswSV1yxrill5OyCuaU</t>
+  </si>
+  <si>
+    <t>25ugoarRZ6IaZegrjNxGOx</t>
+  </si>
+  <si>
+    <t>1Q1b8eVkUPGlpSArl8JAVw</t>
+  </si>
+  <si>
+    <t>7kjg2NCn3Zx70m1DFHSSGO</t>
+  </si>
+  <si>
+    <t>3VgrSJEKBRT3xmwzpaxxEF</t>
+  </si>
+  <si>
+    <t>54bm2e3tk8cliUz3VSdCPZ</t>
+  </si>
+  <si>
+    <t>3mM14WXoPaLRjjkmxHe99L</t>
+  </si>
+  <si>
+    <t>52FlwUMMDnTK8TGkCag9Jd</t>
+  </si>
+  <si>
+    <t>2uRVPeQbsEpRQD0DKr1WTo</t>
+  </si>
+  <si>
+    <t>1v1PV2wERHiMPesMWX0qmO</t>
+  </si>
+  <si>
+    <t>7cv28LXcjAC3GsXbUvXKbX</t>
+  </si>
+  <si>
+    <t>0wJoRiX5K5BxlqZTolB2LD</t>
+  </si>
+  <si>
+    <t>7pu8AhGUxHZSCWTkQ2eb5M</t>
+  </si>
+  <si>
+    <t>6KIKRz9eSTXdNsGUnomdtW</t>
+  </si>
+  <si>
+    <t>0DAmSYQW9kq9gQNDI002KP</t>
+  </si>
+  <si>
+    <t>4lJ6YVXQ0jUk5ILu0PSrA4</t>
+  </si>
+  <si>
+    <t>0Puj4YlTm6xNzDDADXHMI9</t>
+  </si>
+  <si>
+    <t>5GjPQ0eI7AgmOnADn1EO6Q</t>
+  </si>
+  <si>
+    <t>5UvE5QlINnvEc7aFO14DVL</t>
+  </si>
+  <si>
+    <t>3OcQkcvTcohs8vO8Rd3sKF</t>
+  </si>
+  <si>
+    <t>47BBI51FKFwOMlIiX6m8ya</t>
+  </si>
+  <si>
+    <t>1sSuFkO3m3Cr6YN24NYol5</t>
+  </si>
+  <si>
+    <t>13Oi7vfd9mrujcEmGAYAPe</t>
+  </si>
+  <si>
+    <t>3M8FzayQWtkvOhqMn2V4T2</t>
+  </si>
+  <si>
+    <t>6hHc7Pks7wtBIW8Z6A0iFq</t>
+  </si>
+  <si>
+    <t>4a01ClusxuZiloOK5UgLUn</t>
+  </si>
+  <si>
+    <t>2He3NOyqtLNE3RQPpeDdSb</t>
+  </si>
+  <si>
+    <t>4u9f8hqstB7iITDJNzKhQx</t>
+  </si>
+  <si>
+    <t>2tUBqZG2AbRi7Q0BIrVrEj</t>
+  </si>
+  <si>
+    <t>2HCaIYjkvWSZzaSKUoOh3d</t>
+  </si>
+  <si>
+    <t>3ZjrfGcb3A2PMGA1vRNgSk</t>
+  </si>
+  <si>
+    <t>5R9a4t5t5O0IsznsrKPVro</t>
+  </si>
+  <si>
+    <t>4BP3uh0hFLFRb5cjsgLqDh</t>
+  </si>
+  <si>
+    <t>0WQiDwKJclirSYG9v5tayI</t>
+  </si>
+  <si>
+    <t>1pjATX7sbd6Y4jMVqIvzHk</t>
+  </si>
+  <si>
+    <t>2kkvB3RNRzwjFdGhaUA0tz</t>
+  </si>
+  <si>
+    <t>3UmaczJpikHgJFyBTAJVoz</t>
+  </si>
+  <si>
+    <t>2PuUFT13yCzUOZun94WOXv</t>
+  </si>
+  <si>
+    <t>44BmNSqH9uZV5OfIjGcER3</t>
+  </si>
+  <si>
+    <t>6wVViUl2xSRoDK2T7dMZbR</t>
+  </si>
+  <si>
+    <t>5tVA6TkbaAH9QMITTQRrNv</t>
+  </si>
+  <si>
+    <t>4NRQwaks9r58tTDvr4iEyv</t>
+  </si>
+  <si>
+    <t>2id8E4WvczfKHB4LHI7Np3</t>
+  </si>
+  <si>
+    <t>4gphxUgq0JSFv2BCLhNDiE</t>
+  </si>
+  <si>
+    <t>33ZXjLCpiINn8eQIDYEPTD</t>
+  </si>
+  <si>
+    <t>7Hx2EA4wGaxtsiZCVVLV1i</t>
+  </si>
+  <si>
+    <t>63T7DJ1AFDD6Bn8VzG6JE8</t>
+  </si>
+  <si>
+    <t>1QEEqeFIZktqIpPI4jSVSF</t>
+  </si>
+  <si>
+    <t>6ADSaE87h8Y3lccZlBJdXH</t>
+  </si>
+  <si>
+    <t>4gvea7UlDkAvsJBPZAd4oB</t>
+  </si>
+  <si>
+    <t>49t1GWE6ZiEoBgN92oMDdM</t>
+  </si>
+  <si>
+    <t>59WN2psjkt1tyaxjspN8fp</t>
+  </si>
+  <si>
+    <t>6V9VCm1zOY2lGR80RehJ9i</t>
+  </si>
+  <si>
+    <t>3MjUtNVVq3C8Fn0MP3zhXa</t>
+  </si>
+  <si>
+    <t>7uPmQttafLiJyju14JREY4</t>
+  </si>
+  <si>
+    <t>2eF8pWbiivYsYRpbntYsnc</t>
+  </si>
+  <si>
+    <t>38zsOOcu31XbbYj9BIPUF1</t>
+  </si>
+  <si>
+    <t>6YffUZJ2R06kyxyK6onezL</t>
+  </si>
+  <si>
+    <t>0LrwgdLsFaWh9VXIjBRe8t</t>
+  </si>
+  <si>
+    <t>5MxNLUsfh7uzROypsoO5qe</t>
+  </si>
+  <si>
+    <t>3VZmChrnVW8JK6ano4gSED</t>
+  </si>
+  <si>
+    <t>0CcL4kSHKIEwF3IW0BGgb6</t>
+  </si>
+  <si>
+    <t>6hpmTwgNCz81H2bFEREx29</t>
+  </si>
+  <si>
+    <t>3zpj9dvJABiyMrmLCPw6i8</t>
+  </si>
+  <si>
+    <t>3m2Zd230K68bC4Qe961d9p</t>
+  </si>
+  <si>
+    <t>52dm9op3rbfAkc1LGXgipW</t>
+  </si>
+  <si>
+    <t>63BokRfXSQhEU6Qi2dSJpZ</t>
+  </si>
+  <si>
+    <t>4FdDorlbJTVHcH3djLbIfn</t>
+  </si>
+  <si>
+    <t>5n8Aro6j1bEGIy7Tpo7FV7</t>
+  </si>
+  <si>
+    <t>72Z17vmmeQKAg8bptWvpVG</t>
+  </si>
+  <si>
+    <t>1Eolhana7nKHYpcYpdVcT5</t>
+  </si>
+  <si>
+    <t>6k9DUKMJpWvu6eFG3O64Lg</t>
+  </si>
+  <si>
+    <t>5YLnfy7R2kueN0BRPkjiEG</t>
+  </si>
+  <si>
+    <t>1OOtq8tRnDM8kG2gqUPjAj</t>
+  </si>
+  <si>
+    <t>3nvuPQTw2zuFAVuLsC9IYQ</t>
+  </si>
+  <si>
+    <t>0n2pjCIMKwHSXoYfEbYMfX</t>
+  </si>
+  <si>
+    <t>2YplrdHMBoRdnHgMeHEwHm</t>
+  </si>
+  <si>
+    <t>2BGNomqCxEDcXyxf8bg27k</t>
+  </si>
+  <si>
+    <t>5p3JunprHCxClJjOmcLV8G</t>
+  </si>
+  <si>
+    <t>5HNCy40Ni5BZJFw1TKzRsC</t>
+  </si>
+  <si>
+    <t>2Fxmhks0bxGSBdJ92vM42m</t>
+  </si>
+  <si>
+    <t>7N3PAbqfTjSEU1edb2tY8j</t>
+  </si>
+  <si>
+    <t>29SyMC0plk6qw8NMF7lfRL</t>
+  </si>
+  <si>
+    <t>3YdKJzcoMZMacISlpY4QoP</t>
+  </si>
+  <si>
+    <t>46dGFTD918NMz1IP1rPJXO</t>
+  </si>
+  <si>
+    <t>7Me0vOSlJfaPY7Pc4GeItd</t>
+  </si>
+  <si>
+    <t>29U7stRjqHU6rMiS8BfaI9</t>
+  </si>
+  <si>
+    <t>0GVvRmCoiLkhxJvlZy9bLk</t>
+  </si>
+  <si>
+    <t>7MRyJPksH3G2cXHN8UKYzP</t>
+  </si>
+  <si>
+    <t>7odHgoLFi3GQ90E9PeraI3</t>
+  </si>
+  <si>
+    <t>5Z01UMMf7V1o0MzF86s6WJ</t>
+  </si>
+  <si>
+    <t>0WNGPpmWqzPnk0psUhJ3SX</t>
+  </si>
+  <si>
+    <t>4tj7IsJrn4MvesuhoY0JBy</t>
+  </si>
+  <si>
+    <t>3RkQ3UwOyPqpIiIvGVewuU</t>
+  </si>
+  <si>
+    <t>5ihS6UUlyQAfmp48eSkxuQ</t>
+  </si>
+  <si>
+    <t>4KROoGIaPaR1pBHPnR3bwC</t>
+  </si>
+  <si>
+    <t>2m0M7YqCy4lXfedh18qd8N</t>
+  </si>
+  <si>
+    <t>6G0NzOx2jEPFsSmhr9N8Ys</t>
+  </si>
+  <si>
+    <t>3qiyyUfYe7CRYLucrPmulD</t>
+  </si>
+  <si>
+    <t>0WSlOSMLJWoWUpWci9nnRb</t>
+  </si>
+  <si>
+    <t>0WIbzDVEpmOyBnqqdtqIL9</t>
+  </si>
+  <si>
+    <t>0iA3xXSkSCiJywKyo1UKjQ</t>
+  </si>
+  <si>
+    <t>7j02rdE5RVtNcNMuLGY5SS</t>
+  </si>
+  <si>
+    <t>2dCmGcEOQrMQhMMS8Vj7Ca</t>
+  </si>
+  <si>
+    <t>2EZc13S7YRi6bTS3SKteRN</t>
+  </si>
+  <si>
+    <t>0bwy3sGHeYwng2Ioicq6wf</t>
+  </si>
+  <si>
+    <t>6L89mwZXSOwYl76YXfX13s</t>
+  </si>
+  <si>
+    <t>3gdewACMIVMEWVbyb8O9sY</t>
+  </si>
+  <si>
+    <t>6Vjk8MNXpQpi0F4BefdTyq</t>
+  </si>
+  <si>
+    <t>06PdA0DLgF4BfAeUNZAbFG</t>
+  </si>
+  <si>
+    <t>1oht5GevPN9t1T3kG1m1GO</t>
+  </si>
+  <si>
+    <t>0I3q5fE6wg7LIfHGngUTnV</t>
+  </si>
+  <si>
+    <t>1uBsu3PbD2909UBIfEMLvK</t>
+  </si>
+  <si>
+    <t>5jzma6gCzYtKB1DbEwFZKH</t>
+  </si>
+  <si>
+    <t>1q0wCfrE9eGFMzS2g8aVnx</t>
+  </si>
+  <si>
+    <t>6rovOdp3HgK1DeAMYDzoA7</t>
+  </si>
+  <si>
+    <t>423hwXFgoN8RYmqLoLuVvY</t>
+  </si>
+  <si>
+    <t>27QvYgBk0CHOVHthWnkuWt</t>
+  </si>
+  <si>
+    <t>0a4agFmqHXxcZl1nho1BxM</t>
+  </si>
+  <si>
+    <t>6ocbgoVGwYJhOv1GgI9NsF</t>
+  </si>
+  <si>
+    <t>36AlMHDBFwSsD3FQOy1R81</t>
+  </si>
+  <si>
+    <t>6nEkxYIEnrbYH7h1hJ8Xn6</t>
+  </si>
+  <si>
+    <t>3Be7CLdHZpyzsVijme39cW</t>
+  </si>
+  <si>
+    <t>4bHsxqR3GMrXTxEPLuK5ue</t>
+  </si>
+  <si>
+    <t>0SwuCcwpFM6x4cu5zOvmi0</t>
+  </si>
+  <si>
+    <t>3SdTKo2uVsxFblQjpScoHy</t>
+  </si>
+  <si>
+    <t>6rLqjzGV5VMLDWEnuUqi8q</t>
+  </si>
+  <si>
+    <t>2aSC2xhRxOLiiZZVjhbylH</t>
+  </si>
+  <si>
+    <t>0hCB0YR03f6AmQaHbwWDe8</t>
+  </si>
+  <si>
+    <t>6qspW4YKycviDFjHBOaqUY</t>
+  </si>
+  <si>
+    <t>3tyTt5pEWblt96j1HsXiV5</t>
+  </si>
+  <si>
+    <t>3LoDeIbiR12sAznmpNEmKA</t>
+  </si>
+  <si>
+    <t>50RwvvEKX5Q7AZt8FTAwIF</t>
+  </si>
+  <si>
+    <t>6aBUnkXuCEQQHAlTokv9or</t>
+  </si>
+  <si>
+    <t>6AeG6jSoAVbmUFO6LyYmBf</t>
+  </si>
+  <si>
+    <t>7iN1s7xHE4ifF5povM6A48</t>
+  </si>
+  <si>
+    <t>7weMJXfu8leOPWd4COj2Qp</t>
+  </si>
+  <si>
+    <t>1tqT6DhmsrtQgyCKUwotiw</t>
+  </si>
+  <si>
+    <t>70LcF31zb1H0PyJoS1Sx1r</t>
+  </si>
+  <si>
+    <t>3NfxSdJnVdon1axzloJgba</t>
+  </si>
+  <si>
+    <t>0gFB5H3pHN13ERt2FyMuWi</t>
+  </si>
+  <si>
+    <t>4Hhv2vrOTy89HFRcjU3QOx</t>
+  </si>
+  <si>
+    <t>6I9VzXrHxO9rA9A5euc8Ak</t>
+  </si>
+  <si>
+    <t>0dMd4rilfd6gPbXaLpNYhu</t>
+  </si>
+  <si>
+    <t>31AOj9sFz2gM0O3hMARRBx</t>
+  </si>
+  <si>
+    <t>56lhDZNQ5J47aog6mGKeGk</t>
+  </si>
+  <si>
+    <t>0pNeVovbiZHkulpGeOx1Gj</t>
+  </si>
+  <si>
+    <t>4ZVZBc5xvMyV3WzWktn8i7</t>
+  </si>
+  <si>
+    <t>76GlO5H5RT6g7y0gev86Nk</t>
+  </si>
+  <si>
+    <t>119c93MHjrDLJTApCVGpvx</t>
+  </si>
+  <si>
+    <t>1Ud6moTC0KyXMq1Oxfien0</t>
+  </si>
+  <si>
+    <t>3ZE3wv8V3w2T2f7nOCjV0N</t>
+  </si>
+  <si>
+    <t>5LxvwujISqiB8vpRYv887S</t>
+  </si>
+  <si>
+    <t>3jS7bB0oXVOwGFZn3aE5NV</t>
+  </si>
+  <si>
+    <t>3SQhmctWreNM0X6Zkm2K5R</t>
+  </si>
+  <si>
+    <t>7sKDftgGirHWTVFMtJoDoh</t>
+  </si>
+  <si>
+    <t>18GiV1BaXzPVYpp9rmOg0E</t>
+  </si>
+  <si>
+    <t>5ubvP9oKmxLUVq506fgLhk</t>
+  </si>
+  <si>
+    <t>3KfbEIOC7YIv90FIfNSZpo</t>
+  </si>
+  <si>
+    <t>272Z4tzaSMMcgrZ0R494S2</t>
+  </si>
+  <si>
+    <t>7sLpSWxQazJzDVG6YGzlVs</t>
+  </si>
+  <si>
+    <t>7ygpwy2qP3NbrxVkHvUhXY</t>
+  </si>
+  <si>
+    <t>4eHbdreAnSOrDDsFfc4Fpm</t>
+  </si>
+  <si>
+    <t>3xrn9i8zhNZsTtcoWgQEAd</t>
+  </si>
+  <si>
+    <t>0ZvgXNstN4o2ZXPomtBYVp</t>
+  </si>
+  <si>
+    <t>4ns1XFP3W5JPyzvnAjMdHD</t>
+  </si>
+  <si>
+    <t>5K09WxKdlkroDyEVyOSySy</t>
+  </si>
+  <si>
+    <t>0aym2LBJBk9DAYuHHutrIl</t>
+  </si>
+  <si>
+    <t>7snQQk1zcKl8gZ92AnueZW</t>
+  </si>
+  <si>
+    <t>2Ud3deeqLAG988pfW0Kwcl</t>
+  </si>
+  <si>
+    <t>4hq0S6wznq7SHDyMOFXL9i</t>
+  </si>
+  <si>
+    <t>62LJFaYihsdVrrkgUOJC05</t>
+  </si>
+  <si>
+    <t>63xdwScd1Ai1GigAwQxE8y</t>
+  </si>
+  <si>
+    <t>4n1ZGm3TxYmoYe1YR8cMus</t>
+  </si>
+  <si>
+    <t>1c8gk2PeTE04A1pIDH9YMk</t>
+  </si>
+  <si>
+    <t>3fElupNRLRJ0tbUDahPrAb</t>
+  </si>
+  <si>
+    <t>5yQ9iMZXGcr5rlO4hoLsP4</t>
+  </si>
+  <si>
+    <t>3FAclTFfvUuQYnEsptbK8w</t>
+  </si>
+  <si>
+    <t>6Pkj4nv5K53i64cLVgkVyY</t>
+  </si>
+  <si>
+    <t>5E5HYgxGMp3BPakHGfKfIB</t>
+  </si>
+  <si>
+    <t>7hxZF4jETnE5Q75rKQnMjE</t>
+  </si>
+  <si>
+    <t>2fXKyAyPrEa24c6PJyqznF</t>
+  </si>
+  <si>
+    <t>7yzbimr8WVyAtBX3Eg6UL9</t>
+  </si>
+  <si>
+    <t>6g0Orsxv6glTJCt4cHsRsQ</t>
+  </si>
+  <si>
     <t>3BQHpFgAp4l80e1XslIjNI</t>
-  </si>
-  <si>
-    <t>4Z80C8NlDd1AO4axf1O3n0</t>
-  </si>
-  <si>
-    <t>5N4vVbNotNwWGG8KcCdstR</t>
-  </si>
-  <si>
-    <t>4RY96Asd9IefaL3X4LOLZ8</t>
-  </si>
-  <si>
-    <t>2TfSHkHiFO4gRztVIkggkE</t>
-  </si>
-  <si>
-    <t>6EPRKhUOdiFSQwGBRBbvsZ</t>
-  </si>
-  <si>
-    <t>02eD9ymfJOJOhM97HYp5R9</t>
-  </si>
-  <si>
-    <t>3XVBdLihbNbxUwZosxcGuJ</t>
-  </si>
-  <si>
-    <t>1BwrMGGhPA6GarWIYaFrW8</t>
-  </si>
-  <si>
-    <t>5v4GgrXPMghOnBBLmveLac</t>
-  </si>
-  <si>
-    <t>3TGRqZ0a2l1LRblBkJoaDx</t>
-  </si>
-  <si>
-    <t>0K6yUnIKNsFtfIpTgGtcHm</t>
-  </si>
-  <si>
-    <t>61MZN0yyMWSEwrLPUUGfgJ</t>
-  </si>
-  <si>
-    <t>2yzPBlE5UXK2sqvnNM9QQ0</t>
-  </si>
-  <si>
-    <t>3oAWTk92mZBxKBOKf8mR5v</t>
-  </si>
-  <si>
-    <t>2Mb3zpobD0CvJGWv6NpsPy</t>
-  </si>
-  <si>
-    <t>5Ohxk2dO5COHF1krpoPigN</t>
-  </si>
-  <si>
-    <t>0FWhGmPVxLI6jOVF0wjALa</t>
-  </si>
-  <si>
-    <t>3hlksXnvbKogFdPbpO9vel</t>
-  </si>
-  <si>
-    <t>58PSYdY0GFg0LFb2PxYk4T</t>
-  </si>
-  <si>
-    <t>6MdqqkQ8sSC0WB4i8PyRuQ</t>
-  </si>
-  <si>
-    <t>6PNvv1dmDbOWrAYwEcuKBX</t>
-  </si>
-  <si>
-    <t>1YrnDTqvcnUKxAIeXyaEmU</t>
-  </si>
-  <si>
-    <t>4s6LhHAV5SEsOV0lC2tjvJ</t>
-  </si>
-  <si>
-    <t>6xkryXuiZU360Lngd4sx13</t>
-  </si>
-  <si>
-    <t>4fQMGlCawbTkH9yPPZ49kP</t>
-  </si>
-  <si>
-    <t>32OlwWuMpZ6b0aN2RZOeMS</t>
-  </si>
-  <si>
-    <t>1L94M3KIu7QluZe63g64rv</t>
-  </si>
-  <si>
-    <t>1YwNlWLf8auhazSQUDQLFU</t>
-  </si>
-  <si>
-    <t>5WHY6S6FO0bdRNd8xYxyAG</t>
-  </si>
-  <si>
-    <t>1DKyFVzIh1oa1fFnEmTkIl</t>
-  </si>
-  <si>
-    <t>3XWgwgbWDI56mf1Wl3cLzb</t>
-  </si>
-  <si>
-    <t>4xmeLj3uVcoAwgDtwM4MbG</t>
-  </si>
-  <si>
-    <t>701oRFDRzsz3WdhCFOtUJj</t>
-  </si>
-  <si>
-    <t>5UWwZ5lm5PKu6eKsHAGxOk</t>
-  </si>
-  <si>
-    <t>476V2d6iA2tWXgQboKmTtA</t>
-  </si>
-  <si>
-    <t>5EWPGh7jbTNO2wakv8LjUI</t>
-  </si>
-  <si>
-    <t>1kCewNSs909Xj1naXr36X8</t>
-  </si>
-  <si>
-    <t>6KTv0Z8BmVqM7DPxbGzpVC</t>
-  </si>
-  <si>
-    <t>53Za5vyGc1x7GxgJVRjRKc</t>
-  </si>
-  <si>
-    <t>0bRXwKfigvpKZUurwqAlEh</t>
-  </si>
-  <si>
-    <t>4xh7W7tlNMIczFhupCPniY</t>
-  </si>
-  <si>
-    <t>4JRem7xHp2l0kmUvt9zCKu</t>
-  </si>
-  <si>
-    <t>0RnCUYXa7jhgTXtiMXF2PQ</t>
-  </si>
-  <si>
-    <t>39lSeqnyjZJejRuaREfyLL</t>
-  </si>
-  <si>
-    <t>1p50Ir1Hm6Sa1urjaLGi7L</t>
-  </si>
-  <si>
-    <t>1v98rfd0an913AzHvMNG8a</t>
-  </si>
-  <si>
-    <t>3pRaLNL3b8x5uBOcsgvdqM</t>
-  </si>
-  <si>
-    <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
-  </si>
-  <si>
-    <t>05ZACkzW8YbRq3eFgIfSNB</t>
-  </si>
-  <si>
-    <t>5BIMPccDwShpXq784RJlJp</t>
-  </si>
-  <si>
-    <t>1QaJWSCk3UMKLotnPCIHh1</t>
-  </si>
-  <si>
-    <t>4XSgaQfGgJ9FDCcvmOe404</t>
-  </si>
-  <si>
-    <t>4AwKXevZmsTNa3KZVj3rzl</t>
-  </si>
-  <si>
-    <t>0UAJH0k4k3slcE83a9UGCe</t>
-  </si>
-  <si>
-    <t>3SnGymj6ijE2iuUfWxLo1q</t>
-  </si>
-  <si>
-    <t>58q2HKrzhC3ozto2nDdN4z</t>
-  </si>
-  <si>
-    <t>0wXuerDYiBnERgIpbb3JBR</t>
-  </si>
-  <si>
-    <t>0IVkP59yJ9GFF6B7IrvrxA</t>
-  </si>
-  <si>
-    <t>4oPNN7syJYSjzDhRerF966</t>
-  </si>
-  <si>
-    <t>003vvx7Niy0yvhvHt4a68B</t>
-  </si>
-  <si>
-    <t>1tuwC1Ob5vnYZhvg3zyzJg</t>
-  </si>
-  <si>
-    <t>6h3YJ05BovN1Pgk145J3r9</t>
-  </si>
-  <si>
-    <t>7cNRqg0lbiqBaGeOlA4AEU</t>
-  </si>
-  <si>
-    <t>5ndGYGQJGv1hbpTKD6gzLZ</t>
-  </si>
-  <si>
-    <t>0wwPcA6wtMf6HUMpIRdeP7</t>
-  </si>
-  <si>
-    <t>69uJi5QsBtqlYkGURTBli8</t>
-  </si>
-  <si>
-    <t>5Wj1rJnCLpMHdLaxsFtJLs</t>
-  </si>
-  <si>
-    <t>2OARIMw1hpehr86Iwmv04c</t>
-  </si>
-  <si>
-    <t>4alHo6RGd0D3OUbTPExTHN</t>
-  </si>
-  <si>
-    <t>2EoOZnxNgtmZaD8uUmz2nD</t>
-  </si>
-  <si>
-    <t>7DfFc7a6Rwfi3YQMRbDMau</t>
-  </si>
-  <si>
-    <t>7jeOETwLUP84mPQzxlD5nh</t>
-  </si>
-  <si>
-    <t>6ui6l3ZNvlrGQZArwo8195</t>
-  </si>
-  <si>
-    <t>7x2xjJV3YAPeLQJ7u3Kjet</t>
-  </si>
-  <si>
-    <t>5O4erNlJ74PIF6kGol1ZrC</t>
-  </si>
-  <si>
-    <t>5UDqWOgDdixYMAgAyNbpgh</t>
-  </si>
-  <si>
-    <t>1Pao4DTLMB4gJPTnqmLgSQ</t>
-  </si>
-  <si>
-    <t>4N1dFbXmRng8qJ3KdJrbLr</t>
-  </si>
-  <si>
-    <t>0Q0IVlqMV64kNLlwjPj0Hl</t>
-  </si>
-  <si>
-    <t>0lIoY4ZQsdn5QzhraM9o9u</t>
-  </si>
-  <si>
-    <t>1p80LdxRV74UKvL8gnD7ky</t>
-  </si>
-  <si>
-    <t>2ccUQnjjNWT0rsNnsBpsCA</t>
-  </si>
-  <si>
-    <t>2rBBhFXtuMoGuwYTSDpAdF</t>
-  </si>
-  <si>
-    <t>7oOOI85fVQvVnK5ynNMdW7</t>
-  </si>
-  <si>
-    <t>1TfqLAPs4K3s2rJMoCokcS</t>
-  </si>
-  <si>
-    <t>2qOm7ukLyHUXWyR4ZWLwxA</t>
-  </si>
-  <si>
-    <t>2qWKpYIleSvBT6aUMXoia5</t>
-  </si>
-  <si>
-    <t>5AJrhrwz4oSZX2PwwV4qrN</t>
-  </si>
-  <si>
-    <t>5ZgNecJcN9SSopnmCTlpXs</t>
-  </si>
-  <si>
-    <t>6xNwKNYZcvgV3XTIwsgNio</t>
-  </si>
-  <si>
-    <t>4saklk6nie3yiGePpBwUoc</t>
-  </si>
-  <si>
-    <t>12q3V8ShACq2PSWINMc2rC</t>
-  </si>
-  <si>
-    <t>3IOQZRcEkplCXg6LofKqE9</t>
-  </si>
-  <si>
-    <t>2yBVeksU2EtrPJbTu4ZslK</t>
-  </si>
-  <si>
-    <t>2lDArps4owX3Q6rOIA4Osp</t>
-  </si>
-  <si>
-    <t>3G7tRC24Uh09Hmp1KZ7LQ2</t>
-  </si>
-  <si>
-    <t>2QSUyofqpGDCo026OPiTBQ</t>
-  </si>
-  <si>
-    <t>1Y373MqadDRtclJNdnUXVc</t>
-  </si>
-  <si>
-    <t>2goLsvvODILDzeeiT4dAoR</t>
-  </si>
-  <si>
-    <t>5dFoWIiJ2814hRwMYDcFiU</t>
-  </si>
-  <si>
-    <t>1OE5l6sedVcIFELMuxQOPI</t>
-  </si>
-  <si>
-    <t>7MiLmLbwNoyf47xQ4TCVYp</t>
-  </si>
-  <si>
-    <t>113v1MA9MTShy98uCz37nO</t>
-  </si>
-  <si>
-    <t>6jX5mso4x00c1EiNMrTU9U</t>
-  </si>
-  <si>
-    <t>2g8HN35AnVGIk7B8yMucww</t>
-  </si>
-  <si>
-    <t>2DEZmgHKAvm41k4J3R2E9Y</t>
-  </si>
-  <si>
-    <t>3d9DChrdc6BOeFsbrZ3Is0</t>
-  </si>
-  <si>
-    <t>3XG801WWhqC753dekEBkMt</t>
-  </si>
-  <si>
-    <t>4yY8JqTOQyi7K4O1QcQtBG</t>
-  </si>
-  <si>
-    <t>15BQ7vEDv2LJuh8TxWIhtd</t>
-  </si>
-  <si>
-    <t>3utq2FgD1pkmIoaWfjXWAU</t>
-  </si>
-  <si>
-    <t>7dblNGnRXEBrVJunazs2U5</t>
-  </si>
-  <si>
-    <t>0CETmgFGt8Ne8vLnaLcduU</t>
-  </si>
-  <si>
-    <t>6wpGqhRvJGNNXwWlPmkMyO</t>
-  </si>
-  <si>
-    <t>3ia3dJETSOllPsv3LJkE35</t>
-  </si>
-  <si>
-    <t>4RvWPyQ5RL0ao9LPZeSouE</t>
-  </si>
-  <si>
-    <t>5Oc0vLGWdEWeCqIU8zyELt</t>
-  </si>
-  <si>
-    <t>2rslQV48gNv3r9pPrQFPW1</t>
-  </si>
-  <si>
-    <t>6O5PIO5pAWxdoxvaUFQ02G</t>
-  </si>
-  <si>
-    <t>0CLbmkYmQIWiEwnsbOkLpd</t>
-  </si>
-  <si>
-    <t>672N8DGGTOLCOgWe0koX5g</t>
-  </si>
-  <si>
-    <t>4Dq749x2QP6OXTURJ9GGY8</t>
-  </si>
-  <si>
-    <t>4NU6Vnrsh09TdZtIBYBwTA</t>
-  </si>
-  <si>
-    <t>40riOy7x9W7GXjyGp4pjAv</t>
-  </si>
-  <si>
-    <t>5uvosCdMlFdTXhoazkTI5R</t>
-  </si>
-  <si>
-    <t>1k1Bqnv2R0uJXQN4u6LKYt</t>
-  </si>
-  <si>
-    <t>2N5zMZX7YeL1tico8oQxa9</t>
-  </si>
-  <si>
-    <t>2oZmMp5M6L0Rh7G84Um2tF</t>
-  </si>
-  <si>
-    <t>1JSTJqkT5qHq8MDJnJbRE1</t>
-  </si>
-  <si>
-    <t>1KGi9sZVMeszgZOWivFpxs</t>
-  </si>
-  <si>
-    <t>6mFkJmJqdDVQ1REhVfGgd1</t>
-  </si>
-  <si>
-    <t>6UBjSnyP1O5W5ndJoO9vUk</t>
-  </si>
-  <si>
-    <t>2Q5wSOwq6BDSu7sSVMNrtT</t>
-  </si>
-  <si>
-    <t>3sLhMSePzxSrmxluIqeoAZ</t>
-  </si>
-  <si>
-    <t>3R2q3FCnNIw2XhuEbYtYk6</t>
-  </si>
-  <si>
-    <t>2Gy7qnDwt8Z3MNxqat4CsK</t>
-  </si>
-  <si>
-    <t>0XyjtybwqSdqMAFfBEkmZf</t>
-  </si>
-  <si>
-    <t>0cJPLFrlV7TTCyPLupHzcH</t>
-  </si>
-  <si>
-    <t>3cw3Z7mS55gd3NUjh4k0bL</t>
-  </si>
-  <si>
-    <t>5Z8EDau8uNcP1E8JvmfkZe</t>
-  </si>
-  <si>
-    <t>3Ti0GdlrotgwsAVBBugv0I</t>
-  </si>
-  <si>
-    <t>18AXbzPzBS8Y3AkgSxzJPb</t>
-  </si>
-  <si>
-    <t>5rb9QrpfcKFHM1EUbSIurX</t>
-  </si>
-  <si>
-    <t>1Vp8U39YNsDfd6yVuaUq12</t>
-  </si>
-  <si>
-    <t>2SiXAy7TuUkycRVbbWDEpo</t>
-  </si>
-  <si>
-    <t>0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>7H6ev70Weq6DdpZyyTmUXk</t>
-  </si>
-  <si>
-    <t>2L93TdW2GMue1H2zlkt30F</t>
-  </si>
-  <si>
-    <t>47mA6f44zxLtdATOoY7GjN</t>
-  </si>
-  <si>
-    <t>1qQSRy9DjrGh3jtsSCU6B1</t>
-  </si>
-  <si>
-    <t>3XrvEifl0hIzgBGUa5jBLS</t>
-  </si>
-  <si>
-    <t>1h04XMpzGzmAudoI6VHBgA</t>
-  </si>
-  <si>
-    <t>63OQupATfueTdZMWTxW03A</t>
-  </si>
-  <si>
-    <t>2EISedV2npKMtvygkykV2r</t>
-  </si>
-  <si>
-    <t>760clbeDBWmBsBLbszWuNZ</t>
-  </si>
-  <si>
-    <t>5YUJMvTg4AWHKjqQidTsGK</t>
-  </si>
-  <si>
-    <t>6SMHgPgNkhe9lneNTbgtel</t>
-  </si>
-  <si>
-    <t>3gsCAGsWr6pUm1Vy7CPPob</t>
-  </si>
-  <si>
-    <t>43DeSV93pJPT4lCZaWZ6b1</t>
-  </si>
-  <si>
-    <t>78ZqE2tjAxbqEGGlvGnQfT</t>
-  </si>
-  <si>
-    <t>2oDqmfa2g8W893LlwJG1qu</t>
-  </si>
-  <si>
-    <t>2qhASBzpbFhPRtrnZ5lLnz</t>
-  </si>
-  <si>
-    <t>2ZNTPtYmAhN9vCwnAgqKn1</t>
-  </si>
-  <si>
-    <t>124NFj84ppZ5pAxTuVQYCQ</t>
-  </si>
-  <si>
-    <t>170DNUSnQRp1tGpppF26pA</t>
-  </si>
-  <si>
-    <t>1l2Xmg54EUr3TDzNIaCr1z</t>
-  </si>
-  <si>
-    <t>3g3xDtGtU0asKw6iYCYiG5</t>
-  </si>
-  <si>
-    <t>7zrPswSV1yxrill5OyCuaU</t>
-  </si>
-  <si>
-    <t>25ugoarRZ6IaZegrjNxGOx</t>
-  </si>
-  <si>
-    <t>1Q1b8eVkUPGlpSArl8JAVw</t>
-  </si>
-  <si>
-    <t>7kjg2NCn3Zx70m1DFHSSGO</t>
-  </si>
-  <si>
-    <t>3VgrSJEKBRT3xmwzpaxxEF</t>
-  </si>
-  <si>
-    <t>54bm2e3tk8cliUz3VSdCPZ</t>
-  </si>
-  <si>
-    <t>3mM14WXoPaLRjjkmxHe99L</t>
-  </si>
-  <si>
-    <t>52FlwUMMDnTK8TGkCag9Jd</t>
-  </si>
-  <si>
-    <t>2uRVPeQbsEpRQD0DKr1WTo</t>
-  </si>
-  <si>
-    <t>1v1PV2wERHiMPesMWX0qmO</t>
-  </si>
-  <si>
-    <t>7cv28LXcjAC3GsXbUvXKbX</t>
-  </si>
-  <si>
-    <t>0wJoRiX5K5BxlqZTolB2LD</t>
-  </si>
-  <si>
-    <t>7pu8AhGUxHZSCWTkQ2eb5M</t>
-  </si>
-  <si>
-    <t>6KIKRz9eSTXdNsGUnomdtW</t>
-  </si>
-  <si>
-    <t>0DAmSYQW9kq9gQNDI002KP</t>
-  </si>
-  <si>
-    <t>4lJ6YVXQ0jUk5ILu0PSrA4</t>
-  </si>
-  <si>
-    <t>0Puj4YlTm6xNzDDADXHMI9</t>
-  </si>
-  <si>
-    <t>5GjPQ0eI7AgmOnADn1EO6Q</t>
-  </si>
-  <si>
-    <t>5UvE5QlINnvEc7aFO14DVL</t>
-  </si>
-  <si>
-    <t>3OcQkcvTcohs8vO8Rd3sKF</t>
-  </si>
-  <si>
-    <t>47BBI51FKFwOMlIiX6m8ya</t>
-  </si>
-  <si>
-    <t>1sSuFkO3m3Cr6YN24NYol5</t>
-  </si>
-  <si>
-    <t>13Oi7vfd9mrujcEmGAYAPe</t>
-  </si>
-  <si>
-    <t>3M8FzayQWtkvOhqMn2V4T2</t>
-  </si>
-  <si>
-    <t>6hHc7Pks7wtBIW8Z6A0iFq</t>
-  </si>
-  <si>
-    <t>4a01ClusxuZiloOK5UgLUn</t>
-  </si>
-  <si>
-    <t>2He3NOyqtLNE3RQPpeDdSb</t>
-  </si>
-  <si>
-    <t>4u9f8hqstB7iITDJNzKhQx</t>
-  </si>
-  <si>
-    <t>2tUBqZG2AbRi7Q0BIrVrEj</t>
-  </si>
-  <si>
-    <t>2HCaIYjkvWSZzaSKUoOh3d</t>
-  </si>
-  <si>
-    <t>3ZjrfGcb3A2PMGA1vRNgSk</t>
-  </si>
-  <si>
-    <t>5R9a4t5t5O0IsznsrKPVro</t>
-  </si>
-  <si>
-    <t>4BP3uh0hFLFRb5cjsgLqDh</t>
-  </si>
-  <si>
-    <t>0WQiDwKJclirSYG9v5tayI</t>
-  </si>
-  <si>
-    <t>1pjATX7sbd6Y4jMVqIvzHk</t>
-  </si>
-  <si>
-    <t>2kkvB3RNRzwjFdGhaUA0tz</t>
-  </si>
-  <si>
-    <t>3UmaczJpikHgJFyBTAJVoz</t>
-  </si>
-  <si>
-    <t>2PuUFT13yCzUOZun94WOXv</t>
-  </si>
-  <si>
-    <t>44BmNSqH9uZV5OfIjGcER3</t>
-  </si>
-  <si>
-    <t>6wVViUl2xSRoDK2T7dMZbR</t>
-  </si>
-  <si>
-    <t>5tVA6TkbaAH9QMITTQRrNv</t>
-  </si>
-  <si>
-    <t>4NRQwaks9r58tTDvr4iEyv</t>
-  </si>
-  <si>
-    <t>2id8E4WvczfKHB4LHI7Np3</t>
-  </si>
-  <si>
-    <t>4gphxUgq0JSFv2BCLhNDiE</t>
-  </si>
-  <si>
-    <t>33ZXjLCpiINn8eQIDYEPTD</t>
-  </si>
-  <si>
-    <t>7Hx2EA4wGaxtsiZCVVLV1i</t>
-  </si>
-  <si>
-    <t>63T7DJ1AFDD6Bn8VzG6JE8</t>
-  </si>
-  <si>
-    <t>1QEEqeFIZktqIpPI4jSVSF</t>
-  </si>
-  <si>
-    <t>6ADSaE87h8Y3lccZlBJdXH</t>
-  </si>
-  <si>
-    <t>4gvea7UlDkAvsJBPZAd4oB</t>
-  </si>
-  <si>
-    <t>49t1GWE6ZiEoBgN92oMDdM</t>
-  </si>
-  <si>
-    <t>59WN2psjkt1tyaxjspN8fp</t>
-  </si>
-  <si>
-    <t>6V9VCm1zOY2lGR80RehJ9i</t>
-  </si>
-  <si>
-    <t>3MjUtNVVq3C8Fn0MP3zhXa</t>
-  </si>
-  <si>
-    <t>7uPmQttafLiJyju14JREY4</t>
-  </si>
-  <si>
-    <t>2eF8pWbiivYsYRpbntYsnc</t>
-  </si>
-  <si>
-    <t>38zsOOcu31XbbYj9BIPUF1</t>
-  </si>
-  <si>
-    <t>6YffUZJ2R06kyxyK6onezL</t>
-  </si>
-  <si>
-    <t>0LrwgdLsFaWh9VXIjBRe8t</t>
-  </si>
-  <si>
-    <t>5MxNLUsfh7uzROypsoO5qe</t>
-  </si>
-  <si>
-    <t>3VZmChrnVW8JK6ano4gSED</t>
-  </si>
-  <si>
-    <t>0CcL4kSHKIEwF3IW0BGgb6</t>
-  </si>
-  <si>
-    <t>6hpmTwgNCz81H2bFEREx29</t>
-  </si>
-  <si>
-    <t>3zpj9dvJABiyMrmLCPw6i8</t>
-  </si>
-  <si>
-    <t>3m2Zd230K68bC4Qe961d9p</t>
-  </si>
-  <si>
-    <t>52dm9op3rbfAkc1LGXgipW</t>
-  </si>
-  <si>
-    <t>63BokRfXSQhEU6Qi2dSJpZ</t>
-  </si>
-  <si>
-    <t>4FdDorlbJTVHcH3djLbIfn</t>
-  </si>
-  <si>
-    <t>5n8Aro6j1bEGIy7Tpo7FV7</t>
-  </si>
-  <si>
-    <t>72Z17vmmeQKAg8bptWvpVG</t>
-  </si>
-  <si>
-    <t>1Eolhana7nKHYpcYpdVcT5</t>
-  </si>
-  <si>
-    <t>6k9DUKMJpWvu6eFG3O64Lg</t>
-  </si>
-  <si>
-    <t>5YLnfy7R2kueN0BRPkjiEG</t>
-  </si>
-  <si>
-    <t>1OOtq8tRnDM8kG2gqUPjAj</t>
-  </si>
-  <si>
-    <t>3nvuPQTw2zuFAVuLsC9IYQ</t>
-  </si>
-  <si>
-    <t>0n2pjCIMKwHSXoYfEbYMfX</t>
-  </si>
-  <si>
-    <t>2YplrdHMBoRdnHgMeHEwHm</t>
-  </si>
-  <si>
-    <t>2BGNomqCxEDcXyxf8bg27k</t>
-  </si>
-  <si>
-    <t>5p3JunprHCxClJjOmcLV8G</t>
-  </si>
-  <si>
-    <t>5HNCy40Ni5BZJFw1TKzRsC</t>
-  </si>
-  <si>
-    <t>2Fxmhks0bxGSBdJ92vM42m</t>
-  </si>
-  <si>
-    <t>7N3PAbqfTjSEU1edb2tY8j</t>
-  </si>
-  <si>
-    <t>29SyMC0plk6qw8NMF7lfRL</t>
-  </si>
-  <si>
-    <t>3YdKJzcoMZMacISlpY4QoP</t>
-  </si>
-  <si>
-    <t>46dGFTD918NMz1IP1rPJXO</t>
-  </si>
-  <si>
-    <t>7Me0vOSlJfaPY7Pc4GeItd</t>
-  </si>
-  <si>
-    <t>29U7stRjqHU6rMiS8BfaI9</t>
-  </si>
-  <si>
-    <t>0GVvRmCoiLkhxJvlZy9bLk</t>
-  </si>
-  <si>
-    <t>7MRyJPksH3G2cXHN8UKYzP</t>
-  </si>
-  <si>
-    <t>7odHgoLFi3GQ90E9PeraI3</t>
-  </si>
-  <si>
-    <t>5Z01UMMf7V1o0MzF86s6WJ</t>
-  </si>
-  <si>
-    <t>0WNGPpmWqzPnk0psUhJ3SX</t>
-  </si>
-  <si>
-    <t>4tj7IsJrn4MvesuhoY0JBy</t>
-  </si>
-  <si>
-    <t>3RkQ3UwOyPqpIiIvGVewuU</t>
-  </si>
-  <si>
-    <t>5ihS6UUlyQAfmp48eSkxuQ</t>
-  </si>
-  <si>
-    <t>4KROoGIaPaR1pBHPnR3bwC</t>
-  </si>
-  <si>
-    <t>2m0M7YqCy4lXfedh18qd8N</t>
-  </si>
-  <si>
-    <t>6G0NzOx2jEPFsSmhr9N8Ys</t>
-  </si>
-  <si>
-    <t>3qiyyUfYe7CRYLucrPmulD</t>
-  </si>
-  <si>
-    <t>0WSlOSMLJWoWUpWci9nnRb</t>
-  </si>
-  <si>
-    <t>0WIbzDVEpmOyBnqqdtqIL9</t>
-  </si>
-  <si>
-    <t>0iA3xXSkSCiJywKyo1UKjQ</t>
-  </si>
-  <si>
-    <t>3SUusuA9jH1v6PVwtYMbdv</t>
-  </si>
-  <si>
-    <t>7j02rdE5RVtNcNMuLGY5SS</t>
-  </si>
-  <si>
-    <t>2dCmGcEOQrMQhMMS8Vj7Ca</t>
-  </si>
-  <si>
-    <t>2EZc13S7YRi6bTS3SKteRN</t>
-  </si>
-  <si>
-    <t>0bwy3sGHeYwng2Ioicq6wf</t>
-  </si>
-  <si>
-    <t>6L89mwZXSOwYl76YXfX13s</t>
-  </si>
-  <si>
-    <t>3gdewACMIVMEWVbyb8O9sY</t>
-  </si>
-  <si>
-    <t>6Vjk8MNXpQpi0F4BefdTyq</t>
-  </si>
-  <si>
-    <t>06PdA0DLgF4BfAeUNZAbFG</t>
-  </si>
-  <si>
-    <t>1oht5GevPN9t1T3kG1m1GO</t>
-  </si>
-  <si>
-    <t>0I3q5fE6wg7LIfHGngUTnV</t>
-  </si>
-  <si>
-    <t>1uBsu3PbD2909UBIfEMLvK</t>
-  </si>
-  <si>
-    <t>5jzma6gCzYtKB1DbEwFZKH</t>
-  </si>
-  <si>
-    <t>1q0wCfrE9eGFMzS2g8aVnx</t>
-  </si>
-  <si>
-    <t>6rovOdp3HgK1DeAMYDzoA7</t>
-  </si>
-  <si>
-    <t>423hwXFgoN8RYmqLoLuVvY</t>
-  </si>
-  <si>
-    <t>27QvYgBk0CHOVHthWnkuWt</t>
-  </si>
-  <si>
-    <t>0a4agFmqHXxcZl1nho1BxM</t>
-  </si>
-  <si>
-    <t>6ocbgoVGwYJhOv1GgI9NsF</t>
-  </si>
-  <si>
-    <t>36AlMHDBFwSsD3FQOy1R81</t>
-  </si>
-  <si>
-    <t>6nEkxYIEnrbYH7h1hJ8Xn6</t>
-  </si>
-  <si>
-    <t>3Be7CLdHZpyzsVijme39cW</t>
-  </si>
-  <si>
-    <t>4bHsxqR3GMrXTxEPLuK5ue</t>
-  </si>
-  <si>
-    <t>0SwuCcwpFM6x4cu5zOvmi0</t>
-  </si>
-  <si>
-    <t>3SdTKo2uVsxFblQjpScoHy</t>
-  </si>
-  <si>
-    <t>6rLqjzGV5VMLDWEnuUqi8q</t>
-  </si>
-  <si>
-    <t>2aSC2xhRxOLiiZZVjhbylH</t>
-  </si>
-  <si>
-    <t>0hCB0YR03f6AmQaHbwWDe8</t>
-  </si>
-  <si>
-    <t>6qspW4YKycviDFjHBOaqUY</t>
-  </si>
-  <si>
-    <t>3tyTt5pEWblt96j1HsXiV5</t>
-  </si>
-  <si>
-    <t>3LoDeIbiR12sAznmpNEmKA</t>
-  </si>
-  <si>
-    <t>50RwvvEKX5Q7AZt8FTAwIF</t>
-  </si>
-  <si>
-    <t>6aBUnkXuCEQQHAlTokv9or</t>
-  </si>
-  <si>
-    <t>6AeG6jSoAVbmUFO6LyYmBf</t>
-  </si>
-  <si>
-    <t>7iN1s7xHE4ifF5povM6A48</t>
-  </si>
-  <si>
-    <t>7weMJXfu8leOPWd4COj2Qp</t>
-  </si>
-  <si>
-    <t>1tqT6DhmsrtQgyCKUwotiw</t>
-  </si>
-  <si>
-    <t>70LcF31zb1H0PyJoS1Sx1r</t>
-  </si>
-  <si>
-    <t>3NfxSdJnVdon1axzloJgba</t>
-  </si>
-  <si>
-    <t>0gFB5H3pHN13ERt2FyMuWi</t>
-  </si>
-  <si>
-    <t>4Hhv2vrOTy89HFRcjU3QOx</t>
-  </si>
-  <si>
-    <t>6I9VzXrHxO9rA9A5euc8Ak</t>
-  </si>
-  <si>
-    <t>0dMd4rilfd6gPbXaLpNYhu</t>
-  </si>
-  <si>
-    <t>31AOj9sFz2gM0O3hMARRBx</t>
-  </si>
-  <si>
-    <t>56lhDZNQ5J47aog6mGKeGk</t>
-  </si>
-  <si>
-    <t>0pNeVovbiZHkulpGeOx1Gj</t>
-  </si>
-  <si>
-    <t>4ZVZBc5xvMyV3WzWktn8i7</t>
-  </si>
-  <si>
-    <t>76GlO5H5RT6g7y0gev86Nk</t>
-  </si>
-  <si>
-    <t>119c93MHjrDLJTApCVGpvx</t>
-  </si>
-  <si>
-    <t>1Ud6moTC0KyXMq1Oxfien0</t>
-  </si>
-  <si>
-    <t>3ZE3wv8V3w2T2f7nOCjV0N</t>
-  </si>
-  <si>
-    <t>5LxvwujISqiB8vpRYv887S</t>
-  </si>
-  <si>
-    <t>3jS7bB0oXVOwGFZn3aE5NV</t>
-  </si>
-  <si>
-    <t>3SQhmctWreNM0X6Zkm2K5R</t>
-  </si>
-  <si>
-    <t>7sKDftgGirHWTVFMtJoDoh</t>
-  </si>
-  <si>
-    <t>18GiV1BaXzPVYpp9rmOg0E</t>
-  </si>
-  <si>
-    <t>5ubvP9oKmxLUVq506fgLhk</t>
-  </si>
-  <si>
-    <t>3KfbEIOC7YIv90FIfNSZpo</t>
-  </si>
-  <si>
-    <t>272Z4tzaSMMcgrZ0R494S2</t>
-  </si>
-  <si>
-    <t>7sLpSWxQazJzDVG6YGzlVs</t>
-  </si>
-  <si>
-    <t>7ygpwy2qP3NbrxVkHvUhXY</t>
-  </si>
-  <si>
-    <t>4eHbdreAnSOrDDsFfc4Fpm</t>
-  </si>
-  <si>
-    <t>3xrn9i8zhNZsTtcoWgQEAd</t>
-  </si>
-  <si>
-    <t>0GvWnt7XpoHAa72mvax2Uz</t>
-  </si>
-  <si>
-    <t>4ns1XFP3W5JPyzvnAjMdHD</t>
-  </si>
-  <si>
-    <t>5K09WxKdlkroDyEVyOSySy</t>
-  </si>
-  <si>
-    <t>0aym2LBJBk9DAYuHHutrIl</t>
-  </si>
-  <si>
-    <t>7snQQk1zcKl8gZ92AnueZW</t>
-  </si>
-  <si>
-    <t>2Ud3deeqLAG988pfW0Kwcl</t>
-  </si>
-  <si>
-    <t>4hq0S6wznq7SHDyMOFXL9i</t>
-  </si>
-  <si>
-    <t>62LJFaYihsdVrrkgUOJC05</t>
-  </si>
-  <si>
-    <t>63xdwScd1Ai1GigAwQxE8y</t>
-  </si>
-  <si>
-    <t>4n1ZGm3TxYmoYe1YR8cMus</t>
-  </si>
-  <si>
-    <t>1c8gk2PeTE04A1pIDH9YMk</t>
-  </si>
-  <si>
-    <t>3fElupNRLRJ0tbUDahPrAb</t>
-  </si>
-  <si>
-    <t>5yQ9iMZXGcr5rlO4hoLsP4</t>
-  </si>
-  <si>
-    <t>3FAclTFfvUuQYnEsptbK8w</t>
-  </si>
-  <si>
-    <t>6Pkj4nv5K53i64cLVgkVyY</t>
-  </si>
-  <si>
-    <t>5E5HYgxGMp3BPakHGfKfIB</t>
-  </si>
-  <si>
-    <t>7hxZF4jETnE5Q75rKQnMjE</t>
-  </si>
-  <si>
-    <t>2fXKyAyPrEa24c6PJyqznF</t>
-  </si>
-  <si>
-    <t>7yzbimr8WVyAtBX3Eg6UL9</t>
-  </si>
-  <si>
-    <t>6g0Orsxv6glTJCt4cHsRsQ</t>
   </si>
   <si>
     <t>2M9ro2krNb7nr7HSprkEgo</t>
@@ -3107,417 +3110,417 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>52</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407">
@@ -3873,6 +3876,11 @@
     <row r="477">
       <c r="A477" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/song ids.xlsx
+++ b/song ids.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1551">
   <si>
     <t>id</t>
   </si>
@@ -1443,6 +1443,3228 @@
   </si>
   <si>
     <t>7s25THrKz86DM225dOYwnr</t>
+  </si>
+  <si>
+    <t>2Y90nL1ohB4sgYELDs7uNx</t>
+  </si>
+  <si>
+    <t>0dOg1ySSI7NkpAe89Zo0b9</t>
+  </si>
+  <si>
+    <t>5zA8vzDGqPl2AzZkEYQGKh</t>
+  </si>
+  <si>
+    <t>70C4NyhjD5OZUMzvWZ3njJ</t>
+  </si>
+  <si>
+    <t>3Cx4yrFaX8CeHwBMReOWXI</t>
+  </si>
+  <si>
+    <t>64UioB4Nmwgn2f4cbIpAkl</t>
+  </si>
+  <si>
+    <t>2EqlS6tkEnglzr7tkKAAYD</t>
+  </si>
+  <si>
+    <t>78lgmZwycJ3nzsdgmPPGNx</t>
+  </si>
+  <si>
+    <t>1fDsrQ23eTAVFElUMaf38X</t>
+  </si>
+  <si>
+    <t>7HKez549fwJQDzx3zLjHKC</t>
+  </si>
+  <si>
+    <t>14uQWXYRflpBP8J6olZ8mH</t>
+  </si>
+  <si>
+    <t>5Ff6Zg5Bw1nm6bK8dzIXmQ</t>
+  </si>
+  <si>
+    <t>7hQJA50XrCWABAu5v6QZ4i</t>
+  </si>
+  <si>
+    <t>7GqWnsKhMtEW0nzki5o0d8</t>
+  </si>
+  <si>
+    <t>4vO9dmzNRqDhFY3jD1a3P7</t>
+  </si>
+  <si>
+    <t>57JVGBtBLCfHw2muk5416J</t>
+  </si>
+  <si>
+    <t>54flyrjcdnQdco7300avMJ</t>
+  </si>
+  <si>
+    <t>4OKf7CcYuw5H2HptkcKxcP</t>
+  </si>
+  <si>
+    <t>7ccI9cStQbQdystvc6TvxD</t>
+  </si>
+  <si>
+    <t>72ahyckBJfTigJCFCviVN7</t>
+  </si>
+  <si>
+    <t>2RlgNHKcydI9sayD2Df2xp</t>
+  </si>
+  <si>
+    <t>1Pd1h30mgU05QkWYhgFzwt</t>
+  </si>
+  <si>
+    <t>0xAhbD6lCf5re1RXl5yiTm</t>
+  </si>
+  <si>
+    <t>777NOXupZkFdg8zlPMoVqc</t>
+  </si>
+  <si>
+    <t>15VRO9CQwMpbqUYA7e6Hwg</t>
+  </si>
+  <si>
+    <t>2YodwKJnbPyNKe8XXSE9V7</t>
+  </si>
+  <si>
+    <t>6QewNVIDKdSl8Y3ycuHIei</t>
+  </si>
+  <si>
+    <t>5Xak5fmy089t0FYmh3VJiY</t>
+  </si>
+  <si>
+    <t>62nQ8UZVqR2RMvkJHkcO2o</t>
+  </si>
+  <si>
+    <t>3bE5slaVEfaDreqARl6k4M</t>
+  </si>
+  <si>
+    <t>53eJFr4Mfbw5PXJ01K6cFw</t>
+  </si>
+  <si>
+    <t>57bgtoPSgt236HzfBOd8kj</t>
+  </si>
+  <si>
+    <t>08mG3Y1vljYA6bvDt4Wqkj</t>
+  </si>
+  <si>
+    <t>0J6mQxEZnlRt9ymzFntA6z</t>
+  </si>
+  <si>
+    <t>7HKxTNVlkHsfMLhigmhC0I</t>
+  </si>
+  <si>
+    <t>5SZ6zX4rOrEQferfFC2MfP</t>
+  </si>
+  <si>
+    <t>24NwBd5vZ2CK8VOQVnqdxr</t>
+  </si>
+  <si>
+    <t>39shmbIHICJ2Wxnk1fPSdz</t>
+  </si>
+  <si>
+    <t>4MhTFsyqIJnjsOweVcU8ug</t>
+  </si>
+  <si>
+    <t>5Q41NLTmGbVPozwHKK7bk2</t>
+  </si>
+  <si>
+    <t>5NIPsWpDjJTFBoPxCUUeXp</t>
+  </si>
+  <si>
+    <t>0PsbWiVtix5FoTZ1s00mEl</t>
+  </si>
+  <si>
+    <t>1CQqupcyMg7176PPmIVmSj</t>
+  </si>
+  <si>
+    <t>4gMgiXfqyzZLMhsksGmbQV</t>
+  </si>
+  <si>
+    <t>5RsUlxLto4NZbhJpqJbHfN</t>
+  </si>
+  <si>
+    <t>2wvMC5EyaaYQwBfiwwY2xE</t>
+  </si>
+  <si>
+    <t>1HOMkjp0nHMaTnfAkslCQj</t>
+  </si>
+  <si>
+    <t>1H4idkmruFoJBg1DvUv2tY</t>
+  </si>
+  <si>
+    <t>0mRQp2HsSqX1MZuMvonAPN</t>
+  </si>
+  <si>
+    <t>7dn9n3J6C5LCyK7FmvVAM8</t>
+  </si>
+  <si>
+    <t>0SYRVn2YF7HBscQEmlkpTI</t>
+  </si>
+  <si>
+    <t>05RgAMGypEvqhNs5hPCbMS</t>
+  </si>
+  <si>
+    <t>6Fba9RZtC6vTY814JToDtP</t>
+  </si>
+  <si>
+    <t>7r45JFRfUkMjj5PHdAmRYk</t>
+  </si>
+  <si>
+    <t>1ju7EsSGvRybSNEsRvc7qY</t>
+  </si>
+  <si>
+    <t>5NoQvINZLBV1wMYPdNmReL</t>
+  </si>
+  <si>
+    <t>3yrSvpt2l1xhsV9Em88Pul</t>
+  </si>
+  <si>
+    <t>2BY7ALEWdloFHgQZG6VMLA</t>
+  </si>
+  <si>
+    <t>0GONea6G2XdnHWjNZd6zt3</t>
+  </si>
+  <si>
+    <t>4MC8Oom2D2a7ZPQDpuVIYK</t>
+  </si>
+  <si>
+    <t>2xYlyywNgefLCRDG8hlxZq</t>
+  </si>
+  <si>
+    <t>1LaGFtGh2yoBipaCdqJeRU</t>
+  </si>
+  <si>
+    <t>6cJqlSO19vsfCsH1FeFI35</t>
+  </si>
+  <si>
+    <t>42et6fnHCw1HIPSrdPprMl</t>
+  </si>
+  <si>
+    <t>7oK9VyNzrYvRFo7nQEYkWN</t>
+  </si>
+  <si>
+    <t>48UPSzbZjgc449aqz8bxox</t>
+  </si>
+  <si>
+    <t>3ZOEytgrvLwQaqXreDs2Jx</t>
+  </si>
+  <si>
+    <t>2aibwv5hGXSgw7Yru8IYTO</t>
+  </si>
+  <si>
+    <t>64BbK9SFKH2jk86U3dGj2P</t>
+  </si>
+  <si>
+    <t>5IMtdHjJ1OtkxbGe4zfUxQ</t>
+  </si>
+  <si>
+    <t>0RFgvrhkf9FiDRLA0BhzpZ</t>
+  </si>
+  <si>
+    <t>0qRR9d89hIS0MHRkQ0ejxX</t>
+  </si>
+  <si>
+    <t>0sgDEFq9oeC8ueOK0mR5IA</t>
+  </si>
+  <si>
+    <t>2ZBalNGwjqdKJd29O76wBV</t>
+  </si>
+  <si>
+    <t>5dRQUolXAVX3BbCiIxmSsf</t>
+  </si>
+  <si>
+    <t>0r5MToT8QY5raCYPPazuDc</t>
+  </si>
+  <si>
+    <t>71SvEDmsOwIWw1IozsZoMA</t>
+  </si>
+  <si>
+    <t>1ynmMEK1fkyiZ6Z6F3ThEt</t>
+  </si>
+  <si>
+    <t>0q21FNwES2bbtcduB6kjEU</t>
+  </si>
+  <si>
+    <t>7gSQv1OHpkIoAdUiRLdmI6</t>
+  </si>
+  <si>
+    <t>4EEjMyQub6tgFVshlM9j1M</t>
+  </si>
+  <si>
+    <t>0mJQlCl9YgxW7kyeltNiVk</t>
+  </si>
+  <si>
+    <t>4o6BgsqLIBViaGVbx5rbRk</t>
+  </si>
+  <si>
+    <t>1DndHckdH9m5rp6gYP086b</t>
+  </si>
+  <si>
+    <t>3QZ7uX97s82HFYSmQUAN1D</t>
+  </si>
+  <si>
+    <t>1OFKUn2VLafrHj7ybnap0Q</t>
+  </si>
+  <si>
+    <t>1VuBmEauSZywQVtqbxNqka</t>
+  </si>
+  <si>
+    <t>6C4LXC9UFH1IKiHYOp0BiJ</t>
+  </si>
+  <si>
+    <t>6urCAbunOQI4bLhmGpX7iS</t>
+  </si>
+  <si>
+    <t>5lWRaa0fBxDE5yU91npPq7</t>
+  </si>
+  <si>
+    <t>2FfZg072w8RoxlMOR7M4CT</t>
+  </si>
+  <si>
+    <t>1i6N76fftMZhijOzFQ5ZtL</t>
+  </si>
+  <si>
+    <t>5wj4E6IsrVtn8IBJQOd0Cl</t>
+  </si>
+  <si>
+    <t>12dU3vAh6AFoJkisorfoUl</t>
+  </si>
+  <si>
+    <t>2A7GGXmTlXuH9LOvBXgOX4</t>
+  </si>
+  <si>
+    <t>1b7LMtXCXGc2EwOIplI35z</t>
+  </si>
+  <si>
+    <t>1UBQ5GK8JaQjm5VbkBZY66</t>
+  </si>
+  <si>
+    <t>5cfYurP1XKldMBtvBBJiTs</t>
+  </si>
+  <si>
+    <t>2nmaEzFZrSm2aMLtfJDzyG</t>
+  </si>
+  <si>
+    <t>05NYcsjJwOYq4jIiKPVj9p</t>
+  </si>
+  <si>
+    <t>6hnCx2jmD0RPkbtzUXSBn4</t>
+  </si>
+  <si>
+    <t>3e0FzZjTXOUtiJGSClOBrI</t>
+  </si>
+  <si>
+    <t>2WfaOiMkCvy7F5fcp2zZ8L</t>
+  </si>
+  <si>
+    <t>5akBpqWmFWEHoBGRIrR5aK</t>
+  </si>
+  <si>
+    <t>59eAcAyhYSLi5GKFrgHJzG</t>
+  </si>
+  <si>
+    <t>4jDmJ51x1o9NZB5Nxxc7gY</t>
+  </si>
+  <si>
+    <t>6XUHsYE38CEbYunT983O9G</t>
+  </si>
+  <si>
+    <t>7Ar4G7Ci11gpt6sfH9Cgz5</t>
+  </si>
+  <si>
+    <t>2IOeOJyiuzwF8BRAK9jJyj</t>
+  </si>
+  <si>
+    <t>0wz1LjDb9ZNEYwOmDJ3Q4b</t>
+  </si>
+  <si>
+    <t>05wIrZSwuaVWhcv5FfqeH0</t>
+  </si>
+  <si>
+    <t>5kz9GDBTX846OXwqWoyKzF</t>
+  </si>
+  <si>
+    <t>4ebcE2SmkG7nplvzFAWRu7</t>
+  </si>
+  <si>
+    <t>2BstRQGodshjGpeDGQiNgo</t>
+  </si>
+  <si>
+    <t>423o3ZHIaBtGXyhF1uH41a</t>
+  </si>
+  <si>
+    <t>4bPQs0PHn4xbipzdPfn6du</t>
+  </si>
+  <si>
+    <t>1rqqCSm0Qe4I9rUvWncaom</t>
+  </si>
+  <si>
+    <t>04aAxqtGp5pv12UXAg4pkq</t>
+  </si>
+  <si>
+    <t>5wQnmLuC1W7ATsArWACrgW</t>
+  </si>
+  <si>
+    <t>28IEbk5a7twNTbUEvWslUb</t>
+  </si>
+  <si>
+    <t>2BepFzUWfczDk68DXj10w3</t>
+  </si>
+  <si>
+    <t>6ECp64rv50XVz93WvxXMGF</t>
+  </si>
+  <si>
+    <t>5qII2n90lVdPDcgXEEVHNy</t>
+  </si>
+  <si>
+    <t>7sapKrjDij2fpDVj0GxP66</t>
+  </si>
+  <si>
+    <t>1lHXlGlve5Zx8tXLhyjDwM</t>
+  </si>
+  <si>
+    <t>6sy3LkhNFjJWlaeSMNwQ62</t>
+  </si>
+  <si>
+    <t>1NhPKVLsHhFUHIOZ32QnS2</t>
+  </si>
+  <si>
+    <t>1NrJYpdAi7uosDRPmSYrsG</t>
+  </si>
+  <si>
+    <t>5XRHGXut00SrJUFmcn2lQF</t>
+  </si>
+  <si>
+    <t>6D60klaHqbCl9ySc8VcRss</t>
+  </si>
+  <si>
+    <t>38xWaVFKaxZlMFvzNff2aW</t>
+  </si>
+  <si>
+    <t>0pqnGHJpmpxLKifKRmU6WP</t>
+  </si>
+  <si>
+    <t>1zB4vmk8tFRmM9UULNzbLB</t>
+  </si>
+  <si>
+    <t>3LlAyCYU26dvFZBDUIMb7a</t>
+  </si>
+  <si>
+    <t>2FY7b99s15jUprqC0M5NCT</t>
+  </si>
+  <si>
+    <t>4G8gkOterJn0Ywt6uhqbhp</t>
+  </si>
+  <si>
+    <t>4dASQiO1Eoo3RJvt74FtXB</t>
+  </si>
+  <si>
+    <t>234RqTZmnDTnxWlVciXHLD</t>
+  </si>
+  <si>
+    <t>2R5uY1gbIKzGB1yAOH067s</t>
+  </si>
+  <si>
+    <t>2mobr1UlKjhxDTOVqng3jw</t>
+  </si>
+  <si>
+    <t>4HlFJV71xXKIGcU3kRyttv</t>
+  </si>
+  <si>
+    <t>2hKdd3qO7cWr2Jo0Bcs0MA</t>
+  </si>
+  <si>
+    <t>0KAiuUOrLTIkzkpfpn9jb9</t>
+  </si>
+  <si>
+    <t>2dpaYNEQHiRxtZbfNsse99</t>
+  </si>
+  <si>
+    <t>3gbBpTdY8lnQwqxNCcf795</t>
+  </si>
+  <si>
+    <t>2AYEOC02WLhUiOoaig2SEH</t>
+  </si>
+  <si>
+    <t>4qRaZYiaOsSvWC7VgcxrI0</t>
+  </si>
+  <si>
+    <t>2MLHyLy5z5l5YRp7momlgw</t>
+  </si>
+  <si>
+    <t>6VoIBz0VhCyz7OdEoRYDiA</t>
+  </si>
+  <si>
+    <t>6JnufVNLIO5F5Lk4sEVLeI</t>
+  </si>
+  <si>
+    <t>0hm8rgOY17z7kQJlqGKbu7</t>
+  </si>
+  <si>
+    <t>7IxVWmdabNVhfLBV3JD0nJ</t>
+  </si>
+  <si>
+    <t>4VqPOruhp5EdPBeR92t6lQ</t>
+  </si>
+  <si>
+    <t>3skn2lauGk7Dx6bVIt5DVj</t>
+  </si>
+  <si>
+    <t>7Hn0bZgca6QFz6OyKkvAi6</t>
+  </si>
+  <si>
+    <t>0gmbgwZ8iqyMPmXefof8Yf</t>
+  </si>
+  <si>
+    <t>6n9yCXvLhnYMgJIiIcMu7D</t>
+  </si>
+  <si>
+    <t>3hb2ScEVkGchcAQqrPLP0R</t>
+  </si>
+  <si>
+    <t>3kZC0ZmFWrEHdUCmUqlvgZ</t>
+  </si>
+  <si>
+    <t>5G1sTBGbZT5o4PNRc75RKI</t>
+  </si>
+  <si>
+    <t>5lN1EH25gdiqT1SFALMAq1</t>
+  </si>
+  <si>
+    <t>0grFc6klR3hxoHLcgCYsF4</t>
+  </si>
+  <si>
+    <t>2iUmqdfGZcHIhS3b9E9EWq</t>
+  </si>
+  <si>
+    <t>1fBl642IhJOE5U319Gy2Go</t>
+  </si>
+  <si>
+    <t>5FVd6KXrgO9B3JPmC8OPst</t>
+  </si>
+  <si>
+    <t>086myS9r57YsLbJpU0TgK9</t>
+  </si>
+  <si>
+    <t>2AT8iROs4FQueDv2c8q2KE</t>
+  </si>
+  <si>
+    <t>7e8utCy2JlSB8dRHKi49xM</t>
+  </si>
+  <si>
+    <t>0CwYG1UnRmOx8Q1EzElCIL</t>
+  </si>
+  <si>
+    <t>6ihL9TjfRjadfEePzXXyVF</t>
+  </si>
+  <si>
+    <t>5lDriBxJd22IhOH9zTcFrV</t>
+  </si>
+  <si>
+    <t>0815caqt2Lytro5EIzMufT</t>
+  </si>
+  <si>
+    <t>6GG73Jik4jUlQCkKg9JuGO</t>
+  </si>
+  <si>
+    <t>5VGlqQANWDKJFl0MBG3sg2</t>
+  </si>
+  <si>
+    <t>0ntQJM78wzOLVeCUAW7Y45</t>
+  </si>
+  <si>
+    <t>0M955bMOoilikPXwKLYpoi</t>
+  </si>
+  <si>
+    <t>0n2SEXB2qoRQg171q7XqeW</t>
+  </si>
+  <si>
+    <t>4faFAhOflLzhfJECveRwva</t>
+  </si>
+  <si>
+    <t>3LtwmK1OfN0dGs9jf3qSjn</t>
+  </si>
+  <si>
+    <t>0gbLfFlEyVHiKzlZIb0gce</t>
+  </si>
+  <si>
+    <t>0PXWpNBYg52gABrn1qL1bD</t>
+  </si>
+  <si>
+    <t>2toY6JyyfKy9TwNk3Ou2XG</t>
+  </si>
+  <si>
+    <t>5vYA1mW9g2Coh1HUFUSmlb</t>
+  </si>
+  <si>
+    <t>5NeIONQWJ25uPylJBJiO4c</t>
+  </si>
+  <si>
+    <t>3JvrhDOgAt6p7K8mDyZwRd</t>
+  </si>
+  <si>
+    <t>29jtZGdgpE2lWm2mkIt6HS</t>
+  </si>
+  <si>
+    <t>7a86XRg84qjasly9f6bPSD</t>
+  </si>
+  <si>
+    <t>6t6oULCRS6hnI7rm0h5gwl</t>
+  </si>
+  <si>
+    <t>0fsz7tJ7UKXT9hliLfO7aE</t>
+  </si>
+  <si>
+    <t>42ftjU4cTN5UTRksyqBKZJ</t>
+  </si>
+  <si>
+    <t>5fVZC9GiM4e8vu99W0Xf6J</t>
+  </si>
+  <si>
+    <t>4IoYz8XqqdowINzfRrFnhi</t>
+  </si>
+  <si>
+    <t>1N62wozuHCvczCkY4QidpP</t>
+  </si>
+  <si>
+    <t>3cfOd4CMv2snFaKAnMdnvK</t>
+  </si>
+  <si>
+    <t>2Z8WuEywRWYTKe1NybPQEW</t>
+  </si>
+  <si>
+    <t>6i0V12jOa3mr6uu4WYhUBr</t>
+  </si>
+  <si>
+    <t>3CRDbSIZ4r5MsZ0YwxuEkn</t>
+  </si>
+  <si>
+    <t>0COqiPhxzoWICwFCS4eZcp</t>
+  </si>
+  <si>
+    <t>663Karu2rvKLdnY0eo1n3M</t>
+  </si>
+  <si>
+    <t>4GiVcDqNQI0fc0yYuRGH9m</t>
+  </si>
+  <si>
+    <t>11bD1JtSjlIgKgZG2134DZ</t>
+  </si>
+  <si>
+    <t>6ZOBP3NvffbU4SZcrnt1k6</t>
+  </si>
+  <si>
+    <t>3NLrRZoMF0Lx6zTlYqeIo4</t>
+  </si>
+  <si>
+    <t>6nTiIhLmQ3FWhvrGafw2zj</t>
+  </si>
+  <si>
+    <t>3ZffCQKLFLUvYM59XKLbVm</t>
+  </si>
+  <si>
+    <t>6ORqU0bHbVCRjXm9AjyHyZ</t>
+  </si>
+  <si>
+    <t>64yrDBpcdwEdNY9loyEGbX</t>
+  </si>
+  <si>
+    <t>5GorCbAP4aL0EJ16frG2hd</t>
+  </si>
+  <si>
+    <t>1Dr1fXbc2IxaK1Mu8P8Khz</t>
+  </si>
+  <si>
+    <t>600s08VdbjiyAjDGDjYSFI</t>
+  </si>
+  <si>
+    <t>3mtukCAgd0mE260QcBfXAX</t>
+  </si>
+  <si>
+    <t>7x8dCjCr0x6x2lXKujYD34</t>
+  </si>
+  <si>
+    <t>5FZxsHWIvUsmSK1IAvm2pp</t>
+  </si>
+  <si>
+    <t>5OQsiBsky2k2kDKy2bX2eT</t>
+  </si>
+  <si>
+    <t>263aNAQCeFSWipk896byo6</t>
+  </si>
+  <si>
+    <t>3354J49VpkbZJho7Ztdzpw</t>
+  </si>
+  <si>
+    <t>1sxUaLi0G2vB7dl4ogtCxH</t>
+  </si>
+  <si>
+    <t>3Uvx1TO0Kg5HgGPk58lHXv</t>
+  </si>
+  <si>
+    <t>4o7ZPI2fmEi3piRe0Hrfpy</t>
+  </si>
+  <si>
+    <t>5f2wSctNJlAOUAaRxQAcoM</t>
+  </si>
+  <si>
+    <t>507bYMYfbm6sUS9iEAaeSd</t>
+  </si>
+  <si>
+    <t>3AJwUDP919kvQ9QcozQPxg</t>
+  </si>
+  <si>
+    <t>75JFxkI2RXiU7L9VXzMkle</t>
+  </si>
+  <si>
+    <t>6RUKPb4LETWmmr3iAEQktW</t>
+  </si>
+  <si>
+    <t>6nek1Nin9q48AVZcWs9e9D</t>
+  </si>
+  <si>
+    <t>1mea3bSkSGXuIRvnydlB5b</t>
+  </si>
+  <si>
+    <t>0FDzzruyVECATHXKHFs9eJ</t>
+  </si>
+  <si>
+    <t>6Qyc6fS4DsZjB2mRW9DsQs</t>
+  </si>
+  <si>
+    <t>0nnwn7LWHCAu09jfuH1xTA</t>
+  </si>
+  <si>
+    <t>1yjY7rpaAQvKwpdUliHx0d</t>
+  </si>
+  <si>
+    <t>6SpLc7EXZIPpy0sVko0aoU</t>
+  </si>
+  <si>
+    <t>1j8z4TTjJ1YOdoFEDwJTQa</t>
+  </si>
+  <si>
+    <t>1mKXFLRA179hdOWQBwUk9e</t>
+  </si>
+  <si>
+    <t>0JiY190vktuhSGN6aqJdrt</t>
+  </si>
+  <si>
+    <t>1gv4xPanImH17bKZ9rOveR</t>
+  </si>
+  <si>
+    <t>1jF7IL57ayN4Ity3jQqGu0</t>
+  </si>
+  <si>
+    <t>0Qh38w01QRXK6KHIv0e3hb</t>
+  </si>
+  <si>
+    <t>4bk78jvK8Fe9YHqruOJW0v</t>
+  </si>
+  <si>
+    <t>6PwjJ58I4t7Mae9xfZ9l9v</t>
+  </si>
+  <si>
+    <t>70wYA8oYHoMzhRRkARoMhU</t>
+  </si>
+  <si>
+    <t>1A5V1sxyCLpKJezp75tUXn</t>
+  </si>
+  <si>
+    <t>0J3MfW6wwIBqC4zjp5AbQL</t>
+  </si>
+  <si>
+    <t>7yCPwWs66K8Ba5lFuU2bcx</t>
+  </si>
+  <si>
+    <t>5JZcX7TTLx4l0xFIXJ3DBt</t>
+  </si>
+  <si>
+    <t>1oTo3ijRbaDAtrjJrGAPSw</t>
+  </si>
+  <si>
+    <t>2md2i5QvelRFnafpnd6LOg</t>
+  </si>
+  <si>
+    <t>45sziCSqS4BWSQWUlLRpyf</t>
+  </si>
+  <si>
+    <t>0UZwcRQAk4QR09HtGRZhYC</t>
+  </si>
+  <si>
+    <t>0lP4HYLmvowOKdsQ7CVkuq</t>
+  </si>
+  <si>
+    <t>3mNecsYFb6LQg7822DPXCP</t>
+  </si>
+  <si>
+    <t>6BLLQndvA0rLbLcIZmuuEJ</t>
+  </si>
+  <si>
+    <t>0BRHnOFm6sjxN1i9LJrUDu</t>
+  </si>
+  <si>
+    <t>2g2a5kDeZexbUTD8abcvm6</t>
+  </si>
+  <si>
+    <t>1KDYN3odJHnj9pqGHN3FVs</t>
+  </si>
+  <si>
+    <t>1UqhkbzB1kuFwt2iy4h29Q</t>
+  </si>
+  <si>
+    <t>60a0Rd6pjrkxjPbaKzXjfq</t>
+  </si>
+  <si>
+    <t>2nLtzopw4rPReszdYBJU6h</t>
+  </si>
+  <si>
+    <t>18lR4BzEs7e3qzc0KVkTpU</t>
+  </si>
+  <si>
+    <t>2CIsr5cqDJeWffps0vtNeq</t>
+  </si>
+  <si>
+    <t>0sNKiz82ATCvT3f3XVVUUj</t>
+  </si>
+  <si>
+    <t>6EsBn1Md8C5YdbCzvwvZq8</t>
+  </si>
+  <si>
+    <t>4EchqUKQ3qAQuRNKmeIpnf</t>
+  </si>
+  <si>
+    <t>6TfBA04WJ3X1d1wXhaCFVT</t>
+  </si>
+  <si>
+    <t>4kbj5MwxO1bq9wjT5g9HaA</t>
+  </si>
+  <si>
+    <t>1VBRdl1sT4DGckQaTzKEB9</t>
+  </si>
+  <si>
+    <t>5xhQChGGhKLWqBqX4XhtYE</t>
+  </si>
+  <si>
+    <t>16DhvbuyvJob4Q9GHNYu2n</t>
+  </si>
+  <si>
+    <t>0SjhCnjTT2bXD9RtU8bFT9</t>
+  </si>
+  <si>
+    <t>38YgZVHPWOWsKrsCXz6JyP</t>
+  </si>
+  <si>
+    <t>5oQcOu1omDykbIPSdSQQNJ</t>
+  </si>
+  <si>
+    <t>3TwtrR1yNLY1PMPsrGQpOp</t>
+  </si>
+  <si>
+    <t>1vcxF91pWs9uNwDROuiCPB</t>
+  </si>
+  <si>
+    <t>5QpaGzWp0hwB5faV8dkbAz</t>
+  </si>
+  <si>
+    <t>0wVluBsVAVzBKrqspuCcwR</t>
+  </si>
+  <si>
+    <t>0J69x3mqm7U6tBPKsjpsWR</t>
+  </si>
+  <si>
+    <t>37EJtTS7jT5WUyXGZzrwnI</t>
+  </si>
+  <si>
+    <t>0cuq829zRNq4AEdmDJA4aw</t>
+  </si>
+  <si>
+    <t>1MaqkdFNIKPdpQGDzme5ss</t>
+  </si>
+  <si>
+    <t>56Tl3UgyZTqfZtvFNS31wm</t>
+  </si>
+  <si>
+    <t>7nnWIPM5hwE3DaUBkvOIpy</t>
+  </si>
+  <si>
+    <t>25CMmGsl22APKhfuj4Tp7j</t>
+  </si>
+  <si>
+    <t>6FOpPA0a80RuBqqgDozvja</t>
+  </si>
+  <si>
+    <t>305WCRhhS10XUcH6AEwZk6</t>
+  </si>
+  <si>
+    <t>3zHq9ouUJQFQRf3cm1rRLu</t>
+  </si>
+  <si>
+    <t>7MmG8p0F9N3C4AXdK6o6Eb</t>
+  </si>
+  <si>
+    <t>05SBRd4fXgn8FX7bf8BCAE</t>
+  </si>
+  <si>
+    <t>7BKLCZ1jbUBVqRi2FVlTVw</t>
+  </si>
+  <si>
+    <t>6FZDfxM3a3UCqtzo5pxSLZ</t>
+  </si>
+  <si>
+    <t>7FGq80cy8juXBCD2nrqdWU</t>
+  </si>
+  <si>
+    <t>2ufmtcIFdFpuUYBPXK5f67</t>
+  </si>
+  <si>
+    <t>5xTtaWoae3wi06K5WfVUUH</t>
+  </si>
+  <si>
+    <t>273dCMFseLcVsoSWx59IoE</t>
+  </si>
+  <si>
+    <t>3GCL1PydwsLodcpv0Ll1ch</t>
+  </si>
+  <si>
+    <t>0ciHz919LVKoH4zgxyMPZ9</t>
+  </si>
+  <si>
+    <t>19tHCfzUSoy5HkpxcmbA0A</t>
+  </si>
+  <si>
+    <t>1kHEuJRasudLhjvnbfc4yS</t>
+  </si>
+  <si>
+    <t>3DrjZArsPsoqbLzUZZV1Id</t>
+  </si>
+  <si>
+    <t>6LZaxlycSWrJZ4Volb25qx</t>
+  </si>
+  <si>
+    <t>1vrd6UOGamcKNGnSHJQlSt</t>
+  </si>
+  <si>
+    <t>59HjlYCeBsxdI0fcm3zglw</t>
+  </si>
+  <si>
+    <t>4lIxdJw6W3Fg4vUIYCB0S5</t>
+  </si>
+  <si>
+    <t>3bIxTsfeNMO7Nt2J3EUKrA</t>
+  </si>
+  <si>
+    <t>1zwMYTA5nlNjZxYrvBB2pV</t>
+  </si>
+  <si>
+    <t>7GgWAITsYJaRM3r50rfh5w</t>
+  </si>
+  <si>
+    <t>73CMRj62VK8nUS4ezD2wvi</t>
+  </si>
+  <si>
+    <t>62PaSfnXSMyLshYJrlTuL3</t>
+  </si>
+  <si>
+    <t>0t7fVeEJxO2Xi4H2K5Svc9</t>
+  </si>
+  <si>
+    <t>76N7FdzCI9OsiUnzJVLY2m</t>
+  </si>
+  <si>
+    <t>0ct6r3EGTcMLPtrXHDvVjc</t>
+  </si>
+  <si>
+    <t>0nrRP2bk19rLc0orkWPQk2</t>
+  </si>
+  <si>
+    <t>2P4OICZRVAQcYAV2JReRfj</t>
+  </si>
+  <si>
+    <t>4lhqb6JvbHId48OUJGwymk</t>
+  </si>
+  <si>
+    <t>5UqCQaDshqbIk3pkhy4Pjg</t>
+  </si>
+  <si>
+    <t>2s1sdSqGcKxpPr5lCl7jAV</t>
+  </si>
+  <si>
+    <t>6b3b7lILUJqXcp6w9wNQSm</t>
+  </si>
+  <si>
+    <t>37BZB0z9T8Xu7U3e65qxFy</t>
+  </si>
+  <si>
+    <t>3e9HZxeyfWwjeyPAMmWSSQ</t>
+  </si>
+  <si>
+    <t>1x5sYLZiu9r5E43kMlt9f8</t>
+  </si>
+  <si>
+    <t>40YcuQysJ0KlGQTeGUosTC</t>
+  </si>
+  <si>
+    <t>11ozIUBoXAgRTVWelDn4pL</t>
+  </si>
+  <si>
+    <t>7dt6x5M1jzdTEt8oCbisTK</t>
+  </si>
+  <si>
+    <t>7zWj09xkFgA9tcV6YhfU6q</t>
+  </si>
+  <si>
+    <t>4HXOBjwv2RnLpGG4xWOO6N</t>
+  </si>
+  <si>
+    <t>3CA9pLiwRIGtUBiMjbZmRw</t>
+  </si>
+  <si>
+    <t>6vBdBCoOhKHiYDDOcorfNo</t>
+  </si>
+  <si>
+    <t>3jlbL2OTD5YmIunYzgQTAN</t>
+  </si>
+  <si>
+    <t>4WgvTITBJbEfCJHguiE7QS</t>
+  </si>
+  <si>
+    <t>7IhsLJMqdxoo7YAZjaSMru</t>
+  </si>
+  <si>
+    <t>5PUawWFG1oIS2NwEcyHaCr</t>
+  </si>
+  <si>
+    <t>1q9bLSeIlGf2xBvbOkp2Wr</t>
+  </si>
+  <si>
+    <t>743mWMRgafToEUJriLLgkg</t>
+  </si>
+  <si>
+    <t>4w8niZpiMy6qz1mntFA5uM</t>
+  </si>
+  <si>
+    <t>6cMswWRv4lAU3mh5lclgCc</t>
+  </si>
+  <si>
+    <t>59dLtGBS26x7kc0rHbaPrq</t>
+  </si>
+  <si>
+    <t>4nVBt6MZDDP6tRVdQTgxJg</t>
+  </si>
+  <si>
+    <t>5FEXPoPnzueFJQCPRIrC3c</t>
+  </si>
+  <si>
+    <t>41IShViF79gmulEkIHAjcb</t>
+  </si>
+  <si>
+    <t>5fyIGoaaKelzdyW8ELhYJZ</t>
+  </si>
+  <si>
+    <t>7EKTo6rVJ3XSS7QTd6ep2j</t>
+  </si>
+  <si>
+    <t>5NQbUaeTEOGdD6hHcre0dZ</t>
+  </si>
+  <si>
+    <t>3NLnwwAQbbFKcEcV8hDItk</t>
+  </si>
+  <si>
+    <t>6rPO02ozF3bM7NnOV4h6s2</t>
+  </si>
+  <si>
+    <t>0GzmMQizDeA2NVMUaZksv0</t>
+  </si>
+  <si>
+    <t>0n2nEtLP3OzDdi12ziIekx</t>
+  </si>
+  <si>
+    <t>0EGuSSpuu9wmHCtvb4PdLO</t>
+  </si>
+  <si>
+    <t>2Iq6HhIquO7JKr0KfTNLzU</t>
+  </si>
+  <si>
+    <t>3a1lNhkSLSkpJE4MSHpDu9</t>
+  </si>
+  <si>
+    <t>1zqllQUMCgMaInr0CzFVll</t>
+  </si>
+  <si>
+    <t>2Pd1sxjDswE86WCAN58aJQ</t>
+  </si>
+  <si>
+    <t>0azC730Exh71aQlOt9Zj3y</t>
+  </si>
+  <si>
+    <t>1jYiIOC5d6soxkJP81fxq2</t>
+  </si>
+  <si>
+    <t>4RXpgGM7A4Hg7cFBoH5KyF</t>
+  </si>
+  <si>
+    <t>6WrI0LAC5M1Rw2MnX2ZvEg</t>
+  </si>
+  <si>
+    <t>4h8VwCb1MTGoLKueQ1WgbD</t>
+  </si>
+  <si>
+    <t>0K1KOCeJBj3lpDYxEX9qP2</t>
+  </si>
+  <si>
+    <t>2Za1AlJNvksouPPWbXpR2X</t>
+  </si>
+  <si>
+    <t>4OafepJy2teCjYJbvFE60J</t>
+  </si>
+  <si>
+    <t>48s0QHJgmiNsth3WEO6U4M</t>
+  </si>
+  <si>
+    <t>3Zwu2K0Qa5sT6teCCHPShP</t>
+  </si>
+  <si>
+    <t>4eWQlBRaTjPPUlzacqEeoQ</t>
+  </si>
+  <si>
+    <t>0CokSRCu5hZgPxcZBaEzVE</t>
+  </si>
+  <si>
+    <t>3s4U7OHV7gnj42VV72eSZ6</t>
+  </si>
+  <si>
+    <t>60ZGteAEtPCnGE6zevgUcd</t>
+  </si>
+  <si>
+    <t>3G6hD9B2ZHOsgf4WfNu7X1</t>
+  </si>
+  <si>
+    <t>7JJmb5XwzOO8jgpou264Ml</t>
+  </si>
+  <si>
+    <t>1oew3nFNY3vMacJAsvry0S</t>
+  </si>
+  <si>
+    <t>1huvTbEYtgltjQRXzrNKGi</t>
+  </si>
+  <si>
+    <t>38ismoqQYn75ruDSQ2Jtx8</t>
+  </si>
+  <si>
+    <t>2ihCaVdNZmnHZWt0fvAM7B</t>
+  </si>
+  <si>
+    <t>7fBv7CLKzipRk6EC6TWHOB</t>
+  </si>
+  <si>
+    <t>1i1fxkWeaMmKEB4T7zqbzK</t>
+  </si>
+  <si>
+    <t>1BZG99C7Co1r6QUC3zaS59</t>
+  </si>
+  <si>
+    <t>14OxJlLdcHNpgsm4DRwDOB</t>
+  </si>
+  <si>
+    <t>2tpfxAXiI52znho4WE3XFA</t>
+  </si>
+  <si>
+    <t>7aMftpNNJiQj1c2rllc8Dk</t>
+  </si>
+  <si>
+    <t>0tuyEYTaqLxE41yGHSsXjy</t>
+  </si>
+  <si>
+    <t>2M9ULmQwTaTGmAdXaXpfz5</t>
+  </si>
+  <si>
+    <t>4lY95OMGb9WxP6IYut64ir</t>
+  </si>
+  <si>
+    <t>6K8qKeWo5MsFED7wCR6Kop</t>
+  </si>
+  <si>
+    <t>0lYBSQXN6rCTvUZvg9S0lU</t>
+  </si>
+  <si>
+    <t>7vGuf3Y35N4wmASOKLUVVU</t>
+  </si>
+  <si>
+    <t>3T4UodGkfZObJ43RtA5KFU</t>
+  </si>
+  <si>
+    <t>3HVWdVOQ0ZA45FuZGSfvns</t>
+  </si>
+  <si>
+    <t>1fidCEsYlaVE3pHwKCvpFZ</t>
+  </si>
+  <si>
+    <t>5WvAo7DNuPRmk4APhdPzi8</t>
+  </si>
+  <si>
+    <t>76VtA90NKurNqaQpV126Ue</t>
+  </si>
+  <si>
+    <t>1rVwXMW79ZuMIYyd3AsuPH</t>
+  </si>
+  <si>
+    <t>1VCHNbal0VtE2plMRzvoho</t>
+  </si>
+  <si>
+    <t>5JqZ3oqF00jkT81foAFvqg</t>
+  </si>
+  <si>
+    <t>4rHZZAmHpZrA3iH5zx8frV</t>
+  </si>
+  <si>
+    <t>5p7ujcrUXASCNwRaWNHR1C</t>
+  </si>
+  <si>
+    <t>1u0l8zWpQeMYStFkc2mLD7</t>
+  </si>
+  <si>
+    <t>3yOlyBJuViE2YSGn3nVE1K</t>
+  </si>
+  <si>
+    <t>3Q2tKt6gKdn9LUMcHFxNJy</t>
+  </si>
+  <si>
+    <t>2HHiH52OPxe8qyVO7N4uH7</t>
+  </si>
+  <si>
+    <t>7zpZQzTwWBN0eOsmb4WPH3</t>
+  </si>
+  <si>
+    <t>1pKeFVVUOPjFsOABub0OaV</t>
+  </si>
+  <si>
+    <t>5qEn8c0MBzyRKgQq91Vevi</t>
+  </si>
+  <si>
+    <t>0prNGof3XqfTvNDxHonvdK</t>
+  </si>
+  <si>
+    <t>6uBhi9gBXWjanegOb2Phh0</t>
+  </si>
+  <si>
+    <t>1wYZZtamWTQAoj8B812uKQ</t>
+  </si>
+  <si>
+    <t>4V8uu21mnpyg7BElNNJdPs</t>
+  </si>
+  <si>
+    <t>3vv9phIu6Y1vX3jcqaGz5Z</t>
+  </si>
+  <si>
+    <t>3ESSGgWzRf1xvP7G5hHMhB</t>
+  </si>
+  <si>
+    <t>1hxq7kWQnwdhxgpEugBMGk</t>
+  </si>
+  <si>
+    <t>4dTaAiV9xFFCxnPur9c9yL</t>
+  </si>
+  <si>
+    <t>5N5k9nd479b1xpDZ4usjrg</t>
+  </si>
+  <si>
+    <t>5Eg4TsPcqNbIjd8ADMZosg</t>
+  </si>
+  <si>
+    <t>62zFEHfAYl5kdHYOivj4BC</t>
+  </si>
+  <si>
+    <t>57kR5SniQIbsbVoIjjOUDa</t>
+  </si>
+  <si>
+    <t>4PwwyZBEkHcm4OTJThCzXi</t>
+  </si>
+  <si>
+    <t>3lSDIJ2abCrOdDJ6pshUap</t>
+  </si>
+  <si>
+    <t>1WkMMavIMc4JZ8cfMmxHkI</t>
+  </si>
+  <si>
+    <t>21RzyxY3EFaxVy6K4RqaU9</t>
+  </si>
+  <si>
+    <t>7MXVkk9YMctZqd1Srtv4MB</t>
+  </si>
+  <si>
+    <t>285pBltuF7vW8TeWk8hdRR</t>
+  </si>
+  <si>
+    <t>5aOpzm8W8zysk4asB9hxJw</t>
+  </si>
+  <si>
+    <t>4BHzQ9C00ceJxfG16AlNWb</t>
+  </si>
+  <si>
+    <t>7k5Yq1u7BjrhlmX13cyf0m</t>
+  </si>
+  <si>
+    <t>3KkXRkHbMCARz0aVfEt68P</t>
+  </si>
+  <si>
+    <t>4y3OI86AEP6PQoDE6olYhO</t>
+  </si>
+  <si>
+    <t>6gpcs5eMhJwax4mIfKDYQk</t>
+  </si>
+  <si>
+    <t>7iDa6hUg2VgEL1o1HjmfBn</t>
+  </si>
+  <si>
+    <t>6b8Be6ljOzmkOmFslEb23P</t>
+  </si>
+  <si>
+    <t>6FE2iI43OZnszFLuLtvvmg</t>
+  </si>
+  <si>
+    <t>7dltD9eEX7X1zk8JJ9BS0e</t>
+  </si>
+  <si>
+    <t>2V4bv1fNWfTcyRJKmej6Sj</t>
+  </si>
+  <si>
+    <t>7Lf7oSEVdzZqTA0kEDSlS5</t>
+  </si>
+  <si>
+    <t>0KKkJNfGyhkQ5aFogxQAPU</t>
+  </si>
+  <si>
+    <t>5zpDHEU12zATwLGvozxPw2</t>
+  </si>
+  <si>
+    <t>5jsw9uXEGuKyJzs0boZ1bT</t>
+  </si>
+  <si>
+    <t>12GEpg2XOPyqk03JZEZnJs</t>
+  </si>
+  <si>
+    <t>0sf12qNH5qcw8qpgymFOqD</t>
+  </si>
+  <si>
+    <t>6Zo3wgDE076K2AuiGZF3CS</t>
+  </si>
+  <si>
+    <t>2ekn2ttSfGqwhhate0LSR0</t>
+  </si>
+  <si>
+    <t>1oxOiOjsi7plNOZEhoPLPj</t>
+  </si>
+  <si>
+    <t>1cdzfFjEbUbgTm5nv3FgXR</t>
+  </si>
+  <si>
+    <t>0Ev562zA4pmUsBqjxsxxdx</t>
+  </si>
+  <si>
+    <t>28GUjBGqZVcAV4PHSYzkj2</t>
+  </si>
+  <si>
+    <t>6oJ6le65B3SEqPwMRNXWjY</t>
+  </si>
+  <si>
+    <t>2qT1uLXPVPzGgFOx4jtEuo</t>
+  </si>
+  <si>
+    <t>7uRznL3LcuazKpwCTpDltz</t>
+  </si>
+  <si>
+    <t>7ef4DlsgrMEH11cDZd32M6</t>
+  </si>
+  <si>
+    <t>5L79aNYCTKiZq7vaOElXYj</t>
+  </si>
+  <si>
+    <t>2QWP8NYYplOqEFBYGCcq0S</t>
+  </si>
+  <si>
+    <t>5iSEsR6NKjlC9SrIJkyL3k</t>
+  </si>
+  <si>
+    <t>6RsWqX8zABZLhZydXxEFOm</t>
+  </si>
+  <si>
+    <t>5masKPHeAOVNgxdLebIcK7</t>
+  </si>
+  <si>
+    <t>51MMC5DogGZAnHil5HQAXg</t>
+  </si>
+  <si>
+    <t>3Ol2xnObFdKV9pmRD2t9x8</t>
+  </si>
+  <si>
+    <t>4vb4mFvYsr2h6enhjJsq9Y</t>
+  </si>
+  <si>
+    <t>5wldXGLEOoRXxMWJ8rIUWE</t>
+  </si>
+  <si>
+    <t>55S2PQgSMYAhgoTCcGCDfw</t>
+  </si>
+  <si>
+    <t>0Y1MWB026LYxGvhq4EcMiC</t>
+  </si>
+  <si>
+    <t>5lNuqFVMca4vPupY10cH0J</t>
+  </si>
+  <si>
+    <t>3Vo4wInECJQuz9BIBMOu8i</t>
+  </si>
+  <si>
+    <t>3lJA6dGqvaKtVxqHbTtQiQ</t>
+  </si>
+  <si>
+    <t>1OAh8uOEOvTDqkKFsKksCi</t>
+  </si>
+  <si>
+    <t>1rfofaqEpACxVEHIZBJe6W</t>
+  </si>
+  <si>
+    <t>32lItqlMi4LBhb4k0BaSaC</t>
+  </si>
+  <si>
+    <t>06EL94D0TA27Ik0Ke5usbj</t>
+  </si>
+  <si>
+    <t>0p0ljM6RxgpGt7wthGqBZa</t>
+  </si>
+  <si>
+    <t>21jGcNKet2qwijlDFuPiPb</t>
+  </si>
+  <si>
+    <t>0e7ipj03S05BNilyu5bRzt</t>
+  </si>
+  <si>
+    <t>7xQAfvXzm3AkraOtGPWIZg</t>
+  </si>
+  <si>
+    <t>75ZvA4QfFiZvzhj2xkaWAh</t>
+  </si>
+  <si>
+    <t>3swc6WTsr7rl9DqQKQA55C</t>
+  </si>
+  <si>
+    <t>0t3ZvGKlmYmVsDzBJAXK8C</t>
+  </si>
+  <si>
+    <t>4kWO6O1BUXcZmaxitpVUwp</t>
+  </si>
+  <si>
+    <t>5cF0dROlMOK5uNZtivgu50</t>
+  </si>
+  <si>
+    <t>4tCtwWceOPWzenK2HAIJSb</t>
+  </si>
+  <si>
+    <t>5EmCpD8tUj78VW3kgaEjME</t>
+  </si>
+  <si>
+    <t>2GxGYGrixbXPFojONbzdo9</t>
+  </si>
+  <si>
+    <t>3QGsuHI8jO1Rx4JWLUh9jd</t>
+  </si>
+  <si>
+    <t>5Gu0PDLN4YJeW75PpBSg9p</t>
+  </si>
+  <si>
+    <t>77UjLW8j5UAGAGVGhR5oUK</t>
+  </si>
+  <si>
+    <t>6OtCIsQZ64Vs1EbzztvAv4</t>
+  </si>
+  <si>
+    <t>6lSVidZXCnOnYAWcgIqVDF</t>
+  </si>
+  <si>
+    <t>4Ce37cRWvM1vIGGynKcs22</t>
+  </si>
+  <si>
+    <t>5S9lfZu1YF8xKkgSsqL2Bd</t>
+  </si>
+  <si>
+    <t>2l8nEO0vsTRCRnGqQty6qx</t>
+  </si>
+  <si>
+    <t>0d2iYfpKoM0QCKvcLCkBao</t>
+  </si>
+  <si>
+    <t>4rsW3WCZBGwhHfJWuHRwyT</t>
+  </si>
+  <si>
+    <t>3XIIOCu6B8PuGq5j61asEM</t>
+  </si>
+  <si>
+    <t>4Jz4bjXeiF2SXVj9P4YfY5</t>
+  </si>
+  <si>
+    <t>7IWkJwX9C0J7tHurTD7ViL</t>
+  </si>
+  <si>
+    <t>2kulOHR2XY6YDZCWXb38hn</t>
+  </si>
+  <si>
+    <t>16QN8cBubEq706vNtPpOME</t>
+  </si>
+  <si>
+    <t>1RUTIdTnFs8lHSc0Zr4UJB</t>
+  </si>
+  <si>
+    <t>09IStsImFySgyp0pIQdqAc</t>
+  </si>
+  <si>
+    <t>0a7BloCiNzLDD9qSQHh5m7</t>
+  </si>
+  <si>
+    <t>5Z3GHaZ6ec9bsiI5BenrbY</t>
+  </si>
+  <si>
+    <t>7gA5OQWsvAY7HhazroFuwI</t>
+  </si>
+  <si>
+    <t>65YsalQBmQCzIPaay72CzQ</t>
+  </si>
+  <si>
+    <t>5knuzwU65gJK7IF5yJsuaW</t>
+  </si>
+  <si>
+    <t>5sIx4BlfYGuZeSLF40N9GH</t>
+  </si>
+  <si>
+    <t>6xDvaUKHffDiy56v6UmrmI</t>
+  </si>
+  <si>
+    <t>2fUZ3aMp8amSaV0mp8s6rQ</t>
+  </si>
+  <si>
+    <t>3g4GTF5OZrLrmk7hGZFkH8</t>
+  </si>
+  <si>
+    <t>27rdGxbavYJeBphck5MZAF</t>
+  </si>
+  <si>
+    <t>37FXw5QGFN7uwwsLy8uAc0</t>
+  </si>
+  <si>
+    <t>6h5PAsRni4IRlxWr6uDPTP</t>
+  </si>
+  <si>
+    <t>7CHi4DtfK4heMlQaudCuHK</t>
+  </si>
+  <si>
+    <t>25KybV9BOUlvcnv7nN3Pyo</t>
+  </si>
+  <si>
+    <t>09ts3GnICqYEU5PkQCpJK3</t>
+  </si>
+  <si>
+    <t>7FEwp8BavoEVE3AnxJDchc</t>
+  </si>
+  <si>
+    <t>7soJgKhQTO8hLP2JPRkL5O</t>
+  </si>
+  <si>
+    <t>6eT7xZZlB2mwyzJ2sUKG6w</t>
+  </si>
+  <si>
+    <t>543bCW2ruMPmxUBWirQ3MR</t>
+  </si>
+  <si>
+    <t>4evmHXcjt3bTUHD1cvny97</t>
+  </si>
+  <si>
+    <t>0Nf53RDPZEjFrQE4B5n6Vf</t>
+  </si>
+  <si>
+    <t>7BFI9QZPQKgYuR2HhDgwbG</t>
+  </si>
+  <si>
+    <t>15jRg8Ejs7X3JEHw38TSN3</t>
+  </si>
+  <si>
+    <t>6H2TKJ9KJfcq6MRmw2cF20</t>
+  </si>
+  <si>
+    <t>1cdC9TCqyLwAlsw3fVJaJS</t>
+  </si>
+  <si>
+    <t>2y4lAQpi5VTNLu2ldeTdUH</t>
+  </si>
+  <si>
+    <t>2Vdub5mY4lad7w64bFPUez</t>
+  </si>
+  <si>
+    <t>6Knv6wdA0luoMUuuoYi2i1</t>
+  </si>
+  <si>
+    <t>5KQDGl3vAkNGyfvSbaW89E</t>
+  </si>
+  <si>
+    <t>4PhsKqMdgMEUSstTDAmMpg</t>
+  </si>
+  <si>
+    <t>6SwRhMLwNqEi6alNPVG00n</t>
+  </si>
+  <si>
+    <t>7KXjTSCq5nL1LoYtL7XAwS</t>
+  </si>
+  <si>
+    <t>3GCdLUSnKSMJhs4Tj6CV3s</t>
+  </si>
+  <si>
+    <t>6REbwUNlppTfcnV4d4ZoZi</t>
+  </si>
+  <si>
+    <t>5HQVUIKwCEXpe7JIHyY734</t>
+  </si>
+  <si>
+    <t>2S5LNtRVRPbXk01yRQ14sZ</t>
+  </si>
+  <si>
+    <t>4VUwkH455At9kENOfzTqmF</t>
+  </si>
+  <si>
+    <t>4vUmTMuQqjdnvlZmAH61Qk</t>
+  </si>
+  <si>
+    <t>3dhjNA0jGA8vHBQ1VdD6vV</t>
+  </si>
+  <si>
+    <t>36pLU2ywVeBKEF0rrKtmCB</t>
+  </si>
+  <si>
+    <t>3YlrH4ydAKkxuej6F4Nnkl</t>
+  </si>
+  <si>
+    <t>017PF4Q3l4DBUiWoXk4OWT</t>
+  </si>
+  <si>
+    <t>77hjM9bMmgfTGJXv14UFmi</t>
+  </si>
+  <si>
+    <t>463CkQjx2Zk1yXoBuierM9</t>
+  </si>
+  <si>
+    <t>2RqtfcLB7iOZj0zYB8Auhu</t>
+  </si>
+  <si>
+    <t>5bcTCxgc7xVfSaMV3RuVke</t>
+  </si>
+  <si>
+    <t>2PIvq1pGrUjY007X5y1UpM</t>
+  </si>
+  <si>
+    <t>0R03f3Axt495bkgGhivLEe</t>
+  </si>
+  <si>
+    <t>6HTJZ0TQJVMSKkUGzAOe2h</t>
+  </si>
+  <si>
+    <t>7uzmGiiJyRfuViKKK3lVmR</t>
+  </si>
+  <si>
+    <t>50kpGaPAhYJ3sGmk6vplg0</t>
+  </si>
+  <si>
+    <t>3FDrI0FLKzrYQiWxPhqV2W</t>
+  </si>
+  <si>
+    <t>7aiClxsDWFRQ0Kzk5KI5ku</t>
+  </si>
+  <si>
+    <t>7n1940b6kHcaEewFSZXnXa</t>
+  </si>
+  <si>
+    <t>0DiDStADDVh3SvAsoJAFMk</t>
+  </si>
+  <si>
+    <t>152lZdxL1OR0ZMW6KquMif</t>
+  </si>
+  <si>
+    <t>6DOrfjvoK0hLJnxeHsE0xy</t>
+  </si>
+  <si>
+    <t>5FQPpxOXsvkMN6v18gtpwY</t>
+  </si>
+  <si>
+    <t>5DZwnLxHjWTZaz9jOpRhxb</t>
+  </si>
+  <si>
+    <t>6vt0I1cw1YmAIKDJvHVIM5</t>
+  </si>
+  <si>
+    <t>6UelLqGlWMcVH1E5c4H7lY</t>
+  </si>
+  <si>
+    <t>7uPQU7uKvsZZ7T9XnpBpFg</t>
+  </si>
+  <si>
+    <t>1BltsyC5W3SAABdxyrDXwi</t>
+  </si>
+  <si>
+    <t>6tsOcBnaKgzK22yEiqRh8P</t>
+  </si>
+  <si>
+    <t>5DJNyvuMmZfsfvdTpMMmUq</t>
+  </si>
+  <si>
+    <t>7nvIPwXKGhqtRhssxM99kJ</t>
+  </si>
+  <si>
+    <t>4vuJuTLFomqItDrn482nzV</t>
+  </si>
+  <si>
+    <t>0GO8y8jQk1PkHzS31d699N</t>
+  </si>
+  <si>
+    <t>57nNNkgk768QVXq3uHxu5e</t>
+  </si>
+  <si>
+    <t>1M4qEo4HE3PRaCOM7EXNJq</t>
+  </si>
+  <si>
+    <t>6XcfKZvJio9Z0fQy11GnNX</t>
+  </si>
+  <si>
+    <t>7oGZAicScQt96OAW4AruYy</t>
+  </si>
+  <si>
+    <t>5BoIP8Eha5hwmRVURkC2Us</t>
+  </si>
+  <si>
+    <t>7kDUspsoYfLkWnZR7qwHZl</t>
+  </si>
+  <si>
+    <t>5Z9KJZvQzH6PFmb8SNkxuk</t>
+  </si>
+  <si>
+    <t>1SC5rEoYDGUK4NfG82494W</t>
+  </si>
+  <si>
+    <t>4SDgTLDYrJ2UrHbkRkg7MD</t>
+  </si>
+  <si>
+    <t>1EzrEOXmMH3G43AXT1y7pA</t>
+  </si>
+  <si>
+    <t>4tK4ARuilOrBzwVQK73E0Y</t>
+  </si>
+  <si>
+    <t>53QF56cjZA9RTuuMZDrSA6</t>
+  </si>
+  <si>
+    <t>4RCWB3V8V0dignt99LZ8vH</t>
+  </si>
+  <si>
+    <t>62bOmKYxYg7dhrC6gH9vFn</t>
+  </si>
+  <si>
+    <t>6e40mgJiCid5HRAGrbpGA6</t>
+  </si>
+  <si>
+    <t>4rTeOSYqwXNz5qPR2DUTFZ</t>
+  </si>
+  <si>
+    <t>2Cd9iWfcOpGDHLz6tVA3G4</t>
+  </si>
+  <si>
+    <t>6MAdEUilV2p9RQUqE5bMAK</t>
+  </si>
+  <si>
+    <t>6Iocm6VMu6bVNYwiDoyQFW</t>
+  </si>
+  <si>
+    <t>1Xsxp1SEOxuMzjrFZhtw8u</t>
+  </si>
+  <si>
+    <t>2EcsgXlxz99UMDSPg5T8RF</t>
+  </si>
+  <si>
+    <t>3FM33HqRlV7J1QJoPOnd2u</t>
+  </si>
+  <si>
+    <t>7hwcojGiRqYm100tSmpZE3</t>
+  </si>
+  <si>
+    <t>1DqTNIgasdUuTVBfHuEZds</t>
+  </si>
+  <si>
+    <t>3eWxADd1CLwJVhyPzrCpl8</t>
+  </si>
+  <si>
+    <t>3uPfVXcjnpOjyzI3jb3js4</t>
+  </si>
+  <si>
+    <t>6Neq7tjnknt4URNI8txFL4</t>
+  </si>
+  <si>
+    <t>6zeDYmP3ARpURvpK29Q09P</t>
+  </si>
+  <si>
+    <t>7wZUrN8oemZfsEd1CGkbXE</t>
+  </si>
+  <si>
+    <t>3d8y0t70g7hw2FOWl9Z4Fm</t>
+  </si>
+  <si>
+    <t>0W4Kpfp1w2xkY3PrV714B7</t>
+  </si>
+  <si>
+    <t>3ekNuTF3UpOvIZCfiejpnC</t>
+  </si>
+  <si>
+    <t>4HRa9ZWcmZ8JD7UySPu0wT</t>
+  </si>
+  <si>
+    <t>7w87IxuO7BDcJ3YUqCyMTT</t>
+  </si>
+  <si>
+    <t>4BdGO1CaObRD4La9l5Zanz</t>
+  </si>
+  <si>
+    <t>4VbDJMkAX3dWNBdn3KH6Wx</t>
+  </si>
+  <si>
+    <t>69kOkLUCkxIZYexIgSG8rq</t>
+  </si>
+  <si>
+    <t>2JzZzZUQj3Qff7wapcbKjc</t>
+  </si>
+  <si>
+    <t>70YPzqSEwJvAIQ6nMs1cjY</t>
+  </si>
+  <si>
+    <t>7lGKEWMXVWWTt3X71Bv44I</t>
+  </si>
+  <si>
+    <t>0CcQNd8CINkwQfe1RDtGV6</t>
+  </si>
+  <si>
+    <t>6Qn5zhYkTa37e91HC1D7lb</t>
+  </si>
+  <si>
+    <t>15DrrIod12Tc2IoMaHiwlQ</t>
+  </si>
+  <si>
+    <t>6KuHjfXHkfnIjdmcIvt9r0</t>
+  </si>
+  <si>
+    <t>6BtmXhTJMM9sBTHeYYASGz</t>
+  </si>
+  <si>
+    <t>10Igtw8bSDyyFs7KIsKngZ</t>
+  </si>
+  <si>
+    <t>11EX5yhxr9Ihl3IN1asrfK</t>
+  </si>
+  <si>
+    <t>4fIWvT19w9PR0VVBuPYpWA</t>
+  </si>
+  <si>
+    <t>6WjmPTZKeDylStKmGHLcqQ</t>
+  </si>
+  <si>
+    <t>5imShWWzwqfAJ9gXFpGAQh</t>
+  </si>
+  <si>
+    <t>6wZI4mdT8JwXgkGURnBQiq</t>
+  </si>
+  <si>
+    <t>7vFv0yFGMJW3qVXbAd9BK9</t>
+  </si>
+  <si>
+    <t>5YTtTbqxUzJHD3CpbNHerP</t>
+  </si>
+  <si>
+    <t>6buXDkw3Gv4fQC1OZKUhnR</t>
+  </si>
+  <si>
+    <t>5OGkKx8jP0A5KSULEc6XYZ</t>
+  </si>
+  <si>
+    <t>0rFOs9paloAvEtzwDX1Kmc</t>
+  </si>
+  <si>
+    <t>2U8g9wVcUu9wsg6i7sFSv8</t>
+  </si>
+  <si>
+    <t>4wzt5Rrk3W98pHXAqutuJw</t>
+  </si>
+  <si>
+    <t>1yqMgZNrevsWMLWfO2PRp5</t>
+  </si>
+  <si>
+    <t>69uxyAqqPIsUyTO8txoP2M</t>
+  </si>
+  <si>
+    <t>7clUVcSOtkNWa58Gw5RfD4</t>
+  </si>
+  <si>
+    <t>0BCPKOYdS2jbQ8iyB56Zns</t>
+  </si>
+  <si>
+    <t>4ZC8hXXqu2hPcDLw9QTdtQ</t>
+  </si>
+  <si>
+    <t>4KoecuyOpZaNFZ0UqVsllc</t>
+  </si>
+  <si>
+    <t>5aWhs651KYM26HYM16kRdk</t>
+  </si>
+  <si>
+    <t>2stPxcgjdSImK7Gizl8ZUN</t>
+  </si>
+  <si>
+    <t>3U4isOIWM3VvDubwSI3y7a</t>
+  </si>
+  <si>
+    <t>0PDUDa38GO8lMxLCRc4lL1</t>
+  </si>
+  <si>
+    <t>7ju97lgwC2rKQ6wwsf9no9</t>
+  </si>
+  <si>
+    <t>5R8dQOPq8haW94K7mgERlO</t>
+  </si>
+  <si>
+    <t>2x7MyWybabEz6Y6wvHuwGE</t>
+  </si>
+  <si>
+    <t>7yBbV2k2S2uhaQc24NF2xt</t>
+  </si>
+  <si>
+    <t>6r2BECwMgEoRb5yLfp0Hca</t>
+  </si>
+  <si>
+    <t>5RRWirYSE08FPKD6Mx4v0V</t>
+  </si>
+  <si>
+    <t>3VA8T3rNy5V24AXxNK5u9E</t>
+  </si>
+  <si>
+    <t>7hEbLvHSHpmMZXuuw2nmmH</t>
+  </si>
+  <si>
+    <t>6Uy6K3KdmUdAfelUp0SeXn</t>
+  </si>
+  <si>
+    <t>7jJH8F3PHlNvxfqEAAfFDl</t>
+  </si>
+  <si>
+    <t>3B54sVLJ402zGa6Xm4YGNe</t>
+  </si>
+  <si>
+    <t>2ovQ5MCx91XVjgVWEPfvks</t>
+  </si>
+  <si>
+    <t>1kxeWHF9PrCVZHvVskv8lg</t>
+  </si>
+  <si>
+    <t>4pAl7FkDMNBsjykPXo91B3</t>
+  </si>
+  <si>
+    <t>5NDUXbMwcnTQp66tI2zcdR</t>
+  </si>
+  <si>
+    <t>7kfTqGMzIHFWeBeOJALzRf</t>
+  </si>
+  <si>
+    <t>0qy5D3OJre7SPJNMOL9I71</t>
+  </si>
+  <si>
+    <t>2nBI3iWLhupR7LyAJ5GGkE</t>
+  </si>
+  <si>
+    <t>22L7bfCiAkJo5xGSQgmiIO</t>
+  </si>
+  <si>
+    <t>2e0PQjgRNMDKeaMH49tHnC</t>
+  </si>
+  <si>
+    <t>4Li2WHPkuyCdtmokzW2007</t>
+  </si>
+  <si>
+    <t>6wWaVoUOzLQJHd3bWAUpdZ</t>
+  </si>
+  <si>
+    <t>4qikXelSRKvoCqFcHLB2H2</t>
+  </si>
+  <si>
+    <t>7DcvwMAiqKJQD1rrdfxSDx</t>
+  </si>
+  <si>
+    <t>3CLd7BfvgsBwBUI8kwFLU6</t>
+  </si>
+  <si>
+    <t>6p8NuHm8uCGnn2Dtbtf7zE</t>
+  </si>
+  <si>
+    <t>6BdgtqiV3oXNqBikezwdvC</t>
+  </si>
+  <si>
+    <t>6J5sxraPPZ4b0CVOGAgpXj</t>
+  </si>
+  <si>
+    <t>1nFgXsg2CUbyK0BJX9cmfj</t>
+  </si>
+  <si>
+    <t>6C7RJEIUDqKkJRZVWdkfkH</t>
+  </si>
+  <si>
+    <t>42zd6DYQ4o4SECmTITrM1U</t>
+  </si>
+  <si>
+    <t>5J5PXmMdQ2nh1lZOal8KmK</t>
+  </si>
+  <si>
+    <t>4kNvYhyl8R6m1vykVkcuBu</t>
+  </si>
+  <si>
+    <t>7FYH5AW3bVfZHJIQpq3UOA</t>
+  </si>
+  <si>
+    <t>78QR3Wp35dqAhFEc2qAGjE</t>
+  </si>
+  <si>
+    <t>6u5M4jPpYkoRV4vVHDQvkd</t>
+  </si>
+  <si>
+    <t>1fLdeDTrJWNkwOeFyAVLvF</t>
+  </si>
+  <si>
+    <t>0z5ZPs57J2KERwM1tBM2GF</t>
+  </si>
+  <si>
+    <t>0v9Wz8o0BT8DU38R4ddjeH</t>
+  </si>
+  <si>
+    <t>1ZHYJ2Wwgxes4m8Ba88PeK</t>
+  </si>
+  <si>
+    <t>1BR5vhAlaoUiijQ28p6jlN</t>
+  </si>
+  <si>
+    <t>722tgOgdIbNe3BEyLnejw4</t>
+  </si>
+  <si>
+    <t>1PS1QMdUqOal0ai3Gt7sDQ</t>
+  </si>
+  <si>
+    <t>65rRB2mspD309xE6YimZTl</t>
+  </si>
+  <si>
+    <t>439TlnnznSiBbQbgXiBqAd</t>
+  </si>
+  <si>
+    <t>2MIBAmYwiuGoKUlpq9B9sZ</t>
+  </si>
+  <si>
+    <t>7l3E7lcozEodtVsSTCkcaA</t>
+  </si>
+  <si>
+    <t>2gZUPNdnz5Y45eiGxpHGSc</t>
+  </si>
+  <si>
+    <t>1xLntZY8nkCceNmlecH708</t>
+  </si>
+  <si>
+    <t>3uYm4MtU6jUQft2DtGqEoZ</t>
+  </si>
+  <si>
+    <t>19a3JfW8BQwqHWUMbcqSx8</t>
+  </si>
+  <si>
+    <t>7KOlJ92bu51cltsD9KU5I7</t>
+  </si>
+  <si>
+    <t>62vpWI1CHwFy7tMIcSStl8</t>
+  </si>
+  <si>
+    <t>6HSqyfGnsHYw9MmIpa9zlZ</t>
+  </si>
+  <si>
+    <t>7sjwaBQ6M3aVigYfBjm1sL</t>
+  </si>
+  <si>
+    <t>12D0n7hKpPcjuUpcbAKjjr</t>
+  </si>
+  <si>
+    <t>646iHsrMsAeI48Z2qU8WKf</t>
+  </si>
+  <si>
+    <t>6or1bKJiZ06IlK0vFvY75k</t>
+  </si>
+  <si>
+    <t>3bidbhpOYeV4knp8AIu8Xn</t>
+  </si>
+  <si>
+    <t>4xkOaSrkexMciUUogZKVTS</t>
+  </si>
+  <si>
+    <t>42GcjriRK6srwHkfbkBqVl</t>
+  </si>
+  <si>
+    <t>5Pt83OUaK3K9C2if4C5JOk</t>
+  </si>
+  <si>
+    <t>56AMYGJzxBO6p8v0wEe9de</t>
+  </si>
+  <si>
+    <t>6vegnfDS8DAEaCqWaPYGPy</t>
+  </si>
+  <si>
+    <t>7LR85XLWw2yXqKBSI5brbG</t>
+  </si>
+  <si>
+    <t>5yY9lUy8nbvjM1Uyo1Uqoc</t>
+  </si>
+  <si>
+    <t>1kMuU3TNQvHbqvXCWBodmP</t>
+  </si>
+  <si>
+    <t>4Kz4RdRCceaA9VgTqBhBfa</t>
+  </si>
+  <si>
+    <t>3nAq2hCr1oWsIU54tS98pL</t>
+  </si>
+  <si>
+    <t>4qKcDkK6siZ7Jp1Jb4m0aL</t>
+  </si>
+  <si>
+    <t>0SGkqnVQo9KPytSri1H6cF</t>
+  </si>
+  <si>
+    <t>2Xqd0wUttjueBfdcltADOv</t>
+  </si>
+  <si>
+    <t>1vNn7rVQT6UtEW1NGH53fT</t>
+  </si>
+  <si>
+    <t>6DCZcSspjsKoFjzjrWoCdn</t>
+  </si>
+  <si>
+    <t>6qMXubogFdMrvVMJwqATzd</t>
+  </si>
+  <si>
+    <t>0TlLq3lA83rQOYtrqBqSct</t>
+  </si>
+  <si>
+    <t>4zGvb8hxGLB2jEPRFiRRqw</t>
+  </si>
+  <si>
+    <t>4dVpf9jZjcORqGTLUaeYj9</t>
+  </si>
+  <si>
+    <t>6vN77lE9LK6HP2DewaN6HZ</t>
+  </si>
+  <si>
+    <t>60xaS8mYBKUW4VQQ666N0T</t>
+  </si>
+  <si>
+    <t>0Fpen1PTuEnCmOJtUU9Iud</t>
+  </si>
+  <si>
+    <t>5QfQKhvdcxPgp68O0S39FV</t>
+  </si>
+  <si>
+    <t>1f5cbQtDrykjarZVrShaDI</t>
+  </si>
+  <si>
+    <t>1qsHYUd2c1wFGcn7e63QmG</t>
+  </si>
+  <si>
+    <t>7xVLFuuYdAvcTfcP3IG3dS</t>
+  </si>
+  <si>
+    <t>4XoP1AkbOurU9CeZ2rMEz2</t>
+  </si>
+  <si>
+    <t>6V2D8Lls36APk0THDjBDfE</t>
+  </si>
+  <si>
+    <t>5qkWTBmDmZjogwIvbKtJQv</t>
+  </si>
+  <si>
+    <t>2JvzF1RMd7lE3KmFlsyZD8</t>
+  </si>
+  <si>
+    <t>5PX4uS1LqlWEPL69phPVQQ</t>
+  </si>
+  <si>
+    <t>6MWtB6iiXyIwun0YzU6DFP</t>
+  </si>
+  <si>
+    <t>63cd4JkwGgYJrbOizbfmsp</t>
+  </si>
+  <si>
+    <t>61zTSexBvC42Db8jxMHuKx</t>
+  </si>
+  <si>
+    <t>1QMCsDhbrqwBvDRXSaeh9r</t>
+  </si>
+  <si>
+    <t>34KUIBsIUiPV7oCIzSdDAU</t>
+  </si>
+  <si>
+    <t>7HaggpJGAfEgH8wyMLOIPl</t>
+  </si>
+  <si>
+    <t>0Y0TOsE1q11qgbi7c5WZsG</t>
+  </si>
+  <si>
+    <t>4eOJxoVUcN0kFX3ymAoREV</t>
+  </si>
+  <si>
+    <t>5Z8HZM6iQMhhqyPcCGY5g9</t>
+  </si>
+  <si>
+    <t>1Hd2XLitkt1PYCWSbfF5qV</t>
+  </si>
+  <si>
+    <t>3Jv1XgMPVjdN5xGfnRJ20s</t>
+  </si>
+  <si>
+    <t>5IaHrVsrferBYDm0bDyABy</t>
+  </si>
+  <si>
+    <t>2xLMifQCjDGFmkHkpNLD9h</t>
+  </si>
+  <si>
+    <t>2d8JP84HNLKhmd6IYOoupQ</t>
+  </si>
+  <si>
+    <t>0dbTQYW3Ad1FTzIA9t90E8</t>
+  </si>
+  <si>
+    <t>04MLEeAMuV9IlHEsD8vF6A</t>
+  </si>
+  <si>
+    <t>6n4U3TlzUGhdSFbUUhTvLP</t>
+  </si>
+  <si>
+    <t>6HZILIRieu8S0iqY8kIKhj</t>
+  </si>
+  <si>
+    <t>7wBJfHzpfI3032CSD7CE2m</t>
+  </si>
+  <si>
+    <t>57hCSu4zMTdnSum7NBL1Ye</t>
+  </si>
+  <si>
+    <t>1BuZAIO8WZpavWVbbq3Lci</t>
+  </si>
+  <si>
+    <t>02pf9lLM8Nb8l4u4ts1GWb</t>
+  </si>
+  <si>
+    <t>2UVbBKQOdFAekPTRsnkzcf</t>
+  </si>
+  <si>
+    <t>6OaVWaGfhXn70ZJfdVcabn</t>
+  </si>
+  <si>
+    <t>4KYS9GK68yeuUJ8vJfPxrq</t>
+  </si>
+  <si>
+    <t>2cYqizR4lgvp4Qu6IQ3qGN</t>
+  </si>
+  <si>
+    <t>14mHfNsSHN0FbLftyjrV9g</t>
+  </si>
+  <si>
+    <t>2UciqgwVDwro0fev3MFbxJ</t>
+  </si>
+  <si>
+    <t>6nmz4imkDcmtwMjocAzFSx</t>
+  </si>
+  <si>
+    <t>2kzRSiyignH8yzPTrWvyPo</t>
+  </si>
+  <si>
+    <t>2dxjKgT0li4qBI3QwuN9Ih</t>
+  </si>
+  <si>
+    <t>3AszgPDZd9q0DpDFt4HFBy</t>
+  </si>
+  <si>
+    <t>75L0qdzRnhwV62UXoNq3pE</t>
+  </si>
+  <si>
+    <t>4jtyUzZm9WLc2AdaJ1dso7</t>
+  </si>
+  <si>
+    <t>4lWJjtWbDDALpK9tVG8Dho</t>
+  </si>
+  <si>
+    <t>3Lt558KSXrSTLBr3EJ3BAe</t>
+  </si>
+  <si>
+    <t>0VgkVdmE4gld66l8iyGjgx</t>
+  </si>
+  <si>
+    <t>33tNYw9oMtSkGe27NpgS64</t>
+  </si>
+  <si>
+    <t>3SuzCeGoNOWmbWOoDMou0B</t>
+  </si>
+  <si>
+    <t>5h9pB5af60LWJBrG1HCHsU</t>
+  </si>
+  <si>
+    <t>22UDw8rSfLbUsaAGTXQ4Z8</t>
+  </si>
+  <si>
+    <t>4TyY4vah59nsckspWdSGPn</t>
+  </si>
+  <si>
+    <t>49zD0wr2S3d0lZPib0K4e1</t>
+  </si>
+  <si>
+    <t>1wHZx0LgzFHyeIZkUydNXq</t>
+  </si>
+  <si>
+    <t>79XrkTOfV1AqySNjVlygpW</t>
+  </si>
+  <si>
+    <t>0m1KYWlT6LhFRBDVq9UNx4</t>
+  </si>
+  <si>
+    <t>0ua0Go4NN4Td7l0Zre6Ce3</t>
+  </si>
+  <si>
+    <t>70ATm56tH7OrQ1zurYssz0</t>
+  </si>
+  <si>
+    <t>2n5gVJ9fzeX2SSWlLQuyS9</t>
+  </si>
+  <si>
+    <t>51ayJ1r626si5LUBuOV5GR</t>
+  </si>
+  <si>
+    <t>6fTdcGsjxlAD9PSkoPaLMX</t>
+  </si>
+  <si>
+    <t>1ysAvOdJgUjc6CqOQxepaz</t>
+  </si>
+  <si>
+    <t>7GX5flRQZVHRAGd6B4TmDO</t>
+  </si>
+  <si>
+    <t>1nX9KhK3Fff27SnrIor2Yb</t>
+  </si>
+  <si>
+    <t>2BJSMvOGABRxokHKB0OI8i</t>
+  </si>
+  <si>
+    <t>5bkhrGvabAPrugPUm7DvsD</t>
+  </si>
+  <si>
+    <t>15JINEqzVMv3SvJTAXAKED</t>
+  </si>
+  <si>
+    <t>3rCNmRonlHN1TXQLcG3dSk</t>
+  </si>
+  <si>
+    <t>1vBeIXlzbAieGoDqInav5j</t>
+  </si>
+  <si>
+    <t>0ZNrc4kNeQYD9koZ3KvCsy</t>
+  </si>
+  <si>
+    <t>3wScL5W8H40zzCKN0atfBk</t>
+  </si>
+  <si>
+    <t>2Yer0p7uB2lVBUAtANuuQp</t>
+  </si>
+  <si>
+    <t>608a1wIsSd5KzMEqm1O7w3</t>
+  </si>
+  <si>
+    <t>6XkuklKiHYVTlVvWlTgQYP</t>
+  </si>
+  <si>
+    <t>2IRZnDFmlqMuOrYOLnZZyc</t>
+  </si>
+  <si>
+    <t>1wJRveJZLSb1rjhnUHQiv6</t>
+  </si>
+  <si>
+    <t>7pMRoGLEJuFM2wl5pt0R99</t>
+  </si>
+  <si>
+    <t>7Ie9W94M7OjPoZVV216Xus</t>
+  </si>
+  <si>
+    <t>2GGMabyHXnJmjY6CXhhB2e</t>
+  </si>
+  <si>
+    <t>6f5i916F3jU6BhOOD7iGqf</t>
+  </si>
+  <si>
+    <t>3IQgeOgdHIag6mu0mgKRgQ</t>
+  </si>
+  <si>
+    <t>4EAV2cKiqKP5UPZmY6dejk</t>
+  </si>
+  <si>
+    <t>6uSSupG4TMu3vW8QgynAB6</t>
+  </si>
+  <si>
+    <t>3Osd3Yf8K73aj4ySn6LrvK</t>
+  </si>
+  <si>
+    <t>4cAgkb0ifwn0FSHGXnr4F6</t>
+  </si>
+  <si>
+    <t>2kNtAwWATYkqV3CdT20RV0</t>
+  </si>
+  <si>
+    <t>39RWgrQOBCLQH88wy0TBm9</t>
+  </si>
+  <si>
+    <t>30CZcZ0NpTXjVJJa5X5nwf</t>
+  </si>
+  <si>
+    <t>22ngk2DRBy7audIugfYDKd</t>
+  </si>
+  <si>
+    <t>7esMRbSzvLv60O70XLZFbc</t>
+  </si>
+  <si>
+    <t>3U21A07gAloCc4P7J8rxcn</t>
+  </si>
+  <si>
+    <t>3DoBTwfr8yi2LN08SBpFkN</t>
+  </si>
+  <si>
+    <t>0w2piYWj1F2bzUftzGJgK9</t>
+  </si>
+  <si>
+    <t>3F18I7LhWKxlf1PytSoTBH</t>
+  </si>
+  <si>
+    <t>3ZLyt2ndLFBh148XRYjYYZ</t>
+  </si>
+  <si>
+    <t>0m3Ze0cy8qBHSsV2exAfCw</t>
+  </si>
+  <si>
+    <t>7GwMPc1Id4sAotVekDP4b2</t>
+  </si>
+  <si>
+    <t>2cYZpcIV39X48RnOFM7w2V</t>
+  </si>
+  <si>
+    <t>23SZWX2IaDnxmhFsSLvkG2</t>
+  </si>
+  <si>
+    <t>2Im64pIz6m0EJKdUe6eZ8r</t>
+  </si>
+  <si>
+    <t>7yNK27ZTpHew0c55VvIJgm</t>
+  </si>
+  <si>
+    <t>1UGD3lW3tDmgZfAVDh6w7r</t>
+  </si>
+  <si>
+    <t>4MRT0dDbhqFKl67WzhUbSw</t>
+  </si>
+  <si>
+    <t>5ry2OE6R2zPQFDO85XkgRb</t>
+  </si>
+  <si>
+    <t>1bzM1cd6oqFozdr4wK6HdR</t>
+  </si>
+  <si>
+    <t>7jslhIiELQkgW9IHeYNOWE</t>
+  </si>
+  <si>
+    <t>1ID1QFSNNxi0hiZCNcwjUC</t>
+  </si>
+  <si>
+    <t>2bjwRfXMk4uRgOD9IBYl9h</t>
+  </si>
+  <si>
+    <t>3keUgTGEoZJt0QkzTB6kHg</t>
+  </si>
+  <si>
+    <t>1zi7xx7UVEFkmKfv06H8x0</t>
+  </si>
+  <si>
+    <t>5tFep7dXGd7vEJ668wTPux</t>
+  </si>
+  <si>
+    <t>6UjfByV1lDLW0SOVQA4NAi</t>
+  </si>
+  <si>
+    <t>7rC5Pl8rQSX4myONQHYPBK</t>
+  </si>
+  <si>
+    <t>2SAqBLGA283SUiwJ3xOUVI</t>
+  </si>
+  <si>
+    <t>4JDZl9nKIAhAhDjw753u4X</t>
+  </si>
+  <si>
+    <t>0q7LGcVSpsIoSbjChtZ8lI</t>
+  </si>
+  <si>
+    <t>12d5QFwzh60IIHlsSnAvps</t>
+  </si>
+  <si>
+    <t>0wbnC9AUenxp613TYaJsGK</t>
+  </si>
+  <si>
+    <t>204U3zjm9kkzX25Pr4Rdld</t>
+  </si>
+  <si>
+    <t>1XRgIKC5TPwo7nWGyKqgG0</t>
+  </si>
+  <si>
+    <t>4afMG2PlvFfX976bZJvHmb</t>
+  </si>
+  <si>
+    <t>4IWGnyOHDrVZEtPWfs4s7q</t>
+  </si>
+  <si>
+    <t>3XiNC94b4Tq1xwv70sQJGN</t>
+  </si>
+  <si>
+    <t>1uL78kFWxhz3umTMWJu8n5</t>
+  </si>
+  <si>
+    <t>4uhvMW7ly7tJil31YYscAN</t>
+  </si>
+  <si>
+    <t>2bSk87AVkCIIC3Bcligq1z</t>
+  </si>
+  <si>
+    <t>2Ec33AVlkTTq8BHFgBTdQs</t>
+  </si>
+  <si>
+    <t>3jT2LKH0RSbQ8jIUNFzXm5</t>
+  </si>
+  <si>
+    <t>2AYTGaclgKXACh13nJRVcV</t>
+  </si>
+  <si>
+    <t>61QSuw5VlC0LTS8WMO356g</t>
+  </si>
+  <si>
+    <t>4DTpngLjoHj5gFxEZFeD3J</t>
+  </si>
+  <si>
+    <t>1GeNui6m825V8jP4uKiIaH</t>
+  </si>
+  <si>
+    <t>1fewSx2d5KIZ04wsooEBOz</t>
+  </si>
+  <si>
+    <t>0BOmhToQ03yOdpzYKMEnAg</t>
+  </si>
+  <si>
+    <t>6nO3tr47nr2P7f3hXb8JIo</t>
+  </si>
+  <si>
+    <t>4hqOmrCCJKyiuwDexd8c2t</t>
+  </si>
+  <si>
+    <t>4Yq3XUNfWrAPWuB94qkC09</t>
+  </si>
+  <si>
+    <t>1Ci4wASMY4xtKVMeHA6Sd5</t>
+  </si>
+  <si>
+    <t>7KZ5MMVgBVox9ycroB2UrI</t>
+  </si>
+  <si>
+    <t>6gBFPUFcJLzWGx4lenP6h2</t>
+  </si>
+  <si>
+    <t>39Yp9wwQiSRIDOvrVg7mbk</t>
+  </si>
+  <si>
+    <t>0JYAsQJWIuaYUvZGF1qapT</t>
+  </si>
+  <si>
+    <t>0ESJlaM8CE1jRWaNtwSNj8</t>
+  </si>
+  <si>
+    <t>3xby7fOyqmeON8jsnom0AT</t>
+  </si>
+  <si>
+    <t>2mYDDUkBcgFNBqkWctyyuc</t>
+  </si>
+  <si>
+    <t>0t1CKlI76apHI6siHfuP0U</t>
+  </si>
+  <si>
+    <t>5NkfVQS8BkceRgoSQwcW6H</t>
+  </si>
+  <si>
+    <t>5duCElafuovM4ZSmkQL4hn</t>
+  </si>
+  <si>
+    <t>4zrwPfq5ENLzjq41Txs2HR</t>
+  </si>
+  <si>
+    <t>7sO5G9EABYOXQKNPNiE9NR</t>
+  </si>
+  <si>
+    <t>2BUXjDhEuVLvEzFI6tabOF</t>
+  </si>
+  <si>
+    <t>0hGH0S74Eoyv6mXZcOKtdQ</t>
+  </si>
+  <si>
+    <t>2nKYHpmwjLaEOXS3o7QMiz</t>
+  </si>
+  <si>
+    <t>2FvD20Z8aoWIePi7PoN8sG</t>
+  </si>
+  <si>
+    <t>2u3EyuCqqV31woqGvO9LBz</t>
+  </si>
+  <si>
+    <t>0lSZh5W0wDeurkGzLYY6hf</t>
+  </si>
+  <si>
+    <t>0W1ZfgXpC23RYQPDq7RM5I</t>
+  </si>
+  <si>
+    <t>4pM4yFNLj3pTiNXOZsWYxf</t>
+  </si>
+  <si>
+    <t>0AluA5RNsa4Cx6XRhf2hWZ</t>
+  </si>
+  <si>
+    <t>4Q34FP1AT7GEl9oLgNtiWj</t>
+  </si>
+  <si>
+    <t>57vxBYXtHMk6H1aD29V7PU</t>
+  </si>
+  <si>
+    <t>7EiZI6JVHllARrX9PUvAdX</t>
+  </si>
+  <si>
+    <t>1B87ZDrD3Pno9hS4stamWO</t>
+  </si>
+  <si>
+    <t>0g6mKqhGtUIEoLSmV8ozi8</t>
+  </si>
+  <si>
+    <t>5e9aFSdnkQUrm5y8Dhw0qN</t>
+  </si>
+  <si>
+    <t>2p8IUWQDrpjuFltbdgLOag</t>
+  </si>
+  <si>
+    <t>3CpoeW0cZSDzIRv5z34F87</t>
+  </si>
+  <si>
+    <t>52JyHLUiugFECIYBWM2qdh</t>
+  </si>
+  <si>
+    <t>0Lw6aQcBFWTQ9m4MSwwwes</t>
+  </si>
+  <si>
+    <t>7FIWs0pqAYbP91WWM0vlTQ</t>
+  </si>
+  <si>
+    <t>60SdxE8apGAxMiRrpbmLY0</t>
+  </si>
+  <si>
+    <t>01A7PEPSnmtixFPfB2UTal</t>
+  </si>
+  <si>
+    <t>6hVGw7yVUd2bpdHMPCWrtN</t>
+  </si>
+  <si>
+    <t>4CstQ0SUkl0YkoeZkIZlIx</t>
+  </si>
+  <si>
+    <t>1fckqKAI9ug7U1DgQrrOop</t>
+  </si>
+  <si>
+    <t>1FfxSgLHUkNCCLdZ7wrCTY</t>
+  </si>
+  <si>
+    <t>0hy1SOTEn9ifXTzOwnCwEr</t>
+  </si>
+  <si>
+    <t>2VdT56BGpdqNHUgOe1j5vc</t>
+  </si>
+  <si>
+    <t>77Y7tccX9Hx5iClDr39uy9</t>
+  </si>
+  <si>
+    <t>2leIuE4fdcJoNMSKu5Yr7a</t>
+  </si>
+  <si>
+    <t>6LOCAhFzZiavHcLJucLuDy</t>
+  </si>
+  <si>
+    <t>1RagpNpkD3KcjXMLGMe99V</t>
+  </si>
+  <si>
+    <t>4fZxGiES1FKbNqJPrI4L3s</t>
+  </si>
+  <si>
+    <t>0NJp8GyCOWnQh71xKSPfuV</t>
+  </si>
+  <si>
+    <t>4xqIYGwwZTEem9U8A42SPF</t>
+  </si>
+  <si>
+    <t>2MbdDtCv5LUVjYy9RuGTgC</t>
+  </si>
+  <si>
+    <t>6MF4tRr5lU8qok8IKaFOBE</t>
+  </si>
+  <si>
+    <t>6Ozh9Ok6h4Oi1wUSLtBseN</t>
+  </si>
+  <si>
+    <t>0fySG6A6qLE8IvDpayb5bM</t>
+  </si>
+  <si>
+    <t>4RVbK6cV0VqWdpCDcx3hiT</t>
+  </si>
+  <si>
+    <t>4DuUwzP4ALMqpquHU0ltAB</t>
+  </si>
+  <si>
+    <t>1jaTQ3nqY3oAAYyCTbIvnM</t>
+  </si>
+  <si>
+    <t>16qYlQ6koFxYVbiJbGHblz</t>
+  </si>
+  <si>
+    <t>7FOJvA3PxiIU0DN3JjQ7jT</t>
+  </si>
+  <si>
+    <t>4eqrNsKy9Mvg1fvfsTVIAE</t>
+  </si>
+  <si>
+    <t>6JG0qhINKVwiHxqN85j7RG</t>
+  </si>
+  <si>
+    <t>7yotKA30dwTKNEGomV9ZsI</t>
+  </si>
+  <si>
+    <t>5WnfnSpuNEGXyEt78PBA6d</t>
+  </si>
+  <si>
+    <t>0h6sfKXFb641F2E13rY4f2</t>
+  </si>
+  <si>
+    <t>5zuoz1NBnpoHK6g5sbEH8F</t>
+  </si>
+  <si>
+    <t>0a8uknDuoiWLuACnaLPlgr</t>
+  </si>
+  <si>
+    <t>38aECKrbMv2F5FsYYCewCQ</t>
+  </si>
+  <si>
+    <t>057sdYirt745dVbe48m7Hl</t>
+  </si>
+  <si>
+    <t>7KyTq7H5f3Oavmuo9TX6QK</t>
+  </si>
+  <si>
+    <t>40oKW22ZNNkEdZLJTScaQI</t>
+  </si>
+  <si>
+    <t>0bXFIF7iL17TYLyx8JHziM</t>
+  </si>
+  <si>
+    <t>2ZGBhrxA4ghKqoOMBdn966</t>
+  </si>
+  <si>
+    <t>5aQmsZCESbhasWW5VARdS8</t>
+  </si>
+  <si>
+    <t>51pshtuYkgUQnt5huMPbKL</t>
+  </si>
+  <si>
+    <t>39NDBdU5Xkm5pCFGa5kZtI</t>
+  </si>
+  <si>
+    <t>2c5Isyd07hWsl7AQia2Dig</t>
+  </si>
+  <si>
+    <t>5znWe9RMoJIGyjfWF8PZtD</t>
+  </si>
+  <si>
+    <t>4GXl8l1MfZPf2GvpyRPJBf</t>
+  </si>
+  <si>
+    <t>6uFn47ACjqYkc0jADwEdj1</t>
+  </si>
+  <si>
+    <t>5BpGjOHSvuRdZNQZMvGxsJ</t>
+  </si>
+  <si>
+    <t>2ZltjIqztEpZtafc8w0I9t</t>
+  </si>
+  <si>
+    <t>1sFstGV1Z3Aw5TDFCiT7vK</t>
+  </si>
+  <si>
+    <t>00GOPLxW4PGQuUYdPJh8K1</t>
+  </si>
+  <si>
+    <t>17wxjHNmOSstc6nVIe401T</t>
+  </si>
+  <si>
+    <t>0uxSUdBrJy9Un0EYoBowng</t>
+  </si>
+  <si>
+    <t>4IowQDUOzUvNtp72HMDcKO</t>
+  </si>
+  <si>
+    <t>2EEeOnHehOozLq4aS0n6SL</t>
+  </si>
+  <si>
+    <t>2BqQQXuBOuhaWeUP7okEx0</t>
+  </si>
+  <si>
+    <t>0TRvzhQIe3v6Jpcw8DBSte</t>
+  </si>
+  <si>
+    <t>4Gvw0LK02JYWTeIQwnovAQ</t>
+  </si>
+  <si>
+    <t>1e1JKLEDKP7hEQzJfNAgPl</t>
+  </si>
+  <si>
+    <t>696DnlkuDOXcMAnKlTgXXK</t>
+  </si>
+  <si>
+    <t>6lruHh1jF7ezgbLv72xYmf</t>
+  </si>
+  <si>
+    <t>0PT7nlpo11hYYyfnBgtilT</t>
+  </si>
+  <si>
+    <t>1zzxoZVylsna2BQB65Ppcb</t>
+  </si>
+  <si>
+    <t>6RUpJeXT6U4SPEafnr9Wr7</t>
+  </si>
+  <si>
+    <t>4ak7xjvBeBOcJGWFDX9w5n</t>
+  </si>
+  <si>
+    <t>6Gg1gjgKi2AK4e0qzsR7sd</t>
+  </si>
+  <si>
+    <t>5kgqTe1BM720OjU78TGYDw</t>
+  </si>
+  <si>
+    <t>3OaunNUlXXs5e2PXtNAzzG</t>
+  </si>
+  <si>
+    <t>60wwxj6Dd9NJlirf84wr2c</t>
+  </si>
+  <si>
+    <t>2qq7sHFIexFKEvlNghevsj</t>
+  </si>
+  <si>
+    <t>12KUFSHFgT0XCoiSlvdQi4</t>
+  </si>
+  <si>
+    <t>46lFttIf5hnUZMGvjK0Wxo</t>
+  </si>
+  <si>
+    <t>1JDIArrcepzWDTAWXdGYmP</t>
+  </si>
+  <si>
+    <t>3aIhJDHxr1kgTSnutJxPTH</t>
+  </si>
+  <si>
+    <t>2ISSQPb9LHHiV6ng2NXosL</t>
+  </si>
+  <si>
+    <t>2V65y3PX4DkRhy1djlxd9p</t>
+  </si>
+  <si>
+    <t>7b71WsDLb8gG0cSyDTFAEW</t>
+  </si>
+  <si>
+    <t>2QD4C6RRHgRNRAyrfnoeAo</t>
+  </si>
+  <si>
+    <t>07nH4ifBxUB4lZcsf44Brn</t>
+  </si>
+  <si>
+    <t>6qn9YLKt13AGvpq9jfO8py</t>
+  </si>
+  <si>
+    <t>6PtXobrqImYfnpIxNsJApa</t>
+  </si>
+  <si>
+    <t>4iD3msRl5hJUBEtrQwnR4k</t>
+  </si>
+  <si>
+    <t>4wkQmYpAaMe41Rc3sYZ7Vz</t>
+  </si>
+  <si>
+    <t>2GFQfd3fji2pLxPYbS8XQl</t>
+  </si>
+  <si>
+    <t>6YwLgicpvVuMt1eE2OldwQ</t>
+  </si>
+  <si>
+    <t>1gihuPhrLraKYrJMAEONyc</t>
+  </si>
+  <si>
+    <t>5WQQIDU3HRaMyPkob8mpFb</t>
+  </si>
+  <si>
+    <t>59RSrxkSKSixEWBAIvE5Wa</t>
+  </si>
+  <si>
+    <t>3VZQshi4COChhXaz7cLP02</t>
+  </si>
+  <si>
+    <t>69bp2EbF7Q2rqc5N3ylezZ</t>
+  </si>
+  <si>
+    <t>0mtPNQl5vePVwiI9Vykp7L</t>
+  </si>
+  <si>
+    <t>0Hf4aIJpsN4Os2f0y0VqWl</t>
+  </si>
+  <si>
+    <t>24LS4lQShWyixJ0ZrJXfJ5</t>
+  </si>
+  <si>
+    <t>0lHAMNU8RGiIObScrsRgmP</t>
+  </si>
+  <si>
+    <t>3AGOgQzp0YcPH41u9p7dOp</t>
+  </si>
+  <si>
+    <t>2I7TngtQc3oZO0fsyFDUAJ</t>
+  </si>
+  <si>
+    <t>0xMd5bcWTbyXS7wPrBtZA6</t>
+  </si>
+  <si>
+    <t>1V6gIisPpYqgFeWbMLI0bA</t>
+  </si>
+  <si>
+    <t>5vTPxzm4h2bY9rYyVrGEU5</t>
+  </si>
+  <si>
+    <t>3sP3c86WFjOzHHnbhhZcLA</t>
+  </si>
+  <si>
+    <t>66BbRn8Nipj8xtDO4FuCTu</t>
+  </si>
+  <si>
+    <t>33RJ3P6wc0B0FIyDalhNTv</t>
+  </si>
+  <si>
+    <t>5OMwQFBcte0aWFJFqrr5oj</t>
+  </si>
+  <si>
+    <t>3cHyrEgdyYRjgJKSOiOtcS</t>
+  </si>
+  <si>
+    <t>6mnjcTmK8TewHfyOp3fC9C</t>
+  </si>
+  <si>
+    <t>5FQazQxWUHsJ8QDaXLdFzR</t>
+  </si>
+  <si>
+    <t>3ubtdCmWZIuX8FuRv3S3KX</t>
+  </si>
+  <si>
+    <t>5jaz6aiRknA63NIYWdbr2O</t>
+  </si>
+  <si>
+    <t>5PypFTXJ4Ij2nMvxKRjjv2</t>
+  </si>
+  <si>
+    <t>1RMRkCn07y2xtBip9DzwmC</t>
+  </si>
+  <si>
+    <t>133g7oJWqvMnhvwfXL4CU1</t>
+  </si>
+  <si>
+    <t>4QNpBfC0zvjKqPJcyqBy9W</t>
+  </si>
+  <si>
+    <t>5tXyNhNcsnn7HbcABntOSf</t>
+  </si>
+  <si>
+    <t>2bJvI42r8EF3wxjOuDav4r</t>
+  </si>
+  <si>
+    <t>0Oe49j06Bjrxs8PltuVeaW</t>
+  </si>
+  <si>
+    <t>3rfhI32Il2hVRKDkuGeeen</t>
+  </si>
+  <si>
+    <t>5Iy2Jj87Ha0C0IBlNE1I4y</t>
+  </si>
+  <si>
+    <t>0U10zFw4GlBacOy9VDGfGL</t>
+  </si>
+  <si>
+    <t>22mek4IiqubGD9ctzxc69s</t>
+  </si>
+  <si>
+    <t>5b2bu6yyATC1zMXDGScJ2d</t>
+  </si>
+  <si>
+    <t>6JOlNkT0QdHeZB0wPbI9IR</t>
+  </si>
+  <si>
+    <t>0uXO2GrNiIb1xHT9LUdxZE</t>
+  </si>
+  <si>
+    <t>6ebkx7Q5tTxrCxKq4GYj0Y</t>
+  </si>
+  <si>
+    <t>63rbP24OzfaQCJjsHWZXnY</t>
+  </si>
+  <si>
+    <t>0SZPXD0uEl72YjUVY2K3E9</t>
+  </si>
+  <si>
+    <t>0n8ob8S72lvznoVfiwz4qL</t>
+  </si>
+  <si>
+    <t>42fw0rxRO2xbesF6mJfd4Y</t>
+  </si>
+  <si>
+    <t>41Fflg7qHiVOD6dEPvsCzO</t>
+  </si>
+  <si>
+    <t>11dxtPJKR4E0wlSr0A0t47</t>
+  </si>
+  <si>
+    <t>1YaVmBh7EAeR54FIjuFcb5</t>
+  </si>
+  <si>
+    <t>0tBbt8CrmxbjRP0pueQkyU</t>
+  </si>
+  <si>
+    <t>3oqCnpAoHf3SDFynxx7AU4</t>
+  </si>
+  <si>
+    <t>38tKqQuqodiUYOsw6HWyeQ</t>
+  </si>
+  <si>
+    <t>0H1OyEooZ5SzBYYdJEzxoy</t>
+  </si>
+  <si>
+    <t>0BmT0BVnYYggf7V4NCtx2B</t>
+  </si>
+  <si>
+    <t>466s1BacUmiRdR3ISvNjyx</t>
+  </si>
+  <si>
+    <t>7kMfu3KUydmrFVGEAhjtyl</t>
+  </si>
+  <si>
+    <t>7pNC5ZIKtwUK0ReSpM3P9f</t>
+  </si>
+  <si>
+    <t>67awxiNHNyjMXhVgsHuIrs</t>
+  </si>
+  <si>
+    <t>6AE0G24YXnDyEgE4L0efpB</t>
+  </si>
+  <si>
+    <t>1CdqVF1ywD0ZO1zXtB9yWa</t>
+  </si>
+  <si>
+    <t>4PYTMO1VMWLPVvGUtqkUwv</t>
+  </si>
+  <si>
+    <t>2IpGdrWvIZipmaxo1YRxw5</t>
+  </si>
+  <si>
+    <t>5kcE7pp02ezLZaUbbMv3Iq</t>
+  </si>
+  <si>
+    <t>190jyVPHYjAqEaOGmMzdyk</t>
+  </si>
+  <si>
+    <t>6kex4EBAj0WHXDKZMEJaaF</t>
+  </si>
+  <si>
+    <t>0CINJz55gaKzuAsqhZ0hEU</t>
+  </si>
+  <si>
+    <t>1nZzRJbFvCEct3uzu04ZoL</t>
+  </si>
+  <si>
+    <t>6F5c58TMEs1byxUstkzVeM</t>
+  </si>
+  <si>
+    <t>5jrdCoLpJSvHHorevXBATy</t>
+  </si>
+  <si>
+    <t>30cSNer6TV8x2utjULVeQ5</t>
+  </si>
+  <si>
+    <t>2VOomzT6VavJOGBeySqaMc</t>
+  </si>
+  <si>
+    <t>3tyPOhuVnt5zd5kGfxbCyL</t>
+  </si>
+  <si>
+    <t>0ByMNEPAPpOR5H69DVrTNy</t>
+  </si>
+  <si>
+    <t>2PQ0GyIYxsYGkcMdeZqItT</t>
+  </si>
+  <si>
+    <t>6jAsmDJI8iPhGWtS27kZ67</t>
+  </si>
+  <si>
+    <t>0NTMtAO2BV4tnGvw9EgBVq</t>
+  </si>
+  <si>
+    <t>7K5dzhGda2vRTaAWYI3hrb</t>
+  </si>
+  <si>
+    <t>733ncRLzZQT5UtSPg1QmPc</t>
+  </si>
+  <si>
+    <t>2U2ONBrf1HJCDxQlynpD6J</t>
+  </si>
+  <si>
+    <t>4Dm32oO01YpIubCHaAtKkN</t>
+  </si>
+  <si>
+    <t>7FC9Lng8iXU081lbigu8m8</t>
+  </si>
+  <si>
+    <t>0WfKDYeUAoLA3vdvLKKWMW</t>
+  </si>
+  <si>
+    <t>0JNdS1n0ifOP25XvhwAMgM</t>
+  </si>
+  <si>
+    <t>5c0Wgs68kjgViFCVDGLB2I</t>
+  </si>
+  <si>
+    <t>16Me2jlMlTX4xsps2j71mC</t>
+  </si>
+  <si>
+    <t>6HkjpGIOHv4y0IBAxUbE5z</t>
+  </si>
+  <si>
+    <t>5ka2ajep9OAvU5Sgduhiex</t>
+  </si>
+  <si>
+    <t>2kJu14V7hbZw3I4K8L8SXb</t>
+  </si>
+  <si>
+    <t>2tJulUYLDKOg9XrtVkMgcJ</t>
+  </si>
+  <si>
+    <t>3w3y8KPTfNeOKPiqUTakBh</t>
+  </si>
+  <si>
+    <t>55h7vJchibLdUkxdlX3fK7</t>
+  </si>
+  <si>
+    <t>1uXbwHHfgsXcUKfSZw5ZJ0</t>
+  </si>
+  <si>
+    <t>6N9ZOtguCnnrvwH7zD82WJ</t>
+  </si>
+  <si>
+    <t>3GpbwCm3YxiWDvy29Uo3vP</t>
+  </si>
+  <si>
+    <t>4bZd0nRuX8HyjeXAUBczvm</t>
+  </si>
+  <si>
+    <t>2LEF1A8DOZ9wRYikWgVlZ8</t>
+  </si>
+  <si>
+    <t>0CAfXk7DXMnon4gLudAp7J</t>
+  </si>
+  <si>
+    <t>0WLh2RYzULomRcUd35IhCk</t>
+  </si>
+  <si>
+    <t>67T6l4q3zVjC5nZZPXByU8</t>
+  </si>
+  <si>
+    <t>7ksYJ95P5vP87A0GH34CIk</t>
+  </si>
+  <si>
+    <t>6g6A7qNhTfUgOSH7ROOxTD</t>
+  </si>
+  <si>
+    <t>7ynCQo1KpBOyTdTdAnjSLZ</t>
+  </si>
+  <si>
+    <t>1NpW5kyvO4XrNJ3rnfcNy3</t>
+  </si>
+  <si>
+    <t>5sAlmL7Qp9N9BJTADkwEt9</t>
+  </si>
+  <si>
+    <t>1bM50INir8voAkVoKuvEUI</t>
+  </si>
+  <si>
+    <t>0aBKFfdyOD1Ttvgv0cfjjJ</t>
+  </si>
+  <si>
+    <t>2fQ6sBFWaLv2Gxos4igHLy</t>
+  </si>
+  <si>
+    <t>5uXR7Nanrm9FfWDrpQBGfN</t>
+  </si>
+  <si>
+    <t>5YnKmPZytgkywuHktntXDV</t>
+  </si>
+  <si>
+    <t>2Y0wPrPQBrGhoLn14xRYCG</t>
+  </si>
+  <si>
+    <t>6eDApnV9Jdb1nYahOlbbUh</t>
+  </si>
+  <si>
+    <t>7vS3Y0IKjde7Xg85LWIEdP</t>
+  </si>
+  <si>
+    <t>47aQT2aV12TyilaoYi1NiD</t>
+  </si>
+  <si>
+    <t>3ZFTkvIE7kyPt6Nu3PEa7V</t>
+  </si>
+  <si>
+    <t>3iL2l5gUqyPS6vDwJFgJTR</t>
+  </si>
+  <si>
+    <t>2a1o6ZejUi8U3wzzOtCOYw</t>
+  </si>
+  <si>
+    <t>7LP4Es66zdY7CyjepqmvAg</t>
+  </si>
+  <si>
+    <t>4P6BuLsqtg5uISdE77ypI9</t>
+  </si>
+  <si>
+    <t>0r2Bul2NuCViraT2zX1l5j</t>
+  </si>
+  <si>
+    <t>6Rb0ptOEjBjPPQUlQtQGbL</t>
   </si>
 </sst>
 </file>
@@ -3883,6 +7105,5701 @@
         <v>476</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/song ids.xlsx
+++ b/song ids.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1552">
   <si>
     <t>id</t>
   </si>
@@ -155,1510 +155,1513 @@
     <t>2WRzpLD8qDRrxMXc63E5WJ</t>
   </si>
   <si>
+    <t>1EYeZGTMCjV7uVey5fNWXM</t>
+  </si>
+  <si>
+    <t>4Km5HrUvYTaSUfiSGPJeQR</t>
+  </si>
+  <si>
+    <t>5F1CxsOXX6altKaKlEPuox</t>
+  </si>
+  <si>
+    <t>5QTxFnGygVM4jFQiBovmRo</t>
+  </si>
+  <si>
+    <t>1MCem6JigI6jgQPMgriKbU</t>
+  </si>
+  <si>
+    <t>7DD7eSuYSC5xk2ArU62esN</t>
+  </si>
+  <si>
+    <t>4Z80C8NlDd1AO4axf1O3n0</t>
+  </si>
+  <si>
+    <t>5N4vVbNotNwWGG8KcCdstR</t>
+  </si>
+  <si>
+    <t>4RY96Asd9IefaL3X4LOLZ8</t>
+  </si>
+  <si>
+    <t>2TfSHkHiFO4gRztVIkggkE</t>
+  </si>
+  <si>
+    <t>6EPRKhUOdiFSQwGBRBbvsZ</t>
+  </si>
+  <si>
+    <t>02eD9ymfJOJOhM97HYp5R9</t>
+  </si>
+  <si>
+    <t>3XVBdLihbNbxUwZosxcGuJ</t>
+  </si>
+  <si>
+    <t>1BwrMGGhPA6GarWIYaFrW8</t>
+  </si>
+  <si>
+    <t>5v4GgrXPMghOnBBLmveLac</t>
+  </si>
+  <si>
+    <t>3TGRqZ0a2l1LRblBkJoaDx</t>
+  </si>
+  <si>
+    <t>0K6yUnIKNsFtfIpTgGtcHm</t>
+  </si>
+  <si>
+    <t>61MZN0yyMWSEwrLPUUGfgJ</t>
+  </si>
+  <si>
+    <t>2yzPBlE5UXK2sqvnNM9QQ0</t>
+  </si>
+  <si>
+    <t>3oAWTk92mZBxKBOKf8mR5v</t>
+  </si>
+  <si>
+    <t>2Mb3zpobD0CvJGWv6NpsPy</t>
+  </si>
+  <si>
+    <t>11IzgLRXV7Cgek3tEgGgjw</t>
+  </si>
+  <si>
+    <t>5Ohxk2dO5COHF1krpoPigN</t>
+  </si>
+  <si>
+    <t>0FWhGmPVxLI6jOVF0wjALa</t>
+  </si>
+  <si>
+    <t>3hlksXnvbKogFdPbpO9vel</t>
+  </si>
+  <si>
+    <t>58PSYdY0GFg0LFb2PxYk4T</t>
+  </si>
+  <si>
+    <t>6MdqqkQ8sSC0WB4i8PyRuQ</t>
+  </si>
+  <si>
+    <t>6PNvv1dmDbOWrAYwEcuKBX</t>
+  </si>
+  <si>
+    <t>1YrnDTqvcnUKxAIeXyaEmU</t>
+  </si>
+  <si>
+    <t>4s6LhHAV5SEsOV0lC2tjvJ</t>
+  </si>
+  <si>
+    <t>6xkryXuiZU360Lngd4sx13</t>
+  </si>
+  <si>
+    <t>4fQMGlCawbTkH9yPPZ49kP</t>
+  </si>
+  <si>
+    <t>32OlwWuMpZ6b0aN2RZOeMS</t>
+  </si>
+  <si>
+    <t>1L94M3KIu7QluZe63g64rv</t>
+  </si>
+  <si>
+    <t>1YwNlWLf8auhazSQUDQLFU</t>
+  </si>
+  <si>
+    <t>5WHY6S6FO0bdRNd8xYxyAG</t>
+  </si>
+  <si>
+    <t>1DKyFVzIh1oa1fFnEmTkIl</t>
+  </si>
+  <si>
+    <t>3XWgwgbWDI56mf1Wl3cLzb</t>
+  </si>
+  <si>
+    <t>4xmeLj3uVcoAwgDtwM4MbG</t>
+  </si>
+  <si>
+    <t>701oRFDRzsz3WdhCFOtUJj</t>
+  </si>
+  <si>
+    <t>5UWwZ5lm5PKu6eKsHAGxOk</t>
+  </si>
+  <si>
+    <t>476V2d6iA2tWXgQboKmTtA</t>
+  </si>
+  <si>
+    <t>5EWPGh7jbTNO2wakv8LjUI</t>
+  </si>
+  <si>
+    <t>1kCewNSs909Xj1naXr36X8</t>
+  </si>
+  <si>
+    <t>6KTv0Z8BmVqM7DPxbGzpVC</t>
+  </si>
+  <si>
+    <t>53Za5vyGc1x7GxgJVRjRKc</t>
+  </si>
+  <si>
+    <t>0bRXwKfigvpKZUurwqAlEh</t>
+  </si>
+  <si>
+    <t>4xh7W7tlNMIczFhupCPniY</t>
+  </si>
+  <si>
+    <t>4JRem7xHp2l0kmUvt9zCKu</t>
+  </si>
+  <si>
+    <t>0RnCUYXa7jhgTXtiMXF2PQ</t>
+  </si>
+  <si>
+    <t>39lSeqnyjZJejRuaREfyLL</t>
+  </si>
+  <si>
+    <t>1p50Ir1Hm6Sa1urjaLGi7L</t>
+  </si>
+  <si>
+    <t>1v98rfd0an913AzHvMNG8a</t>
+  </si>
+  <si>
+    <t>3pRaLNL3b8x5uBOcsgvdqM</t>
+  </si>
+  <si>
+    <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
+  </si>
+  <si>
+    <t>05ZACkzW8YbRq3eFgIfSNB</t>
+  </si>
+  <si>
+    <t>5BIMPccDwShpXq784RJlJp</t>
+  </si>
+  <si>
+    <t>1QaJWSCk3UMKLotnPCIHh1</t>
+  </si>
+  <si>
+    <t>0LWkaEyQRkF0XAms8Bg1fC</t>
+  </si>
+  <si>
+    <t>4AwKXevZmsTNa3KZVj3rzl</t>
+  </si>
+  <si>
+    <t>0UAJH0k4k3slcE83a9UGCe</t>
+  </si>
+  <si>
+    <t>3SnGymj6ijE2iuUfWxLo1q</t>
+  </si>
+  <si>
+    <t>58q2HKrzhC3ozto2nDdN4z</t>
+  </si>
+  <si>
+    <t>0wXuerDYiBnERgIpbb3JBR</t>
+  </si>
+  <si>
+    <t>0IVkP59yJ9GFF6B7IrvrxA</t>
+  </si>
+  <si>
+    <t>4oPNN7syJYSjzDhRerF966</t>
+  </si>
+  <si>
+    <t>003vvx7Niy0yvhvHt4a68B</t>
+  </si>
+  <si>
+    <t>1tuwC1Ob5vnYZhvg3zyzJg</t>
+  </si>
+  <si>
+    <t>6h3YJ05BovN1Pgk145J3r9</t>
+  </si>
+  <si>
+    <t>7cNRqg0lbiqBaGeOlA4AEU</t>
+  </si>
+  <si>
+    <t>5ndGYGQJGv1hbpTKD6gzLZ</t>
+  </si>
+  <si>
+    <t>0wwPcA6wtMf6HUMpIRdeP7</t>
+  </si>
+  <si>
+    <t>69uJi5QsBtqlYkGURTBli8</t>
+  </si>
+  <si>
+    <t>5Wj1rJnCLpMHdLaxsFtJLs</t>
+  </si>
+  <si>
+    <t>2OARIMw1hpehr86Iwmv04c</t>
+  </si>
+  <si>
+    <t>4alHo6RGd0D3OUbTPExTHN</t>
+  </si>
+  <si>
+    <t>2EoOZnxNgtmZaD8uUmz2nD</t>
+  </si>
+  <si>
+    <t>7DfFc7a6Rwfi3YQMRbDMau</t>
+  </si>
+  <si>
+    <t>7jeOETwLUP84mPQzxlD5nh</t>
+  </si>
+  <si>
+    <t>6ui6l3ZNvlrGQZArwo8195</t>
+  </si>
+  <si>
+    <t>7x2xjJV3YAPeLQJ7u3Kjet</t>
+  </si>
+  <si>
+    <t>5O4erNlJ74PIF6kGol1ZrC</t>
+  </si>
+  <si>
+    <t>5UDqWOgDdixYMAgAyNbpgh</t>
+  </si>
+  <si>
+    <t>1Pao4DTLMB4gJPTnqmLgSQ</t>
+  </si>
+  <si>
+    <t>4N1dFbXmRng8qJ3KdJrbLr</t>
+  </si>
+  <si>
+    <t>0Q0IVlqMV64kNLlwjPj0Hl</t>
+  </si>
+  <si>
+    <t>0lIoY4ZQsdn5QzhraM9o9u</t>
+  </si>
+  <si>
+    <t>1p80LdxRV74UKvL8gnD7ky</t>
+  </si>
+  <si>
+    <t>2ccUQnjjNWT0rsNnsBpsCA</t>
+  </si>
+  <si>
+    <t>2rBBhFXtuMoGuwYTSDpAdF</t>
+  </si>
+  <si>
+    <t>7oOOI85fVQvVnK5ynNMdW7</t>
+  </si>
+  <si>
+    <t>1TfqLAPs4K3s2rJMoCokcS</t>
+  </si>
+  <si>
+    <t>2qOm7ukLyHUXWyR4ZWLwxA</t>
+  </si>
+  <si>
+    <t>2qWKpYIleSvBT6aUMXoia5</t>
+  </si>
+  <si>
+    <t>5AJrhrwz4oSZX2PwwV4qrN</t>
+  </si>
+  <si>
+    <t>5ZgNecJcN9SSopnmCTlpXs</t>
+  </si>
+  <si>
+    <t>6xNwKNYZcvgV3XTIwsgNio</t>
+  </si>
+  <si>
+    <t>4saklk6nie3yiGePpBwUoc</t>
+  </si>
+  <si>
+    <t>12q3V8ShACq2PSWINMc2rC</t>
+  </si>
+  <si>
+    <t>3IOQZRcEkplCXg6LofKqE9</t>
+  </si>
+  <si>
+    <t>2yBVeksU2EtrPJbTu4ZslK</t>
+  </si>
+  <si>
+    <t>2lDArps4owX3Q6rOIA4Osp</t>
+  </si>
+  <si>
+    <t>3G7tRC24Uh09Hmp1KZ7LQ2</t>
+  </si>
+  <si>
+    <t>2QSUyofqpGDCo026OPiTBQ</t>
+  </si>
+  <si>
+    <t>1Y373MqadDRtclJNdnUXVc</t>
+  </si>
+  <si>
+    <t>2goLsvvODILDzeeiT4dAoR</t>
+  </si>
+  <si>
+    <t>5dFoWIiJ2814hRwMYDcFiU</t>
+  </si>
+  <si>
+    <t>1OE5l6sedVcIFELMuxQOPI</t>
+  </si>
+  <si>
+    <t>7MiLmLbwNoyf47xQ4TCVYp</t>
+  </si>
+  <si>
+    <t>113v1MA9MTShy98uCz37nO</t>
+  </si>
+  <si>
+    <t>6jX5mso4x00c1EiNMrTU9U</t>
+  </si>
+  <si>
+    <t>2g8HN35AnVGIk7B8yMucww</t>
+  </si>
+  <si>
+    <t>2DEZmgHKAvm41k4J3R2E9Y</t>
+  </si>
+  <si>
+    <t>3d9DChrdc6BOeFsbrZ3Is0</t>
+  </si>
+  <si>
+    <t>3XG801WWhqC753dekEBkMt</t>
+  </si>
+  <si>
+    <t>4yY8JqTOQyi7K4O1QcQtBG</t>
+  </si>
+  <si>
+    <t>15BQ7vEDv2LJuh8TxWIhtd</t>
+  </si>
+  <si>
+    <t>3utq2FgD1pkmIoaWfjXWAU</t>
+  </si>
+  <si>
+    <t>7dblNGnRXEBrVJunazs2U5</t>
+  </si>
+  <si>
+    <t>0CETmgFGt8Ne8vLnaLcduU</t>
+  </si>
+  <si>
+    <t>6wpGqhRvJGNNXwWlPmkMyO</t>
+  </si>
+  <si>
+    <t>3ia3dJETSOllPsv3LJkE35</t>
+  </si>
+  <si>
+    <t>4RvWPyQ5RL0ao9LPZeSouE</t>
+  </si>
+  <si>
+    <t>5Oc0vLGWdEWeCqIU8zyELt</t>
+  </si>
+  <si>
+    <t>2rslQV48gNv3r9pPrQFPW1</t>
+  </si>
+  <si>
+    <t>6O5PIO5pAWxdoxvaUFQ02G</t>
+  </si>
+  <si>
+    <t>0CLbmkYmQIWiEwnsbOkLpd</t>
+  </si>
+  <si>
+    <t>672N8DGGTOLCOgWe0koX5g</t>
+  </si>
+  <si>
+    <t>4Dq749x2QP6OXTURJ9GGY8</t>
+  </si>
+  <si>
+    <t>4NU6Vnrsh09TdZtIBYBwTA</t>
+  </si>
+  <si>
+    <t>40riOy7x9W7GXjyGp4pjAv</t>
+  </si>
+  <si>
+    <t>5uvosCdMlFdTXhoazkTI5R</t>
+  </si>
+  <si>
+    <t>1k1Bqnv2R0uJXQN4u6LKYt</t>
+  </si>
+  <si>
+    <t>2N5zMZX7YeL1tico8oQxa9</t>
+  </si>
+  <si>
+    <t>2oZmMp5M6L0Rh7G84Um2tF</t>
+  </si>
+  <si>
+    <t>1JSTJqkT5qHq8MDJnJbRE1</t>
+  </si>
+  <si>
+    <t>1KGi9sZVMeszgZOWivFpxs</t>
+  </si>
+  <si>
+    <t>6mFkJmJqdDVQ1REhVfGgd1</t>
+  </si>
+  <si>
+    <t>6UBjSnyP1O5W5ndJoO9vUk</t>
+  </si>
+  <si>
+    <t>2Q5wSOwq6BDSu7sSVMNrtT</t>
+  </si>
+  <si>
+    <t>3sLhMSePzxSrmxluIqeoAZ</t>
+  </si>
+  <si>
+    <t>3R2q3FCnNIw2XhuEbYtYk6</t>
+  </si>
+  <si>
+    <t>2Gy7qnDwt8Z3MNxqat4CsK</t>
+  </si>
+  <si>
+    <t>0XyjtybwqSdqMAFfBEkmZf</t>
+  </si>
+  <si>
+    <t>0cJPLFrlV7TTCyPLupHzcH</t>
+  </si>
+  <si>
+    <t>3cw3Z7mS55gd3NUjh4k0bL</t>
+  </si>
+  <si>
+    <t>5Z8EDau8uNcP1E8JvmfkZe</t>
+  </si>
+  <si>
+    <t>3Ti0GdlrotgwsAVBBugv0I</t>
+  </si>
+  <si>
+    <t>18AXbzPzBS8Y3AkgSxzJPb</t>
+  </si>
+  <si>
+    <t>5rb9QrpfcKFHM1EUbSIurX</t>
+  </si>
+  <si>
+    <t>1Vp8U39YNsDfd6yVuaUq12</t>
+  </si>
+  <si>
+    <t>2SiXAy7TuUkycRVbbWDEpo</t>
+  </si>
+  <si>
+    <t>0GjEhVFGZW8afUYGChu3Rr</t>
+  </si>
+  <si>
+    <t>7H6ev70Weq6DdpZyyTmUXk</t>
+  </si>
+  <si>
+    <t>2L93TdW2GMue1H2zlkt30F</t>
+  </si>
+  <si>
+    <t>47mA6f44zxLtdATOoY7GjN</t>
+  </si>
+  <si>
+    <t>1qQSRy9DjrGh3jtsSCU6B1</t>
+  </si>
+  <si>
+    <t>3XrvEifl0hIzgBGUa5jBLS</t>
+  </si>
+  <si>
+    <t>1h04XMpzGzmAudoI6VHBgA</t>
+  </si>
+  <si>
+    <t>63OQupATfueTdZMWTxW03A</t>
+  </si>
+  <si>
+    <t>2EISedV2npKMtvygkykV2r</t>
+  </si>
+  <si>
+    <t>760clbeDBWmBsBLbszWuNZ</t>
+  </si>
+  <si>
+    <t>5YUJMvTg4AWHKjqQidTsGK</t>
+  </si>
+  <si>
+    <t>6SMHgPgNkhe9lneNTbgtel</t>
+  </si>
+  <si>
+    <t>3gsCAGsWr6pUm1Vy7CPPob</t>
+  </si>
+  <si>
+    <t>43DeSV93pJPT4lCZaWZ6b1</t>
+  </si>
+  <si>
+    <t>78ZqE2tjAxbqEGGlvGnQfT</t>
+  </si>
+  <si>
+    <t>2oDqmfa2g8W893LlwJG1qu</t>
+  </si>
+  <si>
+    <t>2qhASBzpbFhPRtrnZ5lLnz</t>
+  </si>
+  <si>
+    <t>2ZNTPtYmAhN9vCwnAgqKn1</t>
+  </si>
+  <si>
+    <t>124NFj84ppZ5pAxTuVQYCQ</t>
+  </si>
+  <si>
+    <t>170DNUSnQRp1tGpppF26pA</t>
+  </si>
+  <si>
+    <t>1l2Xmg54EUr3TDzNIaCr1z</t>
+  </si>
+  <si>
+    <t>3g3xDtGtU0asKw6iYCYiG5</t>
+  </si>
+  <si>
+    <t>7zrPswSV1yxrill5OyCuaU</t>
+  </si>
+  <si>
+    <t>25ugoarRZ6IaZegrjNxGOx</t>
+  </si>
+  <si>
+    <t>1Q1b8eVkUPGlpSArl8JAVw</t>
+  </si>
+  <si>
+    <t>7kjg2NCn3Zx70m1DFHSSGO</t>
+  </si>
+  <si>
+    <t>3VgrSJEKBRT3xmwzpaxxEF</t>
+  </si>
+  <si>
+    <t>54bm2e3tk8cliUz3VSdCPZ</t>
+  </si>
+  <si>
+    <t>3mM14WXoPaLRjjkmxHe99L</t>
+  </si>
+  <si>
+    <t>52FlwUMMDnTK8TGkCag9Jd</t>
+  </si>
+  <si>
+    <t>2uRVPeQbsEpRQD0DKr1WTo</t>
+  </si>
+  <si>
+    <t>1v1PV2wERHiMPesMWX0qmO</t>
+  </si>
+  <si>
+    <t>7cv28LXcjAC3GsXbUvXKbX</t>
+  </si>
+  <si>
+    <t>0wJoRiX5K5BxlqZTolB2LD</t>
+  </si>
+  <si>
+    <t>7pu8AhGUxHZSCWTkQ2eb5M</t>
+  </si>
+  <si>
+    <t>6KIKRz9eSTXdNsGUnomdtW</t>
+  </si>
+  <si>
+    <t>0DAmSYQW9kq9gQNDI002KP</t>
+  </si>
+  <si>
+    <t>4lJ6YVXQ0jUk5ILu0PSrA4</t>
+  </si>
+  <si>
+    <t>0Puj4YlTm6xNzDDADXHMI9</t>
+  </si>
+  <si>
+    <t>5GjPQ0eI7AgmOnADn1EO6Q</t>
+  </si>
+  <si>
+    <t>5UvE5QlINnvEc7aFO14DVL</t>
+  </si>
+  <si>
+    <t>3OcQkcvTcohs8vO8Rd3sKF</t>
+  </si>
+  <si>
+    <t>47BBI51FKFwOMlIiX6m8ya</t>
+  </si>
+  <si>
+    <t>1sSuFkO3m3Cr6YN24NYol5</t>
+  </si>
+  <si>
+    <t>13Oi7vfd9mrujcEmGAYAPe</t>
+  </si>
+  <si>
+    <t>3M8FzayQWtkvOhqMn2V4T2</t>
+  </si>
+  <si>
+    <t>6hHc7Pks7wtBIW8Z6A0iFq</t>
+  </si>
+  <si>
+    <t>4a01ClusxuZiloOK5UgLUn</t>
+  </si>
+  <si>
+    <t>2He3NOyqtLNE3RQPpeDdSb</t>
+  </si>
+  <si>
+    <t>4u9f8hqstB7iITDJNzKhQx</t>
+  </si>
+  <si>
+    <t>2tUBqZG2AbRi7Q0BIrVrEj</t>
+  </si>
+  <si>
+    <t>2HCaIYjkvWSZzaSKUoOh3d</t>
+  </si>
+  <si>
+    <t>3ZjrfGcb3A2PMGA1vRNgSk</t>
+  </si>
+  <si>
+    <t>5R9a4t5t5O0IsznsrKPVro</t>
+  </si>
+  <si>
+    <t>4BP3uh0hFLFRb5cjsgLqDh</t>
+  </si>
+  <si>
+    <t>0WQiDwKJclirSYG9v5tayI</t>
+  </si>
+  <si>
+    <t>1pjATX7sbd6Y4jMVqIvzHk</t>
+  </si>
+  <si>
+    <t>2kkvB3RNRzwjFdGhaUA0tz</t>
+  </si>
+  <si>
+    <t>3UmaczJpikHgJFyBTAJVoz</t>
+  </si>
+  <si>
+    <t>2PuUFT13yCzUOZun94WOXv</t>
+  </si>
+  <si>
+    <t>44BmNSqH9uZV5OfIjGcER3</t>
+  </si>
+  <si>
+    <t>6wVViUl2xSRoDK2T7dMZbR</t>
+  </si>
+  <si>
+    <t>5tVA6TkbaAH9QMITTQRrNv</t>
+  </si>
+  <si>
+    <t>4NRQwaks9r58tTDvr4iEyv</t>
+  </si>
+  <si>
+    <t>2id8E4WvczfKHB4LHI7Np3</t>
+  </si>
+  <si>
+    <t>4gphxUgq0JSFv2BCLhNDiE</t>
+  </si>
+  <si>
+    <t>33ZXjLCpiINn8eQIDYEPTD</t>
+  </si>
+  <si>
+    <t>7Hx2EA4wGaxtsiZCVVLV1i</t>
+  </si>
+  <si>
+    <t>63T7DJ1AFDD6Bn8VzG6JE8</t>
+  </si>
+  <si>
+    <t>1QEEqeFIZktqIpPI4jSVSF</t>
+  </si>
+  <si>
+    <t>6ADSaE87h8Y3lccZlBJdXH</t>
+  </si>
+  <si>
+    <t>4gvea7UlDkAvsJBPZAd4oB</t>
+  </si>
+  <si>
+    <t>49t1GWE6ZiEoBgN92oMDdM</t>
+  </si>
+  <si>
+    <t>59WN2psjkt1tyaxjspN8fp</t>
+  </si>
+  <si>
+    <t>6V9VCm1zOY2lGR80RehJ9i</t>
+  </si>
+  <si>
+    <t>3MjUtNVVq3C8Fn0MP3zhXa</t>
+  </si>
+  <si>
+    <t>7uPmQttafLiJyju14JREY4</t>
+  </si>
+  <si>
+    <t>2eF8pWbiivYsYRpbntYsnc</t>
+  </si>
+  <si>
+    <t>38zsOOcu31XbbYj9BIPUF1</t>
+  </si>
+  <si>
+    <t>6YffUZJ2R06kyxyK6onezL</t>
+  </si>
+  <si>
+    <t>0LrwgdLsFaWh9VXIjBRe8t</t>
+  </si>
+  <si>
+    <t>5MxNLUsfh7uzROypsoO5qe</t>
+  </si>
+  <si>
+    <t>3VZmChrnVW8JK6ano4gSED</t>
+  </si>
+  <si>
+    <t>0CcL4kSHKIEwF3IW0BGgb6</t>
+  </si>
+  <si>
+    <t>6hpmTwgNCz81H2bFEREx29</t>
+  </si>
+  <si>
+    <t>3zpj9dvJABiyMrmLCPw6i8</t>
+  </si>
+  <si>
+    <t>3m2Zd230K68bC4Qe961d9p</t>
+  </si>
+  <si>
+    <t>52dm9op3rbfAkc1LGXgipW</t>
+  </si>
+  <si>
+    <t>63BokRfXSQhEU6Qi2dSJpZ</t>
+  </si>
+  <si>
+    <t>4FdDorlbJTVHcH3djLbIfn</t>
+  </si>
+  <si>
+    <t>5n8Aro6j1bEGIy7Tpo7FV7</t>
+  </si>
+  <si>
+    <t>72Z17vmmeQKAg8bptWvpVG</t>
+  </si>
+  <si>
+    <t>1Eolhana7nKHYpcYpdVcT5</t>
+  </si>
+  <si>
+    <t>6k9DUKMJpWvu6eFG3O64Lg</t>
+  </si>
+  <si>
+    <t>5YLnfy7R2kueN0BRPkjiEG</t>
+  </si>
+  <si>
+    <t>1OOtq8tRnDM8kG2gqUPjAj</t>
+  </si>
+  <si>
+    <t>3nvuPQTw2zuFAVuLsC9IYQ</t>
+  </si>
+  <si>
+    <t>0n2pjCIMKwHSXoYfEbYMfX</t>
+  </si>
+  <si>
+    <t>2YplrdHMBoRdnHgMeHEwHm</t>
+  </si>
+  <si>
+    <t>2BGNomqCxEDcXyxf8bg27k</t>
+  </si>
+  <si>
+    <t>5p3JunprHCxClJjOmcLV8G</t>
+  </si>
+  <si>
+    <t>5HNCy40Ni5BZJFw1TKzRsC</t>
+  </si>
+  <si>
+    <t>2Fxmhks0bxGSBdJ92vM42m</t>
+  </si>
+  <si>
+    <t>7N3PAbqfTjSEU1edb2tY8j</t>
+  </si>
+  <si>
+    <t>29SyMC0plk6qw8NMF7lfRL</t>
+  </si>
+  <si>
+    <t>3YdKJzcoMZMacISlpY4QoP</t>
+  </si>
+  <si>
+    <t>46dGFTD918NMz1IP1rPJXO</t>
+  </si>
+  <si>
+    <t>7Me0vOSlJfaPY7Pc4GeItd</t>
+  </si>
+  <si>
+    <t>29U7stRjqHU6rMiS8BfaI9</t>
+  </si>
+  <si>
+    <t>0GVvRmCoiLkhxJvlZy9bLk</t>
+  </si>
+  <si>
+    <t>7MRyJPksH3G2cXHN8UKYzP</t>
+  </si>
+  <si>
+    <t>7odHgoLFi3GQ90E9PeraI3</t>
+  </si>
+  <si>
+    <t>5Z01UMMf7V1o0MzF86s6WJ</t>
+  </si>
+  <si>
+    <t>0WNGPpmWqzPnk0psUhJ3SX</t>
+  </si>
+  <si>
+    <t>4tj7IsJrn4MvesuhoY0JBy</t>
+  </si>
+  <si>
+    <t>3RkQ3UwOyPqpIiIvGVewuU</t>
+  </si>
+  <si>
+    <t>5ihS6UUlyQAfmp48eSkxuQ</t>
+  </si>
+  <si>
+    <t>4KROoGIaPaR1pBHPnR3bwC</t>
+  </si>
+  <si>
+    <t>2m0M7YqCy4lXfedh18qd8N</t>
+  </si>
+  <si>
+    <t>6G0NzOx2jEPFsSmhr9N8Ys</t>
+  </si>
+  <si>
+    <t>3qiyyUfYe7CRYLucrPmulD</t>
+  </si>
+  <si>
+    <t>0WSlOSMLJWoWUpWci9nnRb</t>
+  </si>
+  <si>
+    <t>0WIbzDVEpmOyBnqqdtqIL9</t>
+  </si>
+  <si>
+    <t>0iA3xXSkSCiJywKyo1UKjQ</t>
+  </si>
+  <si>
+    <t>7j02rdE5RVtNcNMuLGY5SS</t>
+  </si>
+  <si>
+    <t>2dCmGcEOQrMQhMMS8Vj7Ca</t>
+  </si>
+  <si>
+    <t>2EZc13S7YRi6bTS3SKteRN</t>
+  </si>
+  <si>
+    <t>0bwy3sGHeYwng2Ioicq6wf</t>
+  </si>
+  <si>
+    <t>6L89mwZXSOwYl76YXfX13s</t>
+  </si>
+  <si>
+    <t>3gdewACMIVMEWVbyb8O9sY</t>
+  </si>
+  <si>
+    <t>6Vjk8MNXpQpi0F4BefdTyq</t>
+  </si>
+  <si>
+    <t>06PdA0DLgF4BfAeUNZAbFG</t>
+  </si>
+  <si>
+    <t>1oht5GevPN9t1T3kG1m1GO</t>
+  </si>
+  <si>
+    <t>0I3q5fE6wg7LIfHGngUTnV</t>
+  </si>
+  <si>
+    <t>1uBsu3PbD2909UBIfEMLvK</t>
+  </si>
+  <si>
+    <t>5jzma6gCzYtKB1DbEwFZKH</t>
+  </si>
+  <si>
+    <t>1q0wCfrE9eGFMzS2g8aVnx</t>
+  </si>
+  <si>
+    <t>6rovOdp3HgK1DeAMYDzoA7</t>
+  </si>
+  <si>
+    <t>423hwXFgoN8RYmqLoLuVvY</t>
+  </si>
+  <si>
+    <t>27QvYgBk0CHOVHthWnkuWt</t>
+  </si>
+  <si>
+    <t>0a4agFmqHXxcZl1nho1BxM</t>
+  </si>
+  <si>
+    <t>6ocbgoVGwYJhOv1GgI9NsF</t>
+  </si>
+  <si>
+    <t>36AlMHDBFwSsD3FQOy1R81</t>
+  </si>
+  <si>
+    <t>6nEkxYIEnrbYH7h1hJ8Xn6</t>
+  </si>
+  <si>
+    <t>3Be7CLdHZpyzsVijme39cW</t>
+  </si>
+  <si>
+    <t>4bHsxqR3GMrXTxEPLuK5ue</t>
+  </si>
+  <si>
+    <t>20s3FayrStM8GY0m4dRFsw</t>
+  </si>
+  <si>
+    <t>3SdTKo2uVsxFblQjpScoHy</t>
+  </si>
+  <si>
+    <t>6rLqjzGV5VMLDWEnuUqi8q</t>
+  </si>
+  <si>
+    <t>2aSC2xhRxOLiiZZVjhbylH</t>
+  </si>
+  <si>
+    <t>0hCB0YR03f6AmQaHbwWDe8</t>
+  </si>
+  <si>
+    <t>6qspW4YKycviDFjHBOaqUY</t>
+  </si>
+  <si>
+    <t>3tyTt5pEWblt96j1HsXiV5</t>
+  </si>
+  <si>
+    <t>3LoDeIbiR12sAznmpNEmKA</t>
+  </si>
+  <si>
+    <t>50RwvvEKX5Q7AZt8FTAwIF</t>
+  </si>
+  <si>
+    <t>6aBUnkXuCEQQHAlTokv9or</t>
+  </si>
+  <si>
+    <t>6AeG6jSoAVbmUFO6LyYmBf</t>
+  </si>
+  <si>
+    <t>7iN1s7xHE4ifF5povM6A48</t>
+  </si>
+  <si>
+    <t>7weMJXfu8leOPWd4COj2Qp</t>
+  </si>
+  <si>
+    <t>1tqT6DhmsrtQgyCKUwotiw</t>
+  </si>
+  <si>
+    <t>70LcF31zb1H0PyJoS1Sx1r</t>
+  </si>
+  <si>
+    <t>3NfxSdJnVdon1axzloJgba</t>
+  </si>
+  <si>
+    <t>0gFB5H3pHN13ERt2FyMuWi</t>
+  </si>
+  <si>
+    <t>4Hhv2vrOTy89HFRcjU3QOx</t>
+  </si>
+  <si>
+    <t>6I9VzXrHxO9rA9A5euc8Ak</t>
+  </si>
+  <si>
+    <t>0dMd4rilfd6gPbXaLpNYhu</t>
+  </si>
+  <si>
+    <t>31AOj9sFz2gM0O3hMARRBx</t>
+  </si>
+  <si>
+    <t>56lhDZNQ5J47aog6mGKeGk</t>
+  </si>
+  <si>
+    <t>0pNeVovbiZHkulpGeOx1Gj</t>
+  </si>
+  <si>
+    <t>4ZVZBc5xvMyV3WzWktn8i7</t>
+  </si>
+  <si>
+    <t>76GlO5H5RT6g7y0gev86Nk</t>
+  </si>
+  <si>
+    <t>119c93MHjrDLJTApCVGpvx</t>
+  </si>
+  <si>
+    <t>1Ud6moTC0KyXMq1Oxfien0</t>
+  </si>
+  <si>
+    <t>3ZE3wv8V3w2T2f7nOCjV0N</t>
+  </si>
+  <si>
+    <t>5LxvwujISqiB8vpRYv887S</t>
+  </si>
+  <si>
+    <t>3jS7bB0oXVOwGFZn3aE5NV</t>
+  </si>
+  <si>
+    <t>3SQhmctWreNM0X6Zkm2K5R</t>
+  </si>
+  <si>
+    <t>7sKDftgGirHWTVFMtJoDoh</t>
+  </si>
+  <si>
+    <t>18GiV1BaXzPVYpp9rmOg0E</t>
+  </si>
+  <si>
+    <t>5ubvP9oKmxLUVq506fgLhk</t>
+  </si>
+  <si>
+    <t>3KfbEIOC7YIv90FIfNSZpo</t>
+  </si>
+  <si>
+    <t>272Z4tzaSMMcgrZ0R494S2</t>
+  </si>
+  <si>
+    <t>7sLpSWxQazJzDVG6YGzlVs</t>
+  </si>
+  <si>
+    <t>7ygpwy2qP3NbrxVkHvUhXY</t>
+  </si>
+  <si>
+    <t>4eHbdreAnSOrDDsFfc4Fpm</t>
+  </si>
+  <si>
+    <t>3xrn9i8zhNZsTtcoWgQEAd</t>
+  </si>
+  <si>
+    <t>0ZvgXNstN4o2ZXPomtBYVp</t>
+  </si>
+  <si>
+    <t>4ns1XFP3W5JPyzvnAjMdHD</t>
+  </si>
+  <si>
+    <t>5K09WxKdlkroDyEVyOSySy</t>
+  </si>
+  <si>
+    <t>0aym2LBJBk9DAYuHHutrIl</t>
+  </si>
+  <si>
+    <t>7snQQk1zcKl8gZ92AnueZW</t>
+  </si>
+  <si>
+    <t>2Ud3deeqLAG988pfW0Kwcl</t>
+  </si>
+  <si>
+    <t>4hq0S6wznq7SHDyMOFXL9i</t>
+  </si>
+  <si>
+    <t>62LJFaYihsdVrrkgUOJC05</t>
+  </si>
+  <si>
+    <t>63xdwScd1Ai1GigAwQxE8y</t>
+  </si>
+  <si>
+    <t>4n1ZGm3TxYmoYe1YR8cMus</t>
+  </si>
+  <si>
+    <t>1c8gk2PeTE04A1pIDH9YMk</t>
+  </si>
+  <si>
+    <t>3fElupNRLRJ0tbUDahPrAb</t>
+  </si>
+  <si>
+    <t>5yQ9iMZXGcr5rlO4hoLsP4</t>
+  </si>
+  <si>
+    <t>3FAclTFfvUuQYnEsptbK8w</t>
+  </si>
+  <si>
+    <t>6Pkj4nv5K53i64cLVgkVyY</t>
+  </si>
+  <si>
+    <t>5E5HYgxGMp3BPakHGfKfIB</t>
+  </si>
+  <si>
+    <t>7hxZF4jETnE5Q75rKQnMjE</t>
+  </si>
+  <si>
+    <t>2fXKyAyPrEa24c6PJyqznF</t>
+  </si>
+  <si>
+    <t>7yzbimr8WVyAtBX3Eg6UL9</t>
+  </si>
+  <si>
+    <t>6g0Orsxv6glTJCt4cHsRsQ</t>
+  </si>
+  <si>
+    <t>3BQHpFgAp4l80e1XslIjNI</t>
+  </si>
+  <si>
+    <t>2M9ro2krNb7nr7HSprkEgo</t>
+  </si>
+  <si>
+    <t>1H5IfYyIIAlgDX8zguUzns</t>
+  </si>
+  <si>
+    <t>1q3RiD1tIWUpGsNFADMlvl</t>
+  </si>
+  <si>
+    <t>4N3stlRuz5cBNI4J4vDJ18</t>
+  </si>
+  <si>
+    <t>6Vcwr9tb3ZLO63F8DL8cqu</t>
+  </si>
+  <si>
+    <t>6QhXQOpyYvbpdbyjgAqKdY</t>
+  </si>
+  <si>
+    <t>2grjqo0Frpf2okIBiifQKs</t>
+  </si>
+  <si>
+    <t>4KcH1ZRV2W1q7Flq0QqC76</t>
+  </si>
+  <si>
+    <t>2SpEHTbUuebeLkgs9QB7Ue</t>
+  </si>
+  <si>
+    <t>3G69vJMWsX6ZohTykad2AU</t>
+  </si>
+  <si>
+    <t>5CQ30WqJwcep0pYcV4AMNc</t>
+  </si>
+  <si>
+    <t>29d0nY7TzCoi22XBqDQkiP</t>
+  </si>
+  <si>
+    <t>5DuTNKFEjJIySAyJH1yNDU</t>
+  </si>
+  <si>
+    <t>0P7DoyGrr4Wp9w5TotEtUC</t>
+  </si>
+  <si>
+    <t>4f3u4Oy0JqJRIhMmTqRcxj</t>
+  </si>
+  <si>
+    <t>3jagJCUbdqhDSPuxP8cAqF</t>
+  </si>
+  <si>
+    <t>1z3ugFmUKoCzGsI6jdY4Ci</t>
+  </si>
+  <si>
+    <t>6QyQmdvQ1ywNccYa0pwLNQ</t>
+  </si>
+  <si>
+    <t>5t9KYe0Fhd5cW6UYT4qP8f</t>
+  </si>
+  <si>
+    <t>7B7lf3sIze5VR2WuYttn18</t>
+  </si>
+  <si>
+    <t>3xsOtNxtBW0oTI1OWKAzTm</t>
+  </si>
+  <si>
+    <t>6jEZLz3YpnEBRpVkv35AmP</t>
+  </si>
+  <si>
+    <t>0uEp9E98JB5awlA084uaIg</t>
+  </si>
+  <si>
+    <t>1W5XugQJGhnSATMI5n002M</t>
+  </si>
+  <si>
+    <t>2TVxnKdb3tqe1nhQWwwZCO</t>
+  </si>
+  <si>
+    <t>1ixbwbeBi5ufN4noUKmW5a</t>
+  </si>
+  <si>
+    <t>3iVcZ5G6tvkXZkZKlMpIUs</t>
+  </si>
+  <si>
+    <t>5ChkMS8OtdzJeqyybCc9R5</t>
+  </si>
+  <si>
+    <t>745H5CctFr12Mo7cqa1BMH</t>
+  </si>
+  <si>
+    <t>26PwuMotZqcczKLHi4Htz3</t>
+  </si>
+  <si>
+    <t>34iOH7LY3vme5rQxsVILZ4</t>
+  </si>
+  <si>
+    <t>2aoo2jlRnM3A0NyLQqMN2f</t>
+  </si>
+  <si>
+    <t>5z7mYFfhw6N6f23VwrokJD</t>
+  </si>
+  <si>
+    <t>3zBhihYUHBmGd2bcQIobrF</t>
+  </si>
+  <si>
+    <t>51H2y6YrNNXcy3dfc3qSbA</t>
+  </si>
+  <si>
+    <t>3dPQuX8Gs42Y7b454ybpMR</t>
+  </si>
+  <si>
+    <t>2iXcvnD3d1gfLBum0cE5Eg</t>
+  </si>
+  <si>
+    <t>58cAopfBOtm1Sgifx99jtR</t>
+  </si>
+  <si>
+    <t>2QfiRTz5Yc8DdShCxG1tB2</t>
+  </si>
+  <si>
+    <t>5ByAIlEEnxYdvpnezg7HTX</t>
+  </si>
+  <si>
+    <t>2PzU4IB8Dr6mxV3lHuaG34</t>
+  </si>
+  <si>
+    <t>2dLLR6qlu5UJ5gk0dKz0h3</t>
+  </si>
+  <si>
+    <t>4YtoipFgf4k0AfD17ZfD5X</t>
+  </si>
+  <si>
+    <t>38Ngied9rBORlAbLYNCl4k</t>
+  </si>
+  <si>
+    <t>6hTcuIQa0sxrrByu9wTD7s</t>
+  </si>
+  <si>
+    <t>7shVwhUdVbHpykOfbzvDc1</t>
+  </si>
+  <si>
+    <t>3DK6m7It6Pw857FcQftMds</t>
+  </si>
+  <si>
+    <t>0hKRSZhUGEhKU6aNSPBACZ</t>
+  </si>
+  <si>
+    <t>7Jh1bpe76CNTCgdgAdBw4Z</t>
+  </si>
+  <si>
+    <t>2G2YzndIA6jeWFPBXhUjh5</t>
+  </si>
+  <si>
+    <t>1CTex49P0iWwzUGsMNjgaV</t>
+  </si>
+  <si>
+    <t>7g13jf3zqlP5S68Voo5v9m</t>
+  </si>
+  <si>
+    <t>7pKfPomDEeI4TPT6EOYjn9</t>
+  </si>
+  <si>
+    <t>54X78diSLoUDI3joC2bjMz</t>
+  </si>
+  <si>
+    <t>7tFiyTwD0nx5a1eklYtX2J</t>
+  </si>
+  <si>
+    <t>5IVuqXILoxVWvWEPm82Jxr</t>
+  </si>
+  <si>
+    <t>4pbG9SUmWIvsROVLF0zF9s</t>
+  </si>
+  <si>
+    <t>5nrmGFJ87crVoJF5xdRqwn</t>
+  </si>
+  <si>
+    <t>6H3kDe7CGoWYBabAeVWGiD</t>
+  </si>
+  <si>
+    <t>4N0TP4Rmj6QQezWV88ARNJ</t>
+  </si>
+  <si>
+    <t>6iGU74CwXuT4XVepjc9Emf</t>
+  </si>
+  <si>
+    <t>2PpruBYCo4H7WOBJ7Q2EwM</t>
+  </si>
+  <si>
+    <t>0ofHAoxe9vBkTCp2UQIavz</t>
+  </si>
+  <si>
+    <t>6zsk6uF3MxfIeHPlubKBvR</t>
+  </si>
+  <si>
+    <t>3Am0IbOxmvlSXro7N5iSfZ</t>
+  </si>
+  <si>
+    <t>3Um9toULmYFGCpvaIPFw7l</t>
+  </si>
+  <si>
+    <t>5ghIJDpPoe3CfHMGu71E6T</t>
+  </si>
+  <si>
+    <t>3AhXZa8sUQht0UEdBJgpGc</t>
+  </si>
+  <si>
+    <t>0KOE1hat4SIer491XKk4Pa</t>
+  </si>
+  <si>
+    <t>1yo16b3u0lptm6Cs7lx4AD</t>
+  </si>
+  <si>
+    <t>7s25THrKz86DM225dOYwnr</t>
+  </si>
+  <si>
+    <t>2Y90nL1ohB4sgYELDs7uNx</t>
+  </si>
+  <si>
+    <t>0dOg1ySSI7NkpAe89Zo0b9</t>
+  </si>
+  <si>
+    <t>5zA8vzDGqPl2AzZkEYQGKh</t>
+  </si>
+  <si>
+    <t>70C4NyhjD5OZUMzvWZ3njJ</t>
+  </si>
+  <si>
+    <t>3Cx4yrFaX8CeHwBMReOWXI</t>
+  </si>
+  <si>
+    <t>64UioB4Nmwgn2f4cbIpAkl</t>
+  </si>
+  <si>
+    <t>2EqlS6tkEnglzr7tkKAAYD</t>
+  </si>
+  <si>
+    <t>78lgmZwycJ3nzsdgmPPGNx</t>
+  </si>
+  <si>
+    <t>1fDsrQ23eTAVFElUMaf38X</t>
+  </si>
+  <si>
+    <t>7HKez549fwJQDzx3zLjHKC</t>
+  </si>
+  <si>
+    <t>14uQWXYRflpBP8J6olZ8mH</t>
+  </si>
+  <si>
+    <t>5Ff6Zg5Bw1nm6bK8dzIXmQ</t>
+  </si>
+  <si>
+    <t>7hQJA50XrCWABAu5v6QZ4i</t>
+  </si>
+  <si>
+    <t>7GqWnsKhMtEW0nzki5o0d8</t>
+  </si>
+  <si>
+    <t>4vO9dmzNRqDhFY3jD1a3P7</t>
+  </si>
+  <si>
+    <t>57JVGBtBLCfHw2muk5416J</t>
+  </si>
+  <si>
+    <t>54flyrjcdnQdco7300avMJ</t>
+  </si>
+  <si>
+    <t>4OKf7CcYuw5H2HptkcKxcP</t>
+  </si>
+  <si>
+    <t>7ccI9cStQbQdystvc6TvxD</t>
+  </si>
+  <si>
+    <t>72ahyckBJfTigJCFCviVN7</t>
+  </si>
+  <si>
+    <t>2RlgNHKcydI9sayD2Df2xp</t>
+  </si>
+  <si>
+    <t>1Pd1h30mgU05QkWYhgFzwt</t>
+  </si>
+  <si>
+    <t>0xAhbD6lCf5re1RXl5yiTm</t>
+  </si>
+  <si>
+    <t>777NOXupZkFdg8zlPMoVqc</t>
+  </si>
+  <si>
+    <t>15VRO9CQwMpbqUYA7e6Hwg</t>
+  </si>
+  <si>
+    <t>2YodwKJnbPyNKe8XXSE9V7</t>
+  </si>
+  <si>
+    <t>6QewNVIDKdSl8Y3ycuHIei</t>
+  </si>
+  <si>
+    <t>5Xak5fmy089t0FYmh3VJiY</t>
+  </si>
+  <si>
+    <t>62nQ8UZVqR2RMvkJHkcO2o</t>
+  </si>
+  <si>
+    <t>3bE5slaVEfaDreqARl6k4M</t>
+  </si>
+  <si>
+    <t>53eJFr4Mfbw5PXJ01K6cFw</t>
+  </si>
+  <si>
+    <t>57bgtoPSgt236HzfBOd8kj</t>
+  </si>
+  <si>
+    <t>08mG3Y1vljYA6bvDt4Wqkj</t>
+  </si>
+  <si>
+    <t>0J6mQxEZnlRt9ymzFntA6z</t>
+  </si>
+  <si>
+    <t>7HKxTNVlkHsfMLhigmhC0I</t>
+  </si>
+  <si>
+    <t>5SZ6zX4rOrEQferfFC2MfP</t>
+  </si>
+  <si>
+    <t>24NwBd5vZ2CK8VOQVnqdxr</t>
+  </si>
+  <si>
+    <t>39shmbIHICJ2Wxnk1fPSdz</t>
+  </si>
+  <si>
+    <t>4MhTFsyqIJnjsOweVcU8ug</t>
+  </si>
+  <si>
+    <t>5Q41NLTmGbVPozwHKK7bk2</t>
+  </si>
+  <si>
+    <t>5NIPsWpDjJTFBoPxCUUeXp</t>
+  </si>
+  <si>
+    <t>0PsbWiVtix5FoTZ1s00mEl</t>
+  </si>
+  <si>
+    <t>1CQqupcyMg7176PPmIVmSj</t>
+  </si>
+  <si>
+    <t>4gMgiXfqyzZLMhsksGmbQV</t>
+  </si>
+  <si>
+    <t>5RsUlxLto4NZbhJpqJbHfN</t>
+  </si>
+  <si>
+    <t>2wvMC5EyaaYQwBfiwwY2xE</t>
+  </si>
+  <si>
+    <t>1HOMkjp0nHMaTnfAkslCQj</t>
+  </si>
+  <si>
+    <t>1H4idkmruFoJBg1DvUv2tY</t>
+  </si>
+  <si>
+    <t>0mRQp2HsSqX1MZuMvonAPN</t>
+  </si>
+  <si>
+    <t>7dn9n3J6C5LCyK7FmvVAM8</t>
+  </si>
+  <si>
+    <t>0SYRVn2YF7HBscQEmlkpTI</t>
+  </si>
+  <si>
+    <t>05RgAMGypEvqhNs5hPCbMS</t>
+  </si>
+  <si>
+    <t>6Fba9RZtC6vTY814JToDtP</t>
+  </si>
+  <si>
+    <t>7r45JFRfUkMjj5PHdAmRYk</t>
+  </si>
+  <si>
+    <t>1ju7EsSGvRybSNEsRvc7qY</t>
+  </si>
+  <si>
+    <t>5NoQvINZLBV1wMYPdNmReL</t>
+  </si>
+  <si>
+    <t>3yrSvpt2l1xhsV9Em88Pul</t>
+  </si>
+  <si>
+    <t>2BY7ALEWdloFHgQZG6VMLA</t>
+  </si>
+  <si>
+    <t>0GONea6G2XdnHWjNZd6zt3</t>
+  </si>
+  <si>
+    <t>4MC8Oom2D2a7ZPQDpuVIYK</t>
+  </si>
+  <si>
+    <t>2xYlyywNgefLCRDG8hlxZq</t>
+  </si>
+  <si>
+    <t>1LaGFtGh2yoBipaCdqJeRU</t>
+  </si>
+  <si>
+    <t>6cJqlSO19vsfCsH1FeFI35</t>
+  </si>
+  <si>
+    <t>42et6fnHCw1HIPSrdPprMl</t>
+  </si>
+  <si>
+    <t>7oK9VyNzrYvRFo7nQEYkWN</t>
+  </si>
+  <si>
+    <t>48UPSzbZjgc449aqz8bxox</t>
+  </si>
+  <si>
+    <t>3ZOEytgrvLwQaqXreDs2Jx</t>
+  </si>
+  <si>
+    <t>2aibwv5hGXSgw7Yru8IYTO</t>
+  </si>
+  <si>
+    <t>64BbK9SFKH2jk86U3dGj2P</t>
+  </si>
+  <si>
+    <t>5IMtdHjJ1OtkxbGe4zfUxQ</t>
+  </si>
+  <si>
+    <t>0RFgvrhkf9FiDRLA0BhzpZ</t>
+  </si>
+  <si>
+    <t>0qRR9d89hIS0MHRkQ0ejxX</t>
+  </si>
+  <si>
     <t>2374M0fQpWi3dLnB54qaLX</t>
-  </si>
-  <si>
-    <t>4Km5HrUvYTaSUfiSGPJeQR</t>
-  </si>
-  <si>
-    <t>5F1CxsOXX6altKaKlEPuox</t>
-  </si>
-  <si>
-    <t>5QTxFnGygVM4jFQiBovmRo</t>
-  </si>
-  <si>
-    <t>1MCem6JigI6jgQPMgriKbU</t>
-  </si>
-  <si>
-    <t>7DD7eSuYSC5xk2ArU62esN</t>
-  </si>
-  <si>
-    <t>4Z80C8NlDd1AO4axf1O3n0</t>
-  </si>
-  <si>
-    <t>5N4vVbNotNwWGG8KcCdstR</t>
-  </si>
-  <si>
-    <t>4RY96Asd9IefaL3X4LOLZ8</t>
-  </si>
-  <si>
-    <t>2TfSHkHiFO4gRztVIkggkE</t>
-  </si>
-  <si>
-    <t>6EPRKhUOdiFSQwGBRBbvsZ</t>
-  </si>
-  <si>
-    <t>02eD9ymfJOJOhM97HYp5R9</t>
-  </si>
-  <si>
-    <t>3XVBdLihbNbxUwZosxcGuJ</t>
-  </si>
-  <si>
-    <t>1BwrMGGhPA6GarWIYaFrW8</t>
-  </si>
-  <si>
-    <t>5v4GgrXPMghOnBBLmveLac</t>
-  </si>
-  <si>
-    <t>3TGRqZ0a2l1LRblBkJoaDx</t>
-  </si>
-  <si>
-    <t>0K6yUnIKNsFtfIpTgGtcHm</t>
-  </si>
-  <si>
-    <t>61MZN0yyMWSEwrLPUUGfgJ</t>
-  </si>
-  <si>
-    <t>2yzPBlE5UXK2sqvnNM9QQ0</t>
-  </si>
-  <si>
-    <t>3oAWTk92mZBxKBOKf8mR5v</t>
-  </si>
-  <si>
-    <t>2Mb3zpobD0CvJGWv6NpsPy</t>
-  </si>
-  <si>
-    <t>11IzgLRXV7Cgek3tEgGgjw</t>
-  </si>
-  <si>
-    <t>5Ohxk2dO5COHF1krpoPigN</t>
-  </si>
-  <si>
-    <t>0FWhGmPVxLI6jOVF0wjALa</t>
-  </si>
-  <si>
-    <t>3hlksXnvbKogFdPbpO9vel</t>
-  </si>
-  <si>
-    <t>58PSYdY0GFg0LFb2PxYk4T</t>
-  </si>
-  <si>
-    <t>6MdqqkQ8sSC0WB4i8PyRuQ</t>
-  </si>
-  <si>
-    <t>6PNvv1dmDbOWrAYwEcuKBX</t>
-  </si>
-  <si>
-    <t>1YrnDTqvcnUKxAIeXyaEmU</t>
-  </si>
-  <si>
-    <t>4s6LhHAV5SEsOV0lC2tjvJ</t>
-  </si>
-  <si>
-    <t>6xkryXuiZU360Lngd4sx13</t>
-  </si>
-  <si>
-    <t>4fQMGlCawbTkH9yPPZ49kP</t>
-  </si>
-  <si>
-    <t>32OlwWuMpZ6b0aN2RZOeMS</t>
-  </si>
-  <si>
-    <t>1L94M3KIu7QluZe63g64rv</t>
-  </si>
-  <si>
-    <t>1YwNlWLf8auhazSQUDQLFU</t>
-  </si>
-  <si>
-    <t>5WHY6S6FO0bdRNd8xYxyAG</t>
-  </si>
-  <si>
-    <t>1DKyFVzIh1oa1fFnEmTkIl</t>
-  </si>
-  <si>
-    <t>3XWgwgbWDI56mf1Wl3cLzb</t>
-  </si>
-  <si>
-    <t>4xmeLj3uVcoAwgDtwM4MbG</t>
-  </si>
-  <si>
-    <t>701oRFDRzsz3WdhCFOtUJj</t>
-  </si>
-  <si>
-    <t>5UWwZ5lm5PKu6eKsHAGxOk</t>
-  </si>
-  <si>
-    <t>476V2d6iA2tWXgQboKmTtA</t>
-  </si>
-  <si>
-    <t>5EWPGh7jbTNO2wakv8LjUI</t>
-  </si>
-  <si>
-    <t>1kCewNSs909Xj1naXr36X8</t>
-  </si>
-  <si>
-    <t>6KTv0Z8BmVqM7DPxbGzpVC</t>
-  </si>
-  <si>
-    <t>53Za5vyGc1x7GxgJVRjRKc</t>
-  </si>
-  <si>
-    <t>0bRXwKfigvpKZUurwqAlEh</t>
-  </si>
-  <si>
-    <t>4xh7W7tlNMIczFhupCPniY</t>
-  </si>
-  <si>
-    <t>4JRem7xHp2l0kmUvt9zCKu</t>
-  </si>
-  <si>
-    <t>0RnCUYXa7jhgTXtiMXF2PQ</t>
-  </si>
-  <si>
-    <t>39lSeqnyjZJejRuaREfyLL</t>
-  </si>
-  <si>
-    <t>1p50Ir1Hm6Sa1urjaLGi7L</t>
-  </si>
-  <si>
-    <t>1v98rfd0an913AzHvMNG8a</t>
-  </si>
-  <si>
-    <t>3pRaLNL3b8x5uBOcsgvdqM</t>
-  </si>
-  <si>
-    <t>7LVHVU3tWfcxj5aiPFEW4Q</t>
-  </si>
-  <si>
-    <t>05ZACkzW8YbRq3eFgIfSNB</t>
-  </si>
-  <si>
-    <t>5BIMPccDwShpXq784RJlJp</t>
-  </si>
-  <si>
-    <t>1QaJWSCk3UMKLotnPCIHh1</t>
-  </si>
-  <si>
-    <t>0LWkaEyQRkF0XAms8Bg1fC</t>
-  </si>
-  <si>
-    <t>4AwKXevZmsTNa3KZVj3rzl</t>
-  </si>
-  <si>
-    <t>0UAJH0k4k3slcE83a9UGCe</t>
-  </si>
-  <si>
-    <t>3SnGymj6ijE2iuUfWxLo1q</t>
-  </si>
-  <si>
-    <t>58q2HKrzhC3ozto2nDdN4z</t>
-  </si>
-  <si>
-    <t>0wXuerDYiBnERgIpbb3JBR</t>
-  </si>
-  <si>
-    <t>0IVkP59yJ9GFF6B7IrvrxA</t>
-  </si>
-  <si>
-    <t>4oPNN7syJYSjzDhRerF966</t>
-  </si>
-  <si>
-    <t>003vvx7Niy0yvhvHt4a68B</t>
-  </si>
-  <si>
-    <t>1tuwC1Ob5vnYZhvg3zyzJg</t>
-  </si>
-  <si>
-    <t>6h3YJ05BovN1Pgk145J3r9</t>
-  </si>
-  <si>
-    <t>7cNRqg0lbiqBaGeOlA4AEU</t>
-  </si>
-  <si>
-    <t>5ndGYGQJGv1hbpTKD6gzLZ</t>
-  </si>
-  <si>
-    <t>0wwPcA6wtMf6HUMpIRdeP7</t>
-  </si>
-  <si>
-    <t>69uJi5QsBtqlYkGURTBli8</t>
-  </si>
-  <si>
-    <t>5Wj1rJnCLpMHdLaxsFtJLs</t>
-  </si>
-  <si>
-    <t>2OARIMw1hpehr86Iwmv04c</t>
-  </si>
-  <si>
-    <t>4alHo6RGd0D3OUbTPExTHN</t>
-  </si>
-  <si>
-    <t>2EoOZnxNgtmZaD8uUmz2nD</t>
-  </si>
-  <si>
-    <t>7DfFc7a6Rwfi3YQMRbDMau</t>
-  </si>
-  <si>
-    <t>7jeOETwLUP84mPQzxlD5nh</t>
-  </si>
-  <si>
-    <t>6ui6l3ZNvlrGQZArwo8195</t>
-  </si>
-  <si>
-    <t>7x2xjJV3YAPeLQJ7u3Kjet</t>
-  </si>
-  <si>
-    <t>5O4erNlJ74PIF6kGol1ZrC</t>
-  </si>
-  <si>
-    <t>5UDqWOgDdixYMAgAyNbpgh</t>
-  </si>
-  <si>
-    <t>1Pao4DTLMB4gJPTnqmLgSQ</t>
-  </si>
-  <si>
-    <t>4N1dFbXmRng8qJ3KdJrbLr</t>
-  </si>
-  <si>
-    <t>0Q0IVlqMV64kNLlwjPj0Hl</t>
-  </si>
-  <si>
-    <t>0lIoY4ZQsdn5QzhraM9o9u</t>
-  </si>
-  <si>
-    <t>1p80LdxRV74UKvL8gnD7ky</t>
-  </si>
-  <si>
-    <t>2ccUQnjjNWT0rsNnsBpsCA</t>
-  </si>
-  <si>
-    <t>2rBBhFXtuMoGuwYTSDpAdF</t>
-  </si>
-  <si>
-    <t>7oOOI85fVQvVnK5ynNMdW7</t>
-  </si>
-  <si>
-    <t>1TfqLAPs4K3s2rJMoCokcS</t>
-  </si>
-  <si>
-    <t>2qOm7ukLyHUXWyR4ZWLwxA</t>
-  </si>
-  <si>
-    <t>2qWKpYIleSvBT6aUMXoia5</t>
-  </si>
-  <si>
-    <t>5AJrhrwz4oSZX2PwwV4qrN</t>
-  </si>
-  <si>
-    <t>5ZgNecJcN9SSopnmCTlpXs</t>
-  </si>
-  <si>
-    <t>6xNwKNYZcvgV3XTIwsgNio</t>
-  </si>
-  <si>
-    <t>4saklk6nie3yiGePpBwUoc</t>
-  </si>
-  <si>
-    <t>12q3V8ShACq2PSWINMc2rC</t>
-  </si>
-  <si>
-    <t>3IOQZRcEkplCXg6LofKqE9</t>
-  </si>
-  <si>
-    <t>2yBVeksU2EtrPJbTu4ZslK</t>
-  </si>
-  <si>
-    <t>2lDArps4owX3Q6rOIA4Osp</t>
-  </si>
-  <si>
-    <t>3G7tRC24Uh09Hmp1KZ7LQ2</t>
-  </si>
-  <si>
-    <t>2QSUyofqpGDCo026OPiTBQ</t>
-  </si>
-  <si>
-    <t>1Y373MqadDRtclJNdnUXVc</t>
-  </si>
-  <si>
-    <t>2goLsvvODILDzeeiT4dAoR</t>
-  </si>
-  <si>
-    <t>5dFoWIiJ2814hRwMYDcFiU</t>
-  </si>
-  <si>
-    <t>1OE5l6sedVcIFELMuxQOPI</t>
-  </si>
-  <si>
-    <t>7MiLmLbwNoyf47xQ4TCVYp</t>
-  </si>
-  <si>
-    <t>113v1MA9MTShy98uCz37nO</t>
-  </si>
-  <si>
-    <t>6jX5mso4x00c1EiNMrTU9U</t>
-  </si>
-  <si>
-    <t>2g8HN35AnVGIk7B8yMucww</t>
-  </si>
-  <si>
-    <t>2DEZmgHKAvm41k4J3R2E9Y</t>
-  </si>
-  <si>
-    <t>3d9DChrdc6BOeFsbrZ3Is0</t>
-  </si>
-  <si>
-    <t>3XG801WWhqC753dekEBkMt</t>
-  </si>
-  <si>
-    <t>4yY8JqTOQyi7K4O1QcQtBG</t>
-  </si>
-  <si>
-    <t>15BQ7vEDv2LJuh8TxWIhtd</t>
-  </si>
-  <si>
-    <t>3utq2FgD1pkmIoaWfjXWAU</t>
-  </si>
-  <si>
-    <t>7dblNGnRXEBrVJunazs2U5</t>
-  </si>
-  <si>
-    <t>0CETmgFGt8Ne8vLnaLcduU</t>
-  </si>
-  <si>
-    <t>6wpGqhRvJGNNXwWlPmkMyO</t>
-  </si>
-  <si>
-    <t>3ia3dJETSOllPsv3LJkE35</t>
-  </si>
-  <si>
-    <t>4RvWPyQ5RL0ao9LPZeSouE</t>
-  </si>
-  <si>
-    <t>5Oc0vLGWdEWeCqIU8zyELt</t>
-  </si>
-  <si>
-    <t>2rslQV48gNv3r9pPrQFPW1</t>
-  </si>
-  <si>
-    <t>6O5PIO5pAWxdoxvaUFQ02G</t>
-  </si>
-  <si>
-    <t>0CLbmkYmQIWiEwnsbOkLpd</t>
-  </si>
-  <si>
-    <t>672N8DGGTOLCOgWe0koX5g</t>
-  </si>
-  <si>
-    <t>4Dq749x2QP6OXTURJ9GGY8</t>
-  </si>
-  <si>
-    <t>4NU6Vnrsh09TdZtIBYBwTA</t>
-  </si>
-  <si>
-    <t>40riOy7x9W7GXjyGp4pjAv</t>
-  </si>
-  <si>
-    <t>5uvosCdMlFdTXhoazkTI5R</t>
-  </si>
-  <si>
-    <t>1k1Bqnv2R0uJXQN4u6LKYt</t>
-  </si>
-  <si>
-    <t>2N5zMZX7YeL1tico8oQxa9</t>
-  </si>
-  <si>
-    <t>2oZmMp5M6L0Rh7G84Um2tF</t>
-  </si>
-  <si>
-    <t>1JSTJqkT5qHq8MDJnJbRE1</t>
-  </si>
-  <si>
-    <t>1KGi9sZVMeszgZOWivFpxs</t>
-  </si>
-  <si>
-    <t>6mFkJmJqdDVQ1REhVfGgd1</t>
-  </si>
-  <si>
-    <t>6UBjSnyP1O5W5ndJoO9vUk</t>
-  </si>
-  <si>
-    <t>2Q5wSOwq6BDSu7sSVMNrtT</t>
-  </si>
-  <si>
-    <t>3sLhMSePzxSrmxluIqeoAZ</t>
-  </si>
-  <si>
-    <t>3R2q3FCnNIw2XhuEbYtYk6</t>
-  </si>
-  <si>
-    <t>2Gy7qnDwt8Z3MNxqat4CsK</t>
-  </si>
-  <si>
-    <t>0XyjtybwqSdqMAFfBEkmZf</t>
-  </si>
-  <si>
-    <t>0cJPLFrlV7TTCyPLupHzcH</t>
-  </si>
-  <si>
-    <t>3cw3Z7mS55gd3NUjh4k0bL</t>
-  </si>
-  <si>
-    <t>5Z8EDau8uNcP1E8JvmfkZe</t>
-  </si>
-  <si>
-    <t>3Ti0GdlrotgwsAVBBugv0I</t>
-  </si>
-  <si>
-    <t>18AXbzPzBS8Y3AkgSxzJPb</t>
-  </si>
-  <si>
-    <t>5rb9QrpfcKFHM1EUbSIurX</t>
-  </si>
-  <si>
-    <t>1Vp8U39YNsDfd6yVuaUq12</t>
-  </si>
-  <si>
-    <t>2SiXAy7TuUkycRVbbWDEpo</t>
-  </si>
-  <si>
-    <t>0GjEhVFGZW8afUYGChu3Rr</t>
-  </si>
-  <si>
-    <t>7H6ev70Weq6DdpZyyTmUXk</t>
-  </si>
-  <si>
-    <t>2L93TdW2GMue1H2zlkt30F</t>
-  </si>
-  <si>
-    <t>47mA6f44zxLtdATOoY7GjN</t>
-  </si>
-  <si>
-    <t>1qQSRy9DjrGh3jtsSCU6B1</t>
-  </si>
-  <si>
-    <t>3XrvEifl0hIzgBGUa5jBLS</t>
-  </si>
-  <si>
-    <t>1h04XMpzGzmAudoI6VHBgA</t>
-  </si>
-  <si>
-    <t>63OQupATfueTdZMWTxW03A</t>
-  </si>
-  <si>
-    <t>2EISedV2npKMtvygkykV2r</t>
-  </si>
-  <si>
-    <t>760clbeDBWmBsBLbszWuNZ</t>
-  </si>
-  <si>
-    <t>5YUJMvTg4AWHKjqQidTsGK</t>
-  </si>
-  <si>
-    <t>6SMHgPgNkhe9lneNTbgtel</t>
-  </si>
-  <si>
-    <t>3gsCAGsWr6pUm1Vy7CPPob</t>
-  </si>
-  <si>
-    <t>43DeSV93pJPT4lCZaWZ6b1</t>
-  </si>
-  <si>
-    <t>78ZqE2tjAxbqEGGlvGnQfT</t>
-  </si>
-  <si>
-    <t>2oDqmfa2g8W893LlwJG1qu</t>
-  </si>
-  <si>
-    <t>2qhASBzpbFhPRtrnZ5lLnz</t>
-  </si>
-  <si>
-    <t>2ZNTPtYmAhN9vCwnAgqKn1</t>
-  </si>
-  <si>
-    <t>124NFj84ppZ5pAxTuVQYCQ</t>
-  </si>
-  <si>
-    <t>170DNUSnQRp1tGpppF26pA</t>
-  </si>
-  <si>
-    <t>1l2Xmg54EUr3TDzNIaCr1z</t>
-  </si>
-  <si>
-    <t>3g3xDtGtU0asKw6iYCYiG5</t>
-  </si>
-  <si>
-    <t>7zrPswSV1yxrill5OyCuaU</t>
-  </si>
-  <si>
-    <t>25ugoarRZ6IaZegrjNxGOx</t>
-  </si>
-  <si>
-    <t>1Q1b8eVkUPGlpSArl8JAVw</t>
-  </si>
-  <si>
-    <t>7kjg2NCn3Zx70m1DFHSSGO</t>
-  </si>
-  <si>
-    <t>3VgrSJEKBRT3xmwzpaxxEF</t>
-  </si>
-  <si>
-    <t>54bm2e3tk8cliUz3VSdCPZ</t>
-  </si>
-  <si>
-    <t>3mM14WXoPaLRjjkmxHe99L</t>
-  </si>
-  <si>
-    <t>52FlwUMMDnTK8TGkCag9Jd</t>
-  </si>
-  <si>
-    <t>2uRVPeQbsEpRQD0DKr1WTo</t>
-  </si>
-  <si>
-    <t>1v1PV2wERHiMPesMWX0qmO</t>
-  </si>
-  <si>
-    <t>7cv28LXcjAC3GsXbUvXKbX</t>
-  </si>
-  <si>
-    <t>0wJoRiX5K5BxlqZTolB2LD</t>
-  </si>
-  <si>
-    <t>7pu8AhGUxHZSCWTkQ2eb5M</t>
-  </si>
-  <si>
-    <t>6KIKRz9eSTXdNsGUnomdtW</t>
-  </si>
-  <si>
-    <t>0DAmSYQW9kq9gQNDI002KP</t>
-  </si>
-  <si>
-    <t>4lJ6YVXQ0jUk5ILu0PSrA4</t>
-  </si>
-  <si>
-    <t>0Puj4YlTm6xNzDDADXHMI9</t>
-  </si>
-  <si>
-    <t>5GjPQ0eI7AgmOnADn1EO6Q</t>
-  </si>
-  <si>
-    <t>5UvE5QlINnvEc7aFO14DVL</t>
-  </si>
-  <si>
-    <t>3OcQkcvTcohs8vO8Rd3sKF</t>
-  </si>
-  <si>
-    <t>47BBI51FKFwOMlIiX6m8ya</t>
-  </si>
-  <si>
-    <t>1sSuFkO3m3Cr6YN24NYol5</t>
-  </si>
-  <si>
-    <t>13Oi7vfd9mrujcEmGAYAPe</t>
-  </si>
-  <si>
-    <t>3M8FzayQWtkvOhqMn2V4T2</t>
-  </si>
-  <si>
-    <t>6hHc7Pks7wtBIW8Z6A0iFq</t>
-  </si>
-  <si>
-    <t>4a01ClusxuZiloOK5UgLUn</t>
-  </si>
-  <si>
-    <t>2He3NOyqtLNE3RQPpeDdSb</t>
-  </si>
-  <si>
-    <t>4u9f8hqstB7iITDJNzKhQx</t>
-  </si>
-  <si>
-    <t>2tUBqZG2AbRi7Q0BIrVrEj</t>
-  </si>
-  <si>
-    <t>2HCaIYjkvWSZzaSKUoOh3d</t>
-  </si>
-  <si>
-    <t>3ZjrfGcb3A2PMGA1vRNgSk</t>
-  </si>
-  <si>
-    <t>5R9a4t5t5O0IsznsrKPVro</t>
-  </si>
-  <si>
-    <t>4BP3uh0hFLFRb5cjsgLqDh</t>
-  </si>
-  <si>
-    <t>0WQiDwKJclirSYG9v5tayI</t>
-  </si>
-  <si>
-    <t>1pjATX7sbd6Y4jMVqIvzHk</t>
-  </si>
-  <si>
-    <t>2kkvB3RNRzwjFdGhaUA0tz</t>
-  </si>
-  <si>
-    <t>3UmaczJpikHgJFyBTAJVoz</t>
-  </si>
-  <si>
-    <t>2PuUFT13yCzUOZun94WOXv</t>
-  </si>
-  <si>
-    <t>44BmNSqH9uZV5OfIjGcER3</t>
-  </si>
-  <si>
-    <t>6wVViUl2xSRoDK2T7dMZbR</t>
-  </si>
-  <si>
-    <t>5tVA6TkbaAH9QMITTQRrNv</t>
-  </si>
-  <si>
-    <t>4NRQwaks9r58tTDvr4iEyv</t>
-  </si>
-  <si>
-    <t>2id8E4WvczfKHB4LHI7Np3</t>
-  </si>
-  <si>
-    <t>4gphxUgq0JSFv2BCLhNDiE</t>
-  </si>
-  <si>
-    <t>33ZXjLCpiINn8eQIDYEPTD</t>
-  </si>
-  <si>
-    <t>7Hx2EA4wGaxtsiZCVVLV1i</t>
-  </si>
-  <si>
-    <t>63T7DJ1AFDD6Bn8VzG6JE8</t>
-  </si>
-  <si>
-    <t>1QEEqeFIZktqIpPI4jSVSF</t>
-  </si>
-  <si>
-    <t>6ADSaE87h8Y3lccZlBJdXH</t>
-  </si>
-  <si>
-    <t>4gvea7UlDkAvsJBPZAd4oB</t>
-  </si>
-  <si>
-    <t>49t1GWE6ZiEoBgN92oMDdM</t>
-  </si>
-  <si>
-    <t>59WN2psjkt1tyaxjspN8fp</t>
-  </si>
-  <si>
-    <t>6V9VCm1zOY2lGR80RehJ9i</t>
-  </si>
-  <si>
-    <t>3MjUtNVVq3C8Fn0MP3zhXa</t>
-  </si>
-  <si>
-    <t>7uPmQttafLiJyju14JREY4</t>
-  </si>
-  <si>
-    <t>2eF8pWbiivYsYRpbntYsnc</t>
-  </si>
-  <si>
-    <t>38zsOOcu31XbbYj9BIPUF1</t>
-  </si>
-  <si>
-    <t>6YffUZJ2R06kyxyK6onezL</t>
-  </si>
-  <si>
-    <t>0LrwgdLsFaWh9VXIjBRe8t</t>
-  </si>
-  <si>
-    <t>5MxNLUsfh7uzROypsoO5qe</t>
-  </si>
-  <si>
-    <t>3VZmChrnVW8JK6ano4gSED</t>
-  </si>
-  <si>
-    <t>0CcL4kSHKIEwF3IW0BGgb6</t>
-  </si>
-  <si>
-    <t>6hpmTwgNCz81H2bFEREx29</t>
-  </si>
-  <si>
-    <t>3zpj9dvJABiyMrmLCPw6i8</t>
-  </si>
-  <si>
-    <t>3m2Zd230K68bC4Qe961d9p</t>
-  </si>
-  <si>
-    <t>52dm9op3rbfAkc1LGXgipW</t>
-  </si>
-  <si>
-    <t>63BokRfXSQhEU6Qi2dSJpZ</t>
-  </si>
-  <si>
-    <t>4FdDorlbJTVHcH3djLbIfn</t>
-  </si>
-  <si>
-    <t>5n8Aro6j1bEGIy7Tpo7FV7</t>
-  </si>
-  <si>
-    <t>72Z17vmmeQKAg8bptWvpVG</t>
-  </si>
-  <si>
-    <t>1Eolhana7nKHYpcYpdVcT5</t>
-  </si>
-  <si>
-    <t>6k9DUKMJpWvu6eFG3O64Lg</t>
-  </si>
-  <si>
-    <t>5YLnfy7R2kueN0BRPkjiEG</t>
-  </si>
-  <si>
-    <t>1OOtq8tRnDM8kG2gqUPjAj</t>
-  </si>
-  <si>
-    <t>3nvuPQTw2zuFAVuLsC9IYQ</t>
-  </si>
-  <si>
-    <t>0n2pjCIMKwHSXoYfEbYMfX</t>
-  </si>
-  <si>
-    <t>2YplrdHMBoRdnHgMeHEwHm</t>
-  </si>
-  <si>
-    <t>2BGNomqCxEDcXyxf8bg27k</t>
-  </si>
-  <si>
-    <t>5p3JunprHCxClJjOmcLV8G</t>
-  </si>
-  <si>
-    <t>5HNCy40Ni5BZJFw1TKzRsC</t>
-  </si>
-  <si>
-    <t>2Fxmhks0bxGSBdJ92vM42m</t>
-  </si>
-  <si>
-    <t>7N3PAbqfTjSEU1edb2tY8j</t>
-  </si>
-  <si>
-    <t>29SyMC0plk6qw8NMF7lfRL</t>
-  </si>
-  <si>
-    <t>3YdKJzcoMZMacISlpY4QoP</t>
-  </si>
-  <si>
-    <t>46dGFTD918NMz1IP1rPJXO</t>
-  </si>
-  <si>
-    <t>7Me0vOSlJfaPY7Pc4GeItd</t>
-  </si>
-  <si>
-    <t>29U7stRjqHU6rMiS8BfaI9</t>
-  </si>
-  <si>
-    <t>0GVvRmCoiLkhxJvlZy9bLk</t>
-  </si>
-  <si>
-    <t>7MRyJPksH3G2cXHN8UKYzP</t>
-  </si>
-  <si>
-    <t>7odHgoLFi3GQ90E9PeraI3</t>
-  </si>
-  <si>
-    <t>5Z01UMMf7V1o0MzF86s6WJ</t>
-  </si>
-  <si>
-    <t>0WNGPpmWqzPnk0psUhJ3SX</t>
-  </si>
-  <si>
-    <t>4tj7IsJrn4MvesuhoY0JBy</t>
-  </si>
-  <si>
-    <t>3RkQ3UwOyPqpIiIvGVewuU</t>
-  </si>
-  <si>
-    <t>5ihS6UUlyQAfmp48eSkxuQ</t>
-  </si>
-  <si>
-    <t>4KROoGIaPaR1pBHPnR3bwC</t>
-  </si>
-  <si>
-    <t>2m0M7YqCy4lXfedh18qd8N</t>
-  </si>
-  <si>
-    <t>6G0NzOx2jEPFsSmhr9N8Ys</t>
-  </si>
-  <si>
-    <t>3qiyyUfYe7CRYLucrPmulD</t>
-  </si>
-  <si>
-    <t>0WSlOSMLJWoWUpWci9nnRb</t>
-  </si>
-  <si>
-    <t>0WIbzDVEpmOyBnqqdtqIL9</t>
-  </si>
-  <si>
-    <t>0iA3xXSkSCiJywKyo1UKjQ</t>
-  </si>
-  <si>
-    <t>7j02rdE5RVtNcNMuLGY5SS</t>
-  </si>
-  <si>
-    <t>2dCmGcEOQrMQhMMS8Vj7Ca</t>
-  </si>
-  <si>
-    <t>2EZc13S7YRi6bTS3SKteRN</t>
-  </si>
-  <si>
-    <t>0bwy3sGHeYwng2Ioicq6wf</t>
-  </si>
-  <si>
-    <t>6L89mwZXSOwYl76YXfX13s</t>
-  </si>
-  <si>
-    <t>3gdewACMIVMEWVbyb8O9sY</t>
-  </si>
-  <si>
-    <t>6Vjk8MNXpQpi0F4BefdTyq</t>
-  </si>
-  <si>
-    <t>06PdA0DLgF4BfAeUNZAbFG</t>
-  </si>
-  <si>
-    <t>1oht5GevPN9t1T3kG1m1GO</t>
-  </si>
-  <si>
-    <t>0I3q5fE6wg7LIfHGngUTnV</t>
-  </si>
-  <si>
-    <t>1uBsu3PbD2909UBIfEMLvK</t>
-  </si>
-  <si>
-    <t>5jzma6gCzYtKB1DbEwFZKH</t>
-  </si>
-  <si>
-    <t>1q0wCfrE9eGFMzS2g8aVnx</t>
-  </si>
-  <si>
-    <t>6rovOdp3HgK1DeAMYDzoA7</t>
-  </si>
-  <si>
-    <t>423hwXFgoN8RYmqLoLuVvY</t>
-  </si>
-  <si>
-    <t>27QvYgBk0CHOVHthWnkuWt</t>
-  </si>
-  <si>
-    <t>0a4agFmqHXxcZl1nho1BxM</t>
-  </si>
-  <si>
-    <t>6ocbgoVGwYJhOv1GgI9NsF</t>
-  </si>
-  <si>
-    <t>36AlMHDBFwSsD3FQOy1R81</t>
-  </si>
-  <si>
-    <t>6nEkxYIEnrbYH7h1hJ8Xn6</t>
-  </si>
-  <si>
-    <t>3Be7CLdHZpyzsVijme39cW</t>
-  </si>
-  <si>
-    <t>4bHsxqR3GMrXTxEPLuK5ue</t>
-  </si>
-  <si>
-    <t>0SwuCcwpFM6x4cu5zOvmi0</t>
-  </si>
-  <si>
-    <t>3SdTKo2uVsxFblQjpScoHy</t>
-  </si>
-  <si>
-    <t>6rLqjzGV5VMLDWEnuUqi8q</t>
-  </si>
-  <si>
-    <t>2aSC2xhRxOLiiZZVjhbylH</t>
-  </si>
-  <si>
-    <t>0hCB0YR03f6AmQaHbwWDe8</t>
-  </si>
-  <si>
-    <t>6qspW4YKycviDFjHBOaqUY</t>
-  </si>
-  <si>
-    <t>3tyTt5pEWblt96j1HsXiV5</t>
-  </si>
-  <si>
-    <t>3LoDeIbiR12sAznmpNEmKA</t>
-  </si>
-  <si>
-    <t>50RwvvEKX5Q7AZt8FTAwIF</t>
-  </si>
-  <si>
-    <t>6aBUnkXuCEQQHAlTokv9or</t>
-  </si>
-  <si>
-    <t>6AeG6jSoAVbmUFO6LyYmBf</t>
-  </si>
-  <si>
-    <t>7iN1s7xHE4ifF5povM6A48</t>
-  </si>
-  <si>
-    <t>7weMJXfu8leOPWd4COj2Qp</t>
-  </si>
-  <si>
-    <t>1tqT6DhmsrtQgyCKUwotiw</t>
-  </si>
-  <si>
-    <t>70LcF31zb1H0PyJoS1Sx1r</t>
-  </si>
-  <si>
-    <t>3NfxSdJnVdon1axzloJgba</t>
-  </si>
-  <si>
-    <t>0gFB5H3pHN13ERt2FyMuWi</t>
-  </si>
-  <si>
-    <t>4Hhv2vrOTy89HFRcjU3QOx</t>
-  </si>
-  <si>
-    <t>6I9VzXrHxO9rA9A5euc8Ak</t>
-  </si>
-  <si>
-    <t>0dMd4rilfd6gPbXaLpNYhu</t>
-  </si>
-  <si>
-    <t>31AOj9sFz2gM0O3hMARRBx</t>
-  </si>
-  <si>
-    <t>56lhDZNQ5J47aog6mGKeGk</t>
-  </si>
-  <si>
-    <t>0pNeVovbiZHkulpGeOx1Gj</t>
-  </si>
-  <si>
-    <t>4ZVZBc5xvMyV3WzWktn8i7</t>
-  </si>
-  <si>
-    <t>76GlO5H5RT6g7y0gev86Nk</t>
-  </si>
-  <si>
-    <t>119c93MHjrDLJTApCVGpvx</t>
-  </si>
-  <si>
-    <t>1Ud6moTC0KyXMq1Oxfien0</t>
-  </si>
-  <si>
-    <t>3ZE3wv8V3w2T2f7nOCjV0N</t>
-  </si>
-  <si>
-    <t>5LxvwujISqiB8vpRYv887S</t>
-  </si>
-  <si>
-    <t>3jS7bB0oXVOwGFZn3aE5NV</t>
-  </si>
-  <si>
-    <t>3SQhmctWreNM0X6Zkm2K5R</t>
-  </si>
-  <si>
-    <t>7sKDftgGirHWTVFMtJoDoh</t>
-  </si>
-  <si>
-    <t>18GiV1BaXzPVYpp9rmOg0E</t>
-  </si>
-  <si>
-    <t>5ubvP9oKmxLUVq506fgLhk</t>
-  </si>
-  <si>
-    <t>3KfbEIOC7YIv90FIfNSZpo</t>
-  </si>
-  <si>
-    <t>272Z4tzaSMMcgrZ0R494S2</t>
-  </si>
-  <si>
-    <t>7sLpSWxQazJzDVG6YGzlVs</t>
-  </si>
-  <si>
-    <t>7ygpwy2qP3NbrxVkHvUhXY</t>
-  </si>
-  <si>
-    <t>4eHbdreAnSOrDDsFfc4Fpm</t>
-  </si>
-  <si>
-    <t>3xrn9i8zhNZsTtcoWgQEAd</t>
-  </si>
-  <si>
-    <t>0ZvgXNstN4o2ZXPomtBYVp</t>
-  </si>
-  <si>
-    <t>4ns1XFP3W5JPyzvnAjMdHD</t>
-  </si>
-  <si>
-    <t>5K09WxKdlkroDyEVyOSySy</t>
-  </si>
-  <si>
-    <t>0aym2LBJBk9DAYuHHutrIl</t>
-  </si>
-  <si>
-    <t>7snQQk1zcKl8gZ92AnueZW</t>
-  </si>
-  <si>
-    <t>2Ud3deeqLAG988pfW0Kwcl</t>
-  </si>
-  <si>
-    <t>4hq0S6wznq7SHDyMOFXL9i</t>
-  </si>
-  <si>
-    <t>62LJFaYihsdVrrkgUOJC05</t>
-  </si>
-  <si>
-    <t>63xdwScd1Ai1GigAwQxE8y</t>
-  </si>
-  <si>
-    <t>4n1ZGm3TxYmoYe1YR8cMus</t>
-  </si>
-  <si>
-    <t>1c8gk2PeTE04A1pIDH9YMk</t>
-  </si>
-  <si>
-    <t>3fElupNRLRJ0tbUDahPrAb</t>
-  </si>
-  <si>
-    <t>5yQ9iMZXGcr5rlO4hoLsP4</t>
-  </si>
-  <si>
-    <t>3FAclTFfvUuQYnEsptbK8w</t>
-  </si>
-  <si>
-    <t>6Pkj4nv5K53i64cLVgkVyY</t>
-  </si>
-  <si>
-    <t>5E5HYgxGMp3BPakHGfKfIB</t>
-  </si>
-  <si>
-    <t>7hxZF4jETnE5Q75rKQnMjE</t>
-  </si>
-  <si>
-    <t>2fXKyAyPrEa24c6PJyqznF</t>
-  </si>
-  <si>
-    <t>7yzbimr8WVyAtBX3Eg6UL9</t>
-  </si>
-  <si>
-    <t>6g0Orsxv6glTJCt4cHsRsQ</t>
-  </si>
-  <si>
-    <t>3BQHpFgAp4l80e1XslIjNI</t>
-  </si>
-  <si>
-    <t>2M9ro2krNb7nr7HSprkEgo</t>
-  </si>
-  <si>
-    <t>1H5IfYyIIAlgDX8zguUzns</t>
-  </si>
-  <si>
-    <t>1q3RiD1tIWUpGsNFADMlvl</t>
-  </si>
-  <si>
-    <t>4N3stlRuz5cBNI4J4vDJ18</t>
-  </si>
-  <si>
-    <t>6Vcwr9tb3ZLO63F8DL8cqu</t>
-  </si>
-  <si>
-    <t>6QhXQOpyYvbpdbyjgAqKdY</t>
-  </si>
-  <si>
-    <t>2grjqo0Frpf2okIBiifQKs</t>
-  </si>
-  <si>
-    <t>4KcH1ZRV2W1q7Flq0QqC76</t>
-  </si>
-  <si>
-    <t>2SpEHTbUuebeLkgs9QB7Ue</t>
-  </si>
-  <si>
-    <t>3G69vJMWsX6ZohTykad2AU</t>
-  </si>
-  <si>
-    <t>5CQ30WqJwcep0pYcV4AMNc</t>
-  </si>
-  <si>
-    <t>29d0nY7TzCoi22XBqDQkiP</t>
-  </si>
-  <si>
-    <t>5DuTNKFEjJIySAyJH1yNDU</t>
-  </si>
-  <si>
-    <t>0P7DoyGrr4Wp9w5TotEtUC</t>
-  </si>
-  <si>
-    <t>4f3u4Oy0JqJRIhMmTqRcxj</t>
-  </si>
-  <si>
-    <t>3jagJCUbdqhDSPuxP8cAqF</t>
-  </si>
-  <si>
-    <t>1z3ugFmUKoCzGsI6jdY4Ci</t>
-  </si>
-  <si>
-    <t>6QyQmdvQ1ywNccYa0pwLNQ</t>
-  </si>
-  <si>
-    <t>5t9KYe0Fhd5cW6UYT4qP8f</t>
-  </si>
-  <si>
-    <t>7B7lf3sIze5VR2WuYttn18</t>
-  </si>
-  <si>
-    <t>3xsOtNxtBW0oTI1OWKAzTm</t>
-  </si>
-  <si>
-    <t>6jEZLz3YpnEBRpVkv35AmP</t>
-  </si>
-  <si>
-    <t>0uEp9E98JB5awlA084uaIg</t>
-  </si>
-  <si>
-    <t>1W5XugQJGhnSATMI5n002M</t>
-  </si>
-  <si>
-    <t>2TVxnKdb3tqe1nhQWwwZCO</t>
-  </si>
-  <si>
-    <t>1ixbwbeBi5ufN4noUKmW5a</t>
-  </si>
-  <si>
-    <t>3iVcZ5G6tvkXZkZKlMpIUs</t>
-  </si>
-  <si>
-    <t>5ChkMS8OtdzJeqyybCc9R5</t>
-  </si>
-  <si>
-    <t>745H5CctFr12Mo7cqa1BMH</t>
-  </si>
-  <si>
-    <t>26PwuMotZqcczKLHi4Htz3</t>
-  </si>
-  <si>
-    <t>34iOH7LY3vme5rQxsVILZ4</t>
-  </si>
-  <si>
-    <t>2aoo2jlRnM3A0NyLQqMN2f</t>
-  </si>
-  <si>
-    <t>5z7mYFfhw6N6f23VwrokJD</t>
-  </si>
-  <si>
-    <t>3zBhihYUHBmGd2bcQIobrF</t>
-  </si>
-  <si>
-    <t>51H2y6YrNNXcy3dfc3qSbA</t>
-  </si>
-  <si>
-    <t>3dPQuX8Gs42Y7b454ybpMR</t>
-  </si>
-  <si>
-    <t>2iXcvnD3d1gfLBum0cE5Eg</t>
-  </si>
-  <si>
-    <t>5VnpYqIzm02X9gOhVElQo3</t>
-  </si>
-  <si>
-    <t>2QfiRTz5Yc8DdShCxG1tB2</t>
-  </si>
-  <si>
-    <t>5ByAIlEEnxYdvpnezg7HTX</t>
-  </si>
-  <si>
-    <t>2PzU4IB8Dr6mxV3lHuaG34</t>
-  </si>
-  <si>
-    <t>2dLLR6qlu5UJ5gk0dKz0h3</t>
-  </si>
-  <si>
-    <t>4YtoipFgf4k0AfD17ZfD5X</t>
-  </si>
-  <si>
-    <t>38Ngied9rBORlAbLYNCl4k</t>
-  </si>
-  <si>
-    <t>6hTcuIQa0sxrrByu9wTD7s</t>
-  </si>
-  <si>
-    <t>7shVwhUdVbHpykOfbzvDc1</t>
-  </si>
-  <si>
-    <t>3DK6m7It6Pw857FcQftMds</t>
-  </si>
-  <si>
-    <t>0hKRSZhUGEhKU6aNSPBACZ</t>
-  </si>
-  <si>
-    <t>7Jh1bpe76CNTCgdgAdBw4Z</t>
-  </si>
-  <si>
-    <t>2G2YzndIA6jeWFPBXhUjh5</t>
-  </si>
-  <si>
-    <t>1CTex49P0iWwzUGsMNjgaV</t>
-  </si>
-  <si>
-    <t>7g13jf3zqlP5S68Voo5v9m</t>
-  </si>
-  <si>
-    <t>7pKfPomDEeI4TPT6EOYjn9</t>
-  </si>
-  <si>
-    <t>54X78diSLoUDI3joC2bjMz</t>
-  </si>
-  <si>
-    <t>7tFiyTwD0nx5a1eklYtX2J</t>
-  </si>
-  <si>
-    <t>5IVuqXILoxVWvWEPm82Jxr</t>
-  </si>
-  <si>
-    <t>4pbG9SUmWIvsROVLF0zF9s</t>
-  </si>
-  <si>
-    <t>5nrmGFJ87crVoJF5xdRqwn</t>
-  </si>
-  <si>
-    <t>6H3kDe7CGoWYBabAeVWGiD</t>
-  </si>
-  <si>
-    <t>4N0TP4Rmj6QQezWV88ARNJ</t>
-  </si>
-  <si>
-    <t>6iGU74CwXuT4XVepjc9Emf</t>
-  </si>
-  <si>
-    <t>2PpruBYCo4H7WOBJ7Q2EwM</t>
-  </si>
-  <si>
-    <t>0ofHAoxe9vBkTCp2UQIavz</t>
-  </si>
-  <si>
-    <t>6zsk6uF3MxfIeHPlubKBvR</t>
-  </si>
-  <si>
-    <t>3Am0IbOxmvlSXro7N5iSfZ</t>
-  </si>
-  <si>
-    <t>3Um9toULmYFGCpvaIPFw7l</t>
-  </si>
-  <si>
-    <t>5ghIJDpPoe3CfHMGu71E6T</t>
-  </si>
-  <si>
-    <t>3AhXZa8sUQht0UEdBJgpGc</t>
-  </si>
-  <si>
-    <t>0KOE1hat4SIer491XKk4Pa</t>
-  </si>
-  <si>
-    <t>1yo16b3u0lptm6Cs7lx4AD</t>
-  </si>
-  <si>
-    <t>7s25THrKz86DM225dOYwnr</t>
-  </si>
-  <si>
-    <t>2Y90nL1ohB4sgYELDs7uNx</t>
-  </si>
-  <si>
-    <t>0dOg1ySSI7NkpAe89Zo0b9</t>
-  </si>
-  <si>
-    <t>5zA8vzDGqPl2AzZkEYQGKh</t>
-  </si>
-  <si>
-    <t>70C4NyhjD5OZUMzvWZ3njJ</t>
-  </si>
-  <si>
-    <t>3Cx4yrFaX8CeHwBMReOWXI</t>
-  </si>
-  <si>
-    <t>64UioB4Nmwgn2f4cbIpAkl</t>
-  </si>
-  <si>
-    <t>2EqlS6tkEnglzr7tkKAAYD</t>
-  </si>
-  <si>
-    <t>78lgmZwycJ3nzsdgmPPGNx</t>
-  </si>
-  <si>
-    <t>1fDsrQ23eTAVFElUMaf38X</t>
-  </si>
-  <si>
-    <t>7HKez549fwJQDzx3zLjHKC</t>
-  </si>
-  <si>
-    <t>14uQWXYRflpBP8J6olZ8mH</t>
-  </si>
-  <si>
-    <t>5Ff6Zg5Bw1nm6bK8dzIXmQ</t>
-  </si>
-  <si>
-    <t>7hQJA50XrCWABAu5v6QZ4i</t>
-  </si>
-  <si>
-    <t>7GqWnsKhMtEW0nzki5o0d8</t>
-  </si>
-  <si>
-    <t>4vO9dmzNRqDhFY3jD1a3P7</t>
-  </si>
-  <si>
-    <t>57JVGBtBLCfHw2muk5416J</t>
-  </si>
-  <si>
-    <t>54flyrjcdnQdco7300avMJ</t>
-  </si>
-  <si>
-    <t>4OKf7CcYuw5H2HptkcKxcP</t>
-  </si>
-  <si>
-    <t>7ccI9cStQbQdystvc6TvxD</t>
-  </si>
-  <si>
-    <t>72ahyckBJfTigJCFCviVN7</t>
-  </si>
-  <si>
-    <t>2RlgNHKcydI9sayD2Df2xp</t>
-  </si>
-  <si>
-    <t>1Pd1h30mgU05QkWYhgFzwt</t>
-  </si>
-  <si>
-    <t>0xAhbD6lCf5re1RXl5yiTm</t>
-  </si>
-  <si>
-    <t>777NOXupZkFdg8zlPMoVqc</t>
-  </si>
-  <si>
-    <t>15VRO9CQwMpbqUYA7e6Hwg</t>
-  </si>
-  <si>
-    <t>2YodwKJnbPyNKe8XXSE9V7</t>
-  </si>
-  <si>
-    <t>6QewNVIDKdSl8Y3ycuHIei</t>
-  </si>
-  <si>
-    <t>5Xak5fmy089t0FYmh3VJiY</t>
-  </si>
-  <si>
-    <t>62nQ8UZVqR2RMvkJHkcO2o</t>
-  </si>
-  <si>
-    <t>3bE5slaVEfaDreqARl6k4M</t>
-  </si>
-  <si>
-    <t>53eJFr4Mfbw5PXJ01K6cFw</t>
-  </si>
-  <si>
-    <t>57bgtoPSgt236HzfBOd8kj</t>
-  </si>
-  <si>
-    <t>08mG3Y1vljYA6bvDt4Wqkj</t>
-  </si>
-  <si>
-    <t>0J6mQxEZnlRt9ymzFntA6z</t>
-  </si>
-  <si>
-    <t>7HKxTNVlkHsfMLhigmhC0I</t>
-  </si>
-  <si>
-    <t>5SZ6zX4rOrEQferfFC2MfP</t>
-  </si>
-  <si>
-    <t>24NwBd5vZ2CK8VOQVnqdxr</t>
-  </si>
-  <si>
-    <t>39shmbIHICJ2Wxnk1fPSdz</t>
-  </si>
-  <si>
-    <t>4MhTFsyqIJnjsOweVcU8ug</t>
-  </si>
-  <si>
-    <t>5Q41NLTmGbVPozwHKK7bk2</t>
-  </si>
-  <si>
-    <t>5NIPsWpDjJTFBoPxCUUeXp</t>
-  </si>
-  <si>
-    <t>0PsbWiVtix5FoTZ1s00mEl</t>
-  </si>
-  <si>
-    <t>1CQqupcyMg7176PPmIVmSj</t>
-  </si>
-  <si>
-    <t>4gMgiXfqyzZLMhsksGmbQV</t>
-  </si>
-  <si>
-    <t>5RsUlxLto4NZbhJpqJbHfN</t>
-  </si>
-  <si>
-    <t>2wvMC5EyaaYQwBfiwwY2xE</t>
-  </si>
-  <si>
-    <t>1HOMkjp0nHMaTnfAkslCQj</t>
-  </si>
-  <si>
-    <t>1H4idkmruFoJBg1DvUv2tY</t>
-  </si>
-  <si>
-    <t>0mRQp2HsSqX1MZuMvonAPN</t>
-  </si>
-  <si>
-    <t>7dn9n3J6C5LCyK7FmvVAM8</t>
-  </si>
-  <si>
-    <t>0SYRVn2YF7HBscQEmlkpTI</t>
-  </si>
-  <si>
-    <t>05RgAMGypEvqhNs5hPCbMS</t>
-  </si>
-  <si>
-    <t>6Fba9RZtC6vTY814JToDtP</t>
-  </si>
-  <si>
-    <t>7r45JFRfUkMjj5PHdAmRYk</t>
-  </si>
-  <si>
-    <t>1ju7EsSGvRybSNEsRvc7qY</t>
-  </si>
-  <si>
-    <t>5NoQvINZLBV1wMYPdNmReL</t>
-  </si>
-  <si>
-    <t>3yrSvpt2l1xhsV9Em88Pul</t>
-  </si>
-  <si>
-    <t>2BY7ALEWdloFHgQZG6VMLA</t>
-  </si>
-  <si>
-    <t>0GONea6G2XdnHWjNZd6zt3</t>
-  </si>
-  <si>
-    <t>4MC8Oom2D2a7ZPQDpuVIYK</t>
-  </si>
-  <si>
-    <t>2xYlyywNgefLCRDG8hlxZq</t>
-  </si>
-  <si>
-    <t>1LaGFtGh2yoBipaCdqJeRU</t>
-  </si>
-  <si>
-    <t>6cJqlSO19vsfCsH1FeFI35</t>
-  </si>
-  <si>
-    <t>42et6fnHCw1HIPSrdPprMl</t>
-  </si>
-  <si>
-    <t>7oK9VyNzrYvRFo7nQEYkWN</t>
-  </si>
-  <si>
-    <t>48UPSzbZjgc449aqz8bxox</t>
-  </si>
-  <si>
-    <t>3ZOEytgrvLwQaqXreDs2Jx</t>
-  </si>
-  <si>
-    <t>2aibwv5hGXSgw7Yru8IYTO</t>
-  </si>
-  <si>
-    <t>64BbK9SFKH2jk86U3dGj2P</t>
-  </si>
-  <si>
-    <t>5IMtdHjJ1OtkxbGe4zfUxQ</t>
-  </si>
-  <si>
-    <t>0RFgvrhkf9FiDRLA0BhzpZ</t>
-  </si>
-  <si>
-    <t>0qRR9d89hIS0MHRkQ0ejxX</t>
   </si>
   <si>
     <t>0sgDEFq9oeC8ueOK0mR5IA</t>
@@ -7582,17 +7585,17 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>47</v>
+        <v>549</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="577">
@@ -7602,7 +7605,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="579">
@@ -7612,12 +7615,12 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="582">
@@ -7627,22 +7630,22 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="587">
@@ -7652,7 +7655,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="589">
@@ -7662,7 +7665,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="591">
@@ -7682,12 +7685,12 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="596">
@@ -7697,7 +7700,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="598">
@@ -7712,52 +7715,52 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="610">
@@ -7767,32 +7770,32 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="617">
@@ -7802,27 +7805,27 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="623">
@@ -7832,17 +7835,17 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="627">
@@ -7852,42 +7855,42 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="636">
@@ -7897,62 +7900,62 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="649">
@@ -7962,97 +7965,97 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="669">
@@ -8062,272 +8065,272 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="724">
@@ -8337,42 +8340,42 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="733">
@@ -8382,347 +8385,347 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="803">
@@ -8732,117 +8735,117 @@
     </row>
     <row r="804">
       <c r="A804" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="827">
@@ -8852,62 +8855,62 @@
     </row>
     <row r="828">
       <c r="A828" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="840">
@@ -8917,367 +8920,367 @@
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="914">
@@ -9287,502 +9290,502 @@
     </row>
     <row r="915">
       <c r="A915" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1015">
@@ -9792,182 +9795,182 @@
     </row>
     <row r="1016">
       <c r="A1016" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1052">
@@ -9977,162 +9980,162 @@
     </row>
     <row r="1053">
       <c r="A1053" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1085">
@@ -10142,52 +10145,52 @@
     </row>
     <row r="1086">
       <c r="A1086" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1096">
@@ -10197,372 +10200,372 @@
     </row>
     <row r="1097">
       <c r="A1097" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1171">
@@ -10572,7 +10575,7 @@
     </row>
     <row r="1172">
       <c r="A1172" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1173">
@@ -10582,447 +10585,447 @@
     </row>
     <row r="1174">
       <c r="A1174" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1263">
@@ -11032,87 +11035,87 @@
     </row>
     <row r="1264">
       <c r="A1264" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1281">
@@ -11122,287 +11125,287 @@
     </row>
     <row r="1282">
       <c r="A1282" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1339">
@@ -11412,667 +11415,667 @@
     </row>
     <row r="1340">
       <c r="A1340" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1473">
@@ -12087,517 +12090,517 @@
     </row>
     <row r="1475">
       <c r="A1475" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1489">
       <c r="A1489" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1490">
       <c r="A1490" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1502">
       <c r="A1502" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1503">
       <c r="A1503" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1509">
       <c r="A1509" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1512">
       <c r="A1512" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1513">
       <c r="A1513" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1514">
       <c r="A1514" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1515">
       <c r="A1515" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1516">
       <c r="A1516" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1525">
       <c r="A1525" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1526">
       <c r="A1526" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1528">
       <c r="A1528" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1532">
       <c r="A1532" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1535">
       <c r="A1535" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1536">
       <c r="A1536" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1551">
       <c r="A1551" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1552">
       <c r="A1552" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1554">
       <c r="A1554" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1555">
       <c r="A1555" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1574">
       <c r="A1574" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1575">
       <c r="A1575" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1576">
       <c r="A1576" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1577">
       <c r="A1577" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1578">
@@ -12607,12 +12610,12 @@
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1581">
@@ -12622,17 +12625,17 @@
     </row>
     <row r="1582">
       <c r="A1582" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1585">
@@ -12642,62 +12645,62 @@
     </row>
     <row r="1586">
       <c r="A1586" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1598">
@@ -12707,87 +12710,87 @@
     </row>
     <row r="1599">
       <c r="A1599" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1602">
       <c r="A1602" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1605">
       <c r="A1605" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1616">
